--- a/MUSCBoneDensity.xlsx
+++ b/MUSCBoneDensity.xlsx
@@ -469,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -783,6 +783,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -901,6 +914,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -918,8 +944,11 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1150,19 +1179,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1174,7 +1203,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1195,28 +1224,37 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1573,3885 +1611,3885 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V93" sqref="V93"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="9" customWidth="1"/>
-    <col min="3" max="13" width="11.5703125" style="9"/>
-    <col min="14" max="14" width="2.5703125" style="10" customWidth="1"/>
-    <col min="15" max="28" width="11.5703125" style="10"/>
-    <col min="29" max="29" width="11.5703125" style="11"/>
-    <col min="30" max="30" width="11.5703125" style="10"/>
+    <col min="1" max="1" width="2.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="10" customWidth="1"/>
+    <col min="3" max="13" width="11.5703125" style="10"/>
+    <col min="14" max="14" width="2.5703125" style="11" customWidth="1"/>
+    <col min="15" max="28" width="11.5703125" style="11"/>
+    <col min="29" max="29" width="11.5703125" style="12"/>
+    <col min="30" max="30" width="11.5703125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A1" s="12">
+      <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
-      <c r="O1" s="16" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="O1" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="18"/>
-      <c r="AA1" s="19" t="s">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="19"/>
+      <c r="AA1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" s="20"/>
-      <c r="AD1" s="20"/>
+      <c r="AB1" s="21"/>
+      <c r="AD1" s="21"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
       <c r="H2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="24" t="s">
+      <c r="M2" s="23"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="25"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="20"/>
-      <c r="AD2" s="20"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="26"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="21"/>
+      <c r="AD2" s="21"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="H3" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="24" t="s">
+      <c r="M3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="25"/>
-      <c r="AA3" s="27" t="str">
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="26"/>
+      <c r="AA3" s="28" t="str">
         <f>IF(AB7="","",AB7)</f>
         <v/>
       </c>
-      <c r="AB3" s="20"/>
-      <c r="AD3" s="20"/>
+      <c r="AB3" s="21"/>
+      <c r="AD3" s="21"/>
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>4</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="H4" s="28"/>
-      <c r="M4" s="22"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="25"/>
-      <c r="AA4" s="29" t="s">
+      <c r="B4" s="22"/>
+      <c r="H4" s="29"/>
+      <c r="M4" s="23"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="26"/>
+      <c r="AA4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AB4" s="30"/>
-      <c r="AD4" s="20"/>
+      <c r="AB4" s="31"/>
+      <c r="AD4" s="21"/>
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>5</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="22"/>
       <c r="H5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="24" t="s">
+      <c r="M5" s="23"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="25"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="20"/>
-      <c r="AD5" s="20"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="26"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="21"/>
+      <c r="AD5" s="21"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>6</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="33"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="36"/>
-      <c r="AA6" s="37" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="34"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="37"/>
+      <c r="AA6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="20" t="s">
+      <c r="AB6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="20" t="s">
+      <c r="AD6" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>7</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20" t="s">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="X7" s="40" t="str">
+      <c r="X7" s="41" t="str">
         <f>IF(Y7&lt;&gt;"",Y7,IF(AB9="","",AB9))</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="Y7" s="41" t="s">
+      <c r="Y7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AA7" s="29" t="s">
+      <c r="AA7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="43" t="str">
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="44" t="str">
         <f t="shared" ref="AC7:AC17" si="0">IF(AB7&lt;&gt;AD7,"Change","")</f>
         <v/>
       </c>
-      <c r="AD7" s="44" t="str">
+      <c r="AD7" s="45" t="str">
         <f>IF(OR(AA2="",AA2=0),"",AA2)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>8</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="46" t="str">
+      <c r="P8" s="47" t="str">
         <f>IF(AB8="","",AB8)</f>
         <v/>
       </c>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="48" t="s">
+      <c r="Q8" s="48"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="50"/>
-      <c r="AA8" s="29" t="s">
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="51"/>
+      <c r="AA8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="43" t="str">
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD8" s="52" t="str">
+      <c r="AD8" s="53" t="str">
         <f>IF(P7="","",P7)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>9</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="53" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="57" t="s">
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57" t="s">
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="59"/>
-      <c r="AA9" s="29" t="s">
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="AA9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AB9" s="60" t="s">
+      <c r="AB9" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="AC9" s="43" t="str">
+      <c r="AC9" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD9" s="61" t="str">
+      <c r="AD9" s="62" t="str">
         <f>IF(X7="","",X7)</f>
         <v>Eugene Mah</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>10</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="62"/>
-      <c r="E10" s="63" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="63"/>
+      <c r="E10" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="7" t="str">
+      <c r="F10" s="8" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="7"/>
-      <c r="J10" s="63" t="s">
+      <c r="G10" s="8"/>
+      <c r="J10" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="7" t="str">
+      <c r="K10" s="8" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="22"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="29" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="23"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="40" t="str">
+      <c r="R10" s="41" t="str">
         <f>IF(S10&lt;&gt;"",S10,IF(AB10="","",AB10))</f>
         <v/>
       </c>
-      <c r="S10" s="41"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="29" t="s">
+      <c r="S10" s="42"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="V10" s="40" t="str">
+      <c r="V10" s="41" t="str">
         <f>IF(W10&lt;&gt;"",W10,IF(AB15="","",AB15))</f>
         <v/>
       </c>
-      <c r="W10" s="41"/>
-      <c r="Y10" s="67"/>
-      <c r="AA10" s="29" t="s">
+      <c r="W10" s="42"/>
+      <c r="Y10" s="68"/>
+      <c r="AA10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="43" t="str">
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD10" s="61" t="str">
+      <c r="AD10" s="62" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>11</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="62"/>
-      <c r="E11" s="63" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="63"/>
+      <c r="E11" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="6" t="str">
+      <c r="F11" s="7" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="6"/>
-      <c r="J11" s="63" t="s">
+      <c r="G11" s="7"/>
+      <c r="J11" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="6" t="str">
+      <c r="K11" s="7" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="22"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="29" t="s">
+      <c r="L11" s="7"/>
+      <c r="M11" s="23"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="40" t="str">
+      <c r="R11" s="41" t="str">
         <f>IF(S11&lt;&gt;"",S11,IF(AB11="","",AB11))</f>
         <v/>
       </c>
-      <c r="S11" s="41"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="29" t="s">
+      <c r="S11" s="42"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="40" t="str">
+      <c r="V11" s="41" t="str">
         <f>IF(W11&lt;&gt;"",W11,IF(AB16="","",AB16))</f>
         <v/>
       </c>
-      <c r="W11" s="41"/>
-      <c r="Y11" s="67"/>
-      <c r="AA11" s="29" t="s">
+      <c r="W11" s="42"/>
+      <c r="Y11" s="68"/>
+      <c r="AA11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="43" t="str">
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD11" s="61" t="str">
+      <c r="AD11" s="62" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>12</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="62"/>
-      <c r="E12" s="63" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="63"/>
+      <c r="E12" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6" t="str">
+      <c r="F12" s="7" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="6"/>
-      <c r="J12" s="63" t="s">
+      <c r="G12" s="7"/>
+      <c r="J12" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="5" t="str">
+      <c r="K12" s="6" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="22"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="29" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="23"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="40" t="str">
+      <c r="R12" s="41" t="str">
         <f>IF(S12&lt;&gt;"",S12,IF(AB12="","",AB12))</f>
         <v/>
       </c>
-      <c r="S12" s="41"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="29" t="s">
+      <c r="S12" s="42"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="V12" s="68" t="str">
+      <c r="V12" s="69" t="str">
         <f>IF(W12&lt;&gt;"",W12,IF(AB17="","",AB17))</f>
         <v/>
       </c>
-      <c r="W12" s="69"/>
-      <c r="Y12" s="67"/>
-      <c r="AA12" s="29" t="s">
+      <c r="W12" s="70"/>
+      <c r="Y12" s="68"/>
+      <c r="AA12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="43" t="str">
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD12" s="61" t="str">
+      <c r="AD12" s="62" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>13</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="62"/>
-      <c r="E13" s="63" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="63"/>
+      <c r="E13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="6" t="str">
+      <c r="F13" s="7" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="6"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="22"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="29" t="s">
+      <c r="G13" s="7"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="23"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="70" t="str">
+      <c r="R13" s="71" t="str">
         <f>IF(S13&lt;&gt;"",S13,IF(AB13="","",AB13))</f>
         <v/>
       </c>
-      <c r="S13" s="71"/>
-      <c r="T13" s="20"/>
-      <c r="V13" s="10" t="str">
+      <c r="S13" s="72"/>
+      <c r="T13" s="21"/>
+      <c r="V13" s="11" t="str">
         <f>IF(W13&lt;&gt;"",W13,IF(AB18="","",AB18))</f>
         <v/>
       </c>
-      <c r="Y13" s="67"/>
-      <c r="AA13" s="29" t="s">
+      <c r="Y13" s="68"/>
+      <c r="AA13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="43" t="str">
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD13" s="61" t="str">
+      <c r="AD13" s="62" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>14</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="62"/>
-      <c r="M14" s="22"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="29" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="63"/>
+      <c r="M14" s="23"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="40" t="str">
+      <c r="R14" s="41" t="str">
         <f>IF(S14&lt;&gt;"",S14,IF(AB14="","",AB14))</f>
         <v/>
       </c>
-      <c r="S14" s="41"/>
-      <c r="T14" s="20"/>
-      <c r="V14" s="10" t="str">
+      <c r="S14" s="42"/>
+      <c r="T14" s="21"/>
+      <c r="V14" s="11" t="str">
         <f>IF(W14&lt;&gt;"",W14,IF(AB19="","",AB19))</f>
         <v/>
       </c>
-      <c r="Y14" s="67"/>
-      <c r="AA14" s="29" t="s">
+      <c r="Y14" s="68"/>
+      <c r="AA14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="43" t="str">
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD14" s="61" t="str">
+      <c r="AD14" s="62" t="str">
         <f>IF(R14="","",R14)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>15</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="72" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="O15" s="66"/>
-      <c r="Y15" s="67"/>
-      <c r="AA15" s="29" t="s">
+      <c r="M15" s="23"/>
+      <c r="O15" s="67"/>
+      <c r="Y15" s="68"/>
+      <c r="AA15" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="43" t="str">
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD15" s="61" t="str">
+      <c r="AD15" s="62" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>16</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="62"/>
-      <c r="E16" s="63" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="63"/>
+      <c r="E16" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="7" t="str">
+      <c r="F16" s="8" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="7"/>
-      <c r="J16" s="63" t="s">
+      <c r="G16" s="8"/>
+      <c r="J16" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="3" t="str">
+      <c r="K16" s="4" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="22"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="73" t="s">
+      <c r="L16" s="4"/>
+      <c r="M16" s="23"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="Y16" s="67"/>
-      <c r="AA16" s="29" t="s">
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="Y16" s="68"/>
+      <c r="AA16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="43" t="str">
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD16" s="61" t="str">
+      <c r="AD16" s="62" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>17</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="62"/>
-      <c r="E17" s="63" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="63"/>
+      <c r="E17" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="7" t="str">
+      <c r="F17" s="8" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="7"/>
-      <c r="J17" s="63" t="s">
+      <c r="G17" s="8"/>
+      <c r="J17" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="7" t="str">
+      <c r="K17" s="8" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="22"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="29" t="s">
+      <c r="L17" s="8"/>
+      <c r="M17" s="23"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R17" s="40" t="str">
+      <c r="R17" s="41" t="str">
         <f>IF(S17&lt;&gt;"",S17,IF(AB21="","",AB21))</f>
         <v/>
       </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="29" t="s">
+      <c r="S17" s="42"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="V17" s="68" t="str">
+      <c r="V17" s="69" t="str">
         <f>IF(W17&lt;&gt;"",W17,IF(AB24="","",AB24))</f>
         <v/>
       </c>
-      <c r="W17" s="69"/>
-      <c r="Y17" s="67"/>
-      <c r="AA17" s="29" t="s">
+      <c r="W17" s="70"/>
+      <c r="Y17" s="68"/>
+      <c r="AA17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="43" t="str">
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD17" s="75" t="str">
+      <c r="AD17" s="76" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>18</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="62"/>
-      <c r="E18" s="63" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="63"/>
+      <c r="E18" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="7" t="str">
+      <c r="F18" s="8" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="7"/>
-      <c r="J18" s="63" t="s">
+      <c r="G18" s="8"/>
+      <c r="J18" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="7" t="str">
+      <c r="K18" s="8" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="22"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="29" t="s">
+      <c r="L18" s="8"/>
+      <c r="M18" s="23"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="40" t="str">
+      <c r="R18" s="41" t="str">
         <f>IF(S18&lt;&gt;"",S18,IF(AB22="","",AB22))</f>
         <v/>
       </c>
-      <c r="S18" s="41"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="29" t="s">
+      <c r="S18" s="42"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="V18" s="70" t="str">
+      <c r="V18" s="71" t="str">
         <f>IF(W18&lt;&gt;"",W18,IF(AB25="","",AB25))</f>
         <v/>
       </c>
-      <c r="W18" s="41"/>
-      <c r="Y18" s="67"/>
+      <c r="W18" s="42"/>
+      <c r="Y18" s="68"/>
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>19</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="62"/>
-      <c r="M19" s="22"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="29" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="63"/>
+      <c r="M19" s="23"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="R19" s="70" t="str">
+      <c r="R19" s="71" t="str">
         <f>IF(S19&lt;&gt;"",S19,IF(AB23="","",AB23))</f>
         <v/>
       </c>
-      <c r="S19" s="41"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="29" t="s">
+      <c r="S19" s="42"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="V19" s="70" t="str">
+      <c r="V19" s="71" t="str">
         <f>IF(W19&lt;&gt;"",W19,IF(AB26="","",AB26))</f>
         <v/>
       </c>
-      <c r="W19" s="41"/>
-      <c r="Y19" s="67"/>
+      <c r="W19" s="42"/>
+      <c r="Y19" s="68"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>20</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="72" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="76" t="s">
+      <c r="J20" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="Y20" s="67"/>
-      <c r="AA20" s="37" t="s">
+      <c r="M20" s="23"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="Y20" s="68"/>
+      <c r="AA20" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AB20" s="20"/>
-      <c r="AD20" s="20"/>
+      <c r="AB20" s="21"/>
+      <c r="AD20" s="21"/>
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <v>21</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="62"/>
-      <c r="E21" s="63" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="63"/>
+      <c r="E21" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="7" t="str">
+      <c r="F21" s="8" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="7"/>
-      <c r="J21" s="63" t="s">
+      <c r="G21" s="8"/>
+      <c r="J21" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="7" t="str">
+      <c r="K21" s="8" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="22"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="73" t="s">
+      <c r="L21" s="8"/>
+      <c r="M21" s="23"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="77" t="s">
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="Y21" s="67"/>
-      <c r="AA21" s="29" t="s">
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="Y21" s="68"/>
+      <c r="AA21" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="43" t="str">
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="44" t="str">
         <f t="shared" ref="AC21:AC26" si="1">IF(AB21&lt;&gt;AD21,"Change","")</f>
         <v/>
       </c>
-      <c r="AD21" s="61" t="str">
+      <c r="AD21" s="62" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A22" s="12">
+      <c r="A22" s="13">
         <v>22</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="62"/>
-      <c r="E22" s="63" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="63"/>
+      <c r="E22" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="3" t="str">
+      <c r="F22" s="4" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="3"/>
-      <c r="J22" s="63" t="s">
+      <c r="G22" s="4"/>
+      <c r="J22" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="7" t="str">
+      <c r="K22" s="8" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="22"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="29" t="s">
+      <c r="L22" s="8"/>
+      <c r="M22" s="23"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="R22" s="40" t="str">
+      <c r="R22" s="41" t="str">
         <f>IF(S22&lt;&gt;"",S22,IF(AB28="","",AB28))</f>
         <v/>
       </c>
-      <c r="S22" s="41"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="29" t="s">
+      <c r="S22" s="42"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="V22" s="40" t="str">
+      <c r="V22" s="41" t="str">
         <f>IF(W22&lt;&gt;"",W22,IF(AB36="","",AB36))</f>
         <v/>
       </c>
-      <c r="W22" s="41"/>
-      <c r="Y22" s="67"/>
-      <c r="AA22" s="29" t="s">
+      <c r="W22" s="42"/>
+      <c r="Y22" s="68"/>
+      <c r="AA22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="43" t="str">
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD22" s="61" t="str">
+      <c r="AD22" s="62" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A23" s="12">
+      <c r="A23" s="13">
         <v>23</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="72" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="7" t="str">
+      <c r="K23" s="8" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="22"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="29" t="s">
+      <c r="L23" s="8"/>
+      <c r="M23" s="23"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="R23" s="68" t="str">
+      <c r="R23" s="69" t="str">
         <f>IF(S23&lt;&gt;"",S23,IF(AB29="","",AB29))</f>
         <v/>
       </c>
-      <c r="S23" s="69"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="29" t="s">
+      <c r="S23" s="70"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="V23" s="40" t="str">
+      <c r="V23" s="41" t="str">
         <f>IF(W23&lt;&gt;"",W23,IF(AB37="","",AB37))</f>
         <v/>
       </c>
-      <c r="W23" s="41"/>
-      <c r="Y23" s="67"/>
-      <c r="AA23" s="29" t="s">
+      <c r="W23" s="42"/>
+      <c r="Y23" s="68"/>
+      <c r="AA23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="43" t="str">
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD23" s="61" t="str">
+      <c r="AD23" s="62" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A24" s="12">
+      <c r="A24" s="13">
         <v>24</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="62"/>
-      <c r="E24" s="63" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="63"/>
+      <c r="E24" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="7" t="str">
+      <c r="F24" s="8" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="7"/>
-      <c r="M24" s="22"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="73" t="s">
+      <c r="G24" s="8"/>
+      <c r="M24" s="23"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="29" t="s">
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="V24" s="40" t="str">
+      <c r="V24" s="41" t="str">
         <f>IF(W24&lt;&gt;"",W24,IF(AB38="","",AB38))</f>
         <v/>
       </c>
-      <c r="W24" s="41"/>
-      <c r="Y24" s="67"/>
-      <c r="AA24" s="29" t="s">
+      <c r="W24" s="42"/>
+      <c r="Y24" s="68"/>
+      <c r="AA24" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="43" t="str">
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD24" s="75" t="str">
+      <c r="AD24" s="76" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A25" s="12">
+      <c r="A25" s="13">
         <v>25</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="62"/>
-      <c r="E25" s="63" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="63"/>
+      <c r="E25" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="7" t="str">
+      <c r="F25" s="8" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="7"/>
-      <c r="J25" s="72" t="s">
+      <c r="G25" s="8"/>
+      <c r="J25" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="M25" s="22"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="29" t="s">
+      <c r="M25" s="23"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="70" t="str">
+      <c r="R25" s="71" t="str">
         <f>IF(S25&lt;&gt;"",S25,IF(AB30="","",AB30))</f>
         <v/>
       </c>
-      <c r="S25" s="41"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="Y25" s="67"/>
-      <c r="AA25" s="29" t="s">
+      <c r="S25" s="42"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="Y25" s="68"/>
+      <c r="AA25" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="43" t="str">
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD25" s="61" t="str">
+      <c r="AD25" s="62" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A26" s="12">
+      <c r="A26" s="13">
         <v>26</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="62"/>
-      <c r="E26" s="63" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="63"/>
+      <c r="E26" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="7" t="str">
+      <c r="F26" s="8" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="7"/>
-      <c r="J26" s="63" t="s">
+      <c r="G26" s="8"/>
+      <c r="J26" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="7" t="str">
+      <c r="K26" s="8" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="22"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="29" t="s">
+      <c r="L26" s="8"/>
+      <c r="M26" s="23"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="R26" s="70" t="str">
+      <c r="R26" s="71" t="str">
         <f>IF(S26&lt;&gt;"",S26,IF(AB31="","",AB31))</f>
         <v/>
       </c>
-      <c r="S26" s="71"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="73" t="s">
+      <c r="S26" s="72"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="Y26" s="67"/>
-      <c r="AA26" s="29" t="s">
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="Y26" s="68"/>
+      <c r="AA26" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="43" t="str">
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD26" s="61" t="str">
+      <c r="AD26" s="62" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>27</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="72" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="7" t="str">
+      <c r="K27" s="8" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="22"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="29" t="s">
+      <c r="L27" s="8"/>
+      <c r="M27" s="23"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="R27" s="70" t="str">
+      <c r="R27" s="71" t="str">
         <f>IF(S27&lt;&gt;"",S27,IF(AB32="","",AB32))</f>
         <v/>
       </c>
-      <c r="S27" s="71"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="29" t="s">
+      <c r="S27" s="72"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="V27" s="40" t="str">
+      <c r="V27" s="41" t="str">
         <f>IF(W27&lt;&gt;"",W27,IF(AB39="","",AB39))</f>
         <v/>
       </c>
-      <c r="W27" s="41"/>
-      <c r="Y27" s="67"/>
-      <c r="AA27" s="73" t="s">
+      <c r="W27" s="42"/>
+      <c r="Y27" s="68"/>
+      <c r="AA27" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="AB27" s="20"/>
-      <c r="AD27" s="20"/>
+      <c r="AB27" s="21"/>
+      <c r="AD27" s="21"/>
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A28" s="12">
+      <c r="A28" s="13">
         <v>28</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="62"/>
-      <c r="E28" s="63" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="63"/>
+      <c r="E28" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="7" t="str">
+      <c r="F28" s="8" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="7"/>
-      <c r="M28" s="22"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="73" t="s">
+      <c r="G28" s="8"/>
+      <c r="M28" s="23"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="29" t="s">
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="V28" s="40" t="str">
+      <c r="V28" s="41" t="str">
         <f>IF(W28&lt;&gt;"",W28,IF(AB40="","",AB40))</f>
         <v/>
       </c>
-      <c r="W28" s="41"/>
-      <c r="Y28" s="67"/>
-      <c r="AA28" s="29" t="s">
+      <c r="W28" s="42"/>
+      <c r="Y28" s="68"/>
+      <c r="AA28" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AB28" s="60"/>
-      <c r="AC28" s="43" t="str">
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="44" t="str">
         <f t="shared" ref="AC28:AC40" si="2">IF(AB28&lt;&gt;AD28,"Change","")</f>
         <v/>
       </c>
-      <c r="AD28" s="61" t="str">
+      <c r="AD28" s="62" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A29" s="12">
+      <c r="A29" s="13">
         <v>29</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="62"/>
-      <c r="E29" s="63" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="63"/>
+      <c r="E29" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="7" t="str">
+      <c r="F29" s="8" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="7"/>
-      <c r="M29" s="22"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="29" t="s">
+      <c r="G29" s="8"/>
+      <c r="M29" s="23"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R29" s="70" t="str">
+      <c r="R29" s="71" t="str">
         <f>IF(S29&lt;&gt;"",S29,IF(AB33="","",AB33))</f>
         <v/>
       </c>
-      <c r="S29" s="41"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="Y29" s="67"/>
-      <c r="AA29" s="29" t="s">
+      <c r="S29" s="42"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="Y29" s="68"/>
+      <c r="AA29" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AB29" s="74"/>
-      <c r="AC29" s="43" t="str">
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD29" s="75" t="str">
+      <c r="AD29" s="76" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A30" s="12">
+      <c r="A30" s="13">
         <v>30</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="62"/>
-      <c r="E30" s="63" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="63"/>
+      <c r="E30" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="7" t="str">
+      <c r="F30" s="8" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="7"/>
-      <c r="M30" s="22"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="29" t="s">
+      <c r="G30" s="8"/>
+      <c r="M30" s="23"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="R30" s="70" t="str">
+      <c r="R30" s="71" t="str">
         <f>IF(S30&lt;&gt;"",S30,IF(AB34="","",AB34))</f>
         <v/>
       </c>
-      <c r="S30" s="71"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="Y30" s="67"/>
-      <c r="AA30" s="29" t="s">
+      <c r="S30" s="72"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="Y30" s="68"/>
+      <c r="AA30" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="43" t="str">
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD30" s="61" t="str">
+      <c r="AD30" s="62" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A31" s="12">
+      <c r="A31" s="13">
         <v>31</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="33"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="29" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="R31" s="70" t="str">
+      <c r="R31" s="71" t="str">
         <f>IF(S31&lt;&gt;"",S31,IF(AB35="","",AB35))</f>
         <v/>
       </c>
-      <c r="S31" s="71"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="Y31" s="67"/>
-      <c r="AA31" s="29" t="s">
+      <c r="S31" s="72"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="Y31" s="68"/>
+      <c r="AA31" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AB31" s="60"/>
-      <c r="AC31" s="43" t="str">
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD31" s="61" t="str">
+      <c r="AD31" s="62" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A32" s="12">
+      <c r="A32" s="13">
         <v>32</v>
       </c>
-      <c r="O32" s="78"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="79"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="80"/>
-      <c r="AA32" s="29" t="s">
+      <c r="O32" s="79"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="80"/>
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="80"/>
+      <c r="Y32" s="81"/>
+      <c r="AA32" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AB32" s="60"/>
-      <c r="AC32" s="43" t="str">
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD32" s="61" t="str">
+      <c r="AD32" s="62" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A33" s="12">
+      <c r="A33" s="13">
         <v>33</v>
       </c>
-      <c r="H33" s="45" t="s">
+      <c r="H33" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="81" t="str">
+      <c r="M33" s="82" t="str">
         <f>$H$5</f>
         <v>Bone Mineral Density Compliance Inspection</v>
       </c>
-      <c r="AA33" s="29" t="s">
+      <c r="AA33" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AB33" s="60"/>
-      <c r="AC33" s="43" t="str">
+      <c r="AB33" s="61"/>
+      <c r="AC33" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD33" s="61" t="str">
+      <c r="AD33" s="62" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A34" s="12">
+      <c r="A34" s="13">
         <v>34</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="53" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="53" t="s">
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="2" t="s">
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="48" t="s">
+      <c r="M34" s="3"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="AA34" s="29" t="s">
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="AA34" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AB34" s="60"/>
-      <c r="AC34" s="43" t="str">
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD34" s="61" t="str">
+      <c r="AD34" s="62" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A35" s="12">
+      <c r="A35" s="13">
         <v>35</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="82" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="83" t="s">
+      <c r="E35" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="84" t="str">
+      <c r="L35" s="85" t="str">
         <f>IF(O37="","TBD",IF(O37=1,"YES",IF(O37=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M35" s="85" t="str">
+      <c r="M35" s="86" t="str">
         <f>IF(O37=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O35" s="86" t="s">
+      <c r="O35" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="18"/>
-      <c r="AA35" s="29" t="s">
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="19"/>
+      <c r="AA35" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AB35" s="60"/>
-      <c r="AC35" s="43" t="str">
+      <c r="AB35" s="61"/>
+      <c r="AC35" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD35" s="61" t="str">
+      <c r="AD35" s="62" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A36" s="12">
+      <c r="A36" s="13">
         <v>36</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="82" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="84" t="str">
+      <c r="L36" s="85" t="str">
         <f>IF(O38="","TBD",IF(O38=1,"YES",IF(O38=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M36" s="85" t="str">
+      <c r="M36" s="86" t="str">
         <f>IF(O38=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O36" s="87"/>
-      <c r="T36" s="48" t="s">
+      <c r="O36" s="88"/>
+      <c r="T36" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="Y36" s="88"/>
-      <c r="AA36" s="29" t="s">
+      <c r="Y36" s="89"/>
+      <c r="AA36" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AB36" s="60"/>
-      <c r="AC36" s="43" t="str">
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD36" s="61" t="str">
+      <c r="AD36" s="62" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A37" s="12">
+      <c r="A37" s="13">
         <v>37</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="82" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="83" t="s">
+      <c r="E37" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="L37" s="84" t="str">
+      <c r="L37" s="85" t="str">
         <f>IF(O39="","TBD",IF(O39=1,"YES",IF(O39=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M37" s="85" t="str">
+      <c r="M37" s="86" t="str">
         <f>IF(O39=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O37" s="89"/>
-      <c r="P37" s="30" t="s">
+      <c r="O37" s="90"/>
+      <c r="P37" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="Y37" s="88"/>
-      <c r="AA37" s="29" t="s">
+      <c r="Y37" s="89"/>
+      <c r="AA37" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AB37" s="60"/>
-      <c r="AC37" s="43" t="str">
+      <c r="AB37" s="61"/>
+      <c r="AC37" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD37" s="61" t="str">
+      <c r="AD37" s="62" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A38" s="12">
+      <c r="A38" s="13">
         <v>38</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="82"/>
-      <c r="E38" s="83" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="83"/>
+      <c r="E38" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="L38" s="84" t="str">
+      <c r="L38" s="85" t="str">
         <f>IF(O40="","TBD",IF(O40=1,"YES",IF(O40=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M38" s="85" t="str">
+      <c r="M38" s="86" t="str">
         <f>IF(O40=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O38" s="89"/>
-      <c r="P38" s="30" t="s">
+      <c r="O38" s="90"/>
+      <c r="P38" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Y38" s="88"/>
-      <c r="AA38" s="29" t="s">
+      <c r="Y38" s="89"/>
+      <c r="AA38" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AB38" s="60"/>
-      <c r="AC38" s="43" t="str">
+      <c r="AB38" s="61"/>
+      <c r="AC38" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD38" s="61" t="str">
+      <c r="AD38" s="62" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A39" s="12">
+      <c r="A39" s="13">
         <v>39</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="82"/>
-      <c r="E39" s="83" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="83"/>
+      <c r="E39" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="L39" s="84" t="str">
+      <c r="L39" s="85" t="str">
         <f>IF(O41="","TBD",IF(O41=1,"YES",IF(O41=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M39" s="85" t="str">
+      <c r="M39" s="86" t="str">
         <f>IF(O41=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O39" s="89"/>
-      <c r="P39" s="30" t="s">
+      <c r="O39" s="90"/>
+      <c r="P39" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Y39" s="88"/>
-      <c r="AA39" s="29" t="s">
+      <c r="Y39" s="89"/>
+      <c r="AA39" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AB39" s="60"/>
-      <c r="AC39" s="43" t="str">
+      <c r="AB39" s="61"/>
+      <c r="AC39" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD39" s="61" t="str">
+      <c r="AD39" s="62" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A40" s="12">
+      <c r="A40" s="13">
         <v>40</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="82"/>
-      <c r="E40" s="83"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="90"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="30" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="83"/>
+      <c r="E40" s="84"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="91"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="Y40" s="88"/>
-      <c r="AA40" s="29" t="s">
+      <c r="Y40" s="89"/>
+      <c r="AA40" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AB40" s="60"/>
-      <c r="AC40" s="43" t="str">
+      <c r="AB40" s="61"/>
+      <c r="AC40" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD40" s="61" t="str">
+      <c r="AD40" s="62" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A41" s="12">
+      <c r="A41" s="13">
         <v>41</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="82"/>
-      <c r="F41" s="72" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="83"/>
+      <c r="F41" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="L41" s="28"/>
-      <c r="M41" s="91"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="30" t="s">
+      <c r="L41" s="29"/>
+      <c r="M41" s="92"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="Y41" s="88"/>
+      <c r="Y41" s="89"/>
     </row>
     <row r="42" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A42" s="12">
+      <c r="A42" s="13">
         <v>42</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="82"/>
-      <c r="E42" s="83" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="83"/>
+      <c r="E42" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="L42" s="84" t="str">
+      <c r="L42" s="85" t="str">
         <f>IF(O44="","TBD",IF(O44=1,"YES",IF(O44=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M42" s="85" t="str">
+      <c r="M42" s="86" t="str">
         <f>IF(O44=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O42" s="87"/>
-      <c r="Y42" s="88"/>
-      <c r="AA42" s="29" t="s">
+      <c r="O42" s="88"/>
+      <c r="Y42" s="89"/>
+      <c r="AA42" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AB42" s="60" t="s">
+      <c r="AB42" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="AC42" s="43" t="str">
+      <c r="AC42" s="44" t="str">
         <f>IF(AB42&lt;&gt;AD42,"Change","")</f>
         <v/>
       </c>
-      <c r="AD42" s="61" t="str">
+      <c r="AD42" s="62" t="str">
         <f>IF(U92="","",U92)</f>
         <v>Piranha CB2-17090320</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A43" s="12">
+      <c r="A43" s="13">
         <v>43</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="E43" s="9" t="s">
+      <c r="B43" s="22"/>
+      <c r="E43" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L43" s="84" t="str">
+      <c r="L43" s="85" t="str">
         <f>IF(O45="","TBD",IF(O45=1,"YES",IF(O45=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M43" s="85" t="str">
+      <c r="M43" s="86" t="str">
         <f>IF(O45=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O43" s="87"/>
-      <c r="T43" s="48" t="s">
+      <c r="O43" s="88"/>
+      <c r="T43" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="Y43" s="88"/>
-      <c r="AA43" s="29" t="s">
+      <c r="Y43" s="89"/>
+      <c r="AA43" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AB43" s="60" t="s">
+      <c r="AB43" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="AC43" s="43" t="str">
+      <c r="AC43" s="44" t="str">
         <f>IF(AB43&lt;&gt;AD43,"Change","")</f>
         <v/>
       </c>
-      <c r="AD43" s="61" t="str">
+      <c r="AD43" s="62" t="str">
         <f>IF(X93="","",X93)</f>
         <v>Piranha R100B</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A44" s="12">
+      <c r="A44" s="13">
         <v>44</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="91"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="30" t="s">
+      <c r="B44" s="22"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="92"/>
+      <c r="O44" s="90"/>
+      <c r="P44" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="Y44" s="88"/>
+      <c r="Y44" s="89"/>
     </row>
     <row r="45" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A45" s="12">
+      <c r="A45" s="13">
         <v>45</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="62"/>
-      <c r="F45" s="72" t="s">
+      <c r="B45" s="22"/>
+      <c r="C45" s="63"/>
+      <c r="F45" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="L45" s="28"/>
-      <c r="M45" s="91"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="10" t="s">
+      <c r="L45" s="29"/>
+      <c r="M45" s="92"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Y45" s="88"/>
+      <c r="Y45" s="89"/>
     </row>
     <row r="46" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A46" s="12">
+      <c r="A46" s="13">
         <v>46</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="62"/>
-      <c r="E46" s="83" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="63"/>
+      <c r="E46" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="L46" s="84" t="str">
+      <c r="L46" s="85" t="str">
         <f>IF(O48="","TBD",IF(O48=1,"YES",IF(O48=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M46" s="85" t="str">
+      <c r="M46" s="86" t="str">
         <f>IF(O48=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O46" s="87"/>
-      <c r="Y46" s="88"/>
+      <c r="O46" s="88"/>
+      <c r="Y46" s="89"/>
     </row>
     <row r="47" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A47" s="12">
+      <c r="A47" s="13">
         <v>47</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="62"/>
-      <c r="E47" s="83" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="63"/>
+      <c r="E47" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="L47" s="84" t="str">
+      <c r="L47" s="85" t="str">
         <f>IF(O49="","TBD",IF(O49=1,"YES",IF(O49=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M47" s="85" t="str">
+      <c r="M47" s="86" t="str">
         <f>IF(O49=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O47" s="87"/>
-      <c r="T47" s="48" t="s">
+      <c r="O47" s="88"/>
+      <c r="T47" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="Y47" s="88"/>
+      <c r="Y47" s="89"/>
     </row>
     <row r="48" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A48" s="12">
+      <c r="A48" s="13">
         <v>48</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="62"/>
-      <c r="E48" s="83" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="63"/>
+      <c r="E48" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="L48" s="84" t="str">
+      <c r="L48" s="85" t="str">
         <f>IF(O50="","TBD",IF(O50=1,"YES",IF(O50=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M48" s="85" t="str">
+      <c r="M48" s="86" t="str">
         <f>IF(O50=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O48" s="89"/>
-      <c r="P48" s="30" t="s">
+      <c r="O48" s="90"/>
+      <c r="P48" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="Y48" s="88"/>
+      <c r="Y48" s="89"/>
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A49" s="12">
+      <c r="A49" s="13">
         <v>49</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="62"/>
-      <c r="E49" s="83" t="s">
+      <c r="B49" s="22"/>
+      <c r="C49" s="63"/>
+      <c r="E49" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="L49" s="84" t="str">
+      <c r="L49" s="85" t="str">
         <f>IF(O51="","TBD",IF(O51=1,"YES",IF(O51=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M49" s="85" t="str">
+      <c r="M49" s="86" t="str">
         <f>IF(O51=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O49" s="89"/>
-      <c r="P49" s="30" t="s">
+      <c r="O49" s="90"/>
+      <c r="P49" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="Y49" s="88"/>
+      <c r="Y49" s="89"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A50" s="12">
+      <c r="A50" s="13">
         <v>50</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="33"/>
-      <c r="O50" s="89"/>
-      <c r="P50" s="30" t="s">
+      <c r="B50" s="32"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="34"/>
+      <c r="O50" s="90"/>
+      <c r="P50" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="Y50" s="88"/>
+      <c r="Y50" s="89"/>
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A51" s="12">
+      <c r="A51" s="13">
         <v>51</v>
       </c>
-      <c r="O51" s="89"/>
-      <c r="P51" s="30" t="s">
+      <c r="O51" s="90"/>
+      <c r="P51" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="Y51" s="88"/>
+      <c r="Y51" s="89"/>
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A52" s="12">
+      <c r="A52" s="13">
         <v>52</v>
       </c>
-      <c r="H52" s="45"/>
-      <c r="O52" s="92"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="93"/>
-      <c r="S52" s="93"/>
-      <c r="T52" s="93"/>
-      <c r="U52" s="93"/>
-      <c r="V52" s="93"/>
-      <c r="W52" s="93"/>
-      <c r="X52" s="93"/>
-      <c r="Y52" s="94"/>
+      <c r="H52" s="46"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="94"/>
+      <c r="T52" s="94"/>
+      <c r="U52" s="94"/>
+      <c r="V52" s="94"/>
+      <c r="W52" s="94"/>
+      <c r="X52" s="94"/>
+      <c r="Y52" s="95"/>
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A53" s="12">
+      <c r="A53" s="13">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A54" s="12">
+      <c r="A54" s="13">
         <v>54</v>
       </c>
-      <c r="O54" s="95" t="s">
+      <c r="O54" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="P54" s="96"/>
-      <c r="Q54" s="96"/>
-      <c r="R54" s="96"/>
-      <c r="S54" s="96"/>
-      <c r="T54" s="96"/>
-      <c r="U54" s="96"/>
-      <c r="V54" s="97" t="s">
+      <c r="P54" s="97"/>
+      <c r="Q54" s="97"/>
+      <c r="R54" s="97"/>
+      <c r="S54" s="97"/>
+      <c r="T54" s="97"/>
+      <c r="U54" s="97"/>
+      <c r="V54" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="W54" s="96"/>
-      <c r="X54" s="96"/>
-      <c r="Y54" s="98"/>
+      <c r="W54" s="97"/>
+      <c r="X54" s="97"/>
+      <c r="Y54" s="99"/>
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A55" s="12">
+      <c r="A55" s="13">
         <v>55</v>
       </c>
-      <c r="O55" s="87"/>
-      <c r="S55" s="1" t="s">
+      <c r="O55" s="88"/>
+      <c r="S55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="T55" s="1"/>
-      <c r="Y55" s="88"/>
+      <c r="T55" s="2"/>
+      <c r="Y55" s="89"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A56" s="12">
+      <c r="A56" s="13">
         <v>56</v>
       </c>
-      <c r="O56" s="99" t="s">
+      <c r="O56" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Q56" s="11" t="s">
+      <c r="Q56" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="R56" s="11" t="s">
+      <c r="R56" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="S56" s="11" t="s">
+      <c r="S56" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="T56" s="11" t="s">
+      <c r="T56" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="V56" s="11" t="s">
+      <c r="V56" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="W56" s="11" t="s">
+      <c r="W56" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="Y56" s="88"/>
+      <c r="Y56" s="89"/>
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A57" s="12">
+      <c r="A57" s="13">
         <v>57</v>
       </c>
-      <c r="O57" s="100" t="s">
+      <c r="O57" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="P57" s="101" t="s">
+      <c r="P57" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="Q57" s="101">
+      <c r="Q57" s="102">
         <v>2.5</v>
       </c>
-      <c r="R57" s="101">
+      <c r="R57" s="102">
         <v>163</v>
       </c>
-      <c r="S57" s="101">
+      <c r="S57" s="102">
         <f>4.5*2.54</f>
         <v>11.43</v>
       </c>
-      <c r="T57" s="101">
+      <c r="T57" s="102">
         <f>8*2.54</f>
         <v>20.32</v>
       </c>
-      <c r="V57" s="101" t="s">
+      <c r="V57" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="W57" s="101"/>
-      <c r="Y57" s="88"/>
+      <c r="W57" s="102"/>
+      <c r="Y57" s="89"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A58" s="12">
+      <c r="A58" s="13">
         <v>58</v>
       </c>
-      <c r="O58" s="100" t="s">
+      <c r="O58" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="P58" s="101" t="s">
+      <c r="P58" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="Q58" s="101">
+      <c r="Q58" s="102">
         <v>2.5</v>
       </c>
-      <c r="R58" s="101">
+      <c r="R58" s="102">
         <v>82</v>
       </c>
-      <c r="S58" s="101">
+      <c r="S58" s="102">
         <v>11.43</v>
       </c>
-      <c r="T58" s="101">
+      <c r="T58" s="102">
         <v>20.32</v>
       </c>
-      <c r="V58" s="101" t="s">
+      <c r="V58" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="W58" s="101"/>
-      <c r="Y58" s="88"/>
+      <c r="W58" s="102"/>
+      <c r="Y58" s="89"/>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A59" s="12">
+      <c r="A59" s="13">
         <v>59</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="105" t="str">
+      <c r="D59" s="106" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
-      <c r="L59" s="63" t="s">
+      <c r="L59" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="M59" s="64" t="str">
+      <c r="M59" s="65" t="str">
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O59" s="100" t="s">
+      <c r="O59" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="P59" s="101" t="s">
+      <c r="P59" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="Q59" s="101">
+      <c r="Q59" s="102">
         <v>2.5</v>
       </c>
-      <c r="R59" s="101">
+      <c r="R59" s="102">
         <v>41</v>
       </c>
-      <c r="S59" s="101">
+      <c r="S59" s="102">
         <f>4.5*2.54</f>
         <v>11.43</v>
       </c>
-      <c r="T59" s="101">
+      <c r="T59" s="102">
         <f>8*2.54</f>
         <v>20.32</v>
       </c>
-      <c r="V59" s="101" t="s">
+      <c r="V59" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="W59" s="101"/>
-      <c r="Y59" s="88"/>
+      <c r="W59" s="102"/>
+      <c r="Y59" s="89"/>
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A60" s="12">
+      <c r="A60" s="13">
         <v>60</v>
       </c>
-      <c r="C60" s="63" t="s">
+      <c r="C60" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D60" s="64" t="str">
+      <c r="D60" s="65" t="str">
         <f>IF($R$14="","",$R$14)</f>
         <v/>
       </c>
-      <c r="L60" s="63" t="s">
+      <c r="L60" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="M60" s="65" t="str">
+      <c r="M60" s="66" t="str">
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O60" s="100" t="s">
+      <c r="O60" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="P60" s="101" t="s">
+      <c r="P60" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="Q60" s="101">
+      <c r="Q60" s="102">
         <v>2.5</v>
       </c>
-      <c r="R60" s="101">
+      <c r="R60" s="102">
         <v>15</v>
       </c>
-      <c r="S60" s="101">
+      <c r="S60" s="102">
         <f>4.5*2.54</f>
         <v>11.43</v>
       </c>
-      <c r="T60" s="101">
+      <c r="T60" s="102">
         <f>8*2.54</f>
         <v>20.32</v>
       </c>
-      <c r="V60" s="101"/>
-      <c r="W60" s="101"/>
-      <c r="Y60" s="88"/>
+      <c r="V60" s="102"/>
+      <c r="W60" s="102"/>
+      <c r="Y60" s="89"/>
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A61" s="12">
+      <c r="A61" s="13">
         <v>1</v>
       </c>
-      <c r="M61" s="107" t="str">
+      <c r="M61" s="108" t="str">
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O61" s="87"/>
-      <c r="Y61" s="88"/>
+      <c r="O61" s="88"/>
+      <c r="Y61" s="89"/>
     </row>
     <row r="62" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A62" s="12">
+      <c r="A62" s="13">
         <v>2</v>
       </c>
-      <c r="H62" s="45" t="s">
+      <c r="H62" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="M62" s="81" t="str">
+      <c r="M62" s="82" t="str">
         <f>$H$5</f>
         <v>Bone Mineral Density Compliance Inspection</v>
       </c>
-      <c r="O62" s="102" t="s">
+      <c r="O62" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="Y62" s="88"/>
+      <c r="Y62" s="89"/>
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A63" s="12">
+      <c r="A63" s="13">
         <v>3</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="53" t="s">
+      <c r="B63" s="14"/>
+      <c r="C63" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="109"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="15"/>
-      <c r="O63" s="103" t="s">
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="16"/>
+      <c r="O63" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="P63" s="101">
+      <c r="P63" s="102">
         <v>82</v>
       </c>
-      <c r="Q63" s="10" t="s">
+      <c r="Q63" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="R63" s="101"/>
-      <c r="S63" s="101"/>
-      <c r="T63" s="101"/>
-      <c r="V63" s="29" t="s">
+      <c r="R63" s="102"/>
+      <c r="S63" s="102"/>
+      <c r="T63" s="102"/>
+      <c r="V63" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="W63" s="104" t="str">
+      <c r="W63" s="105" t="str">
         <f>IF(R63="","",AVERAGE(R63:T63))</f>
         <v/>
       </c>
-      <c r="Y63" s="88"/>
+      <c r="Y63" s="89"/>
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A64" s="12">
+      <c r="A64" s="13">
         <v>4</v>
       </c>
-      <c r="B64" s="21"/>
+      <c r="B64" s="22"/>
       <c r="H64" s="132" t="s">
         <v>93</v>
       </c>
       <c r="I64" s="133"/>
-      <c r="K64" s="72" t="s">
+      <c r="K64" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="M64" s="22"/>
-      <c r="O64" s="87"/>
-      <c r="Y64" s="88"/>
+      <c r="M64" s="23"/>
+      <c r="O64" s="88"/>
+      <c r="Y64" s="89"/>
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A65" s="12">
+      <c r="A65" s="13">
         <v>5</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="D65" s="110" t="s">
+      <c r="B65" s="22"/>
+      <c r="D65" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="110" t="s">
+      <c r="E65" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="F65" s="110" t="s">
+      <c r="F65" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="G65" s="110" t="s">
+      <c r="G65" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="H65" s="111" t="s">
+      <c r="H65" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="I65" s="112" t="s">
+      <c r="I65" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="K65" s="110" t="s">
+      <c r="K65" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="L65" s="124" t="s">
+      <c r="L65" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="M65" s="22"/>
-      <c r="O65" s="102" t="s">
+      <c r="M65" s="23"/>
+      <c r="O65" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="U65" s="11" t="s">
+      <c r="U65" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="Y65" s="88"/>
+      <c r="Y65" s="89"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A66" s="12">
+      <c r="A66" s="13">
         <v>6</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="D66" s="110" t="str">
+      <c r="B66" s="22"/>
+      <c r="D66" s="111" t="str">
         <f>IF(O57="","",O57)</f>
         <v>High Def</v>
       </c>
-      <c r="E66" s="110" t="str">
+      <c r="E66" s="111" t="str">
         <f>IF(P57="","",P57)</f>
         <v>140/100</v>
       </c>
-      <c r="F66" s="110">
+      <c r="F66" s="111">
         <f>IF(Q57="","",Q57)</f>
         <v>2.5</v>
       </c>
-      <c r="G66" s="110">
+      <c r="G66" s="111">
         <f>IF(R57="","",R57)</f>
         <v>163</v>
       </c>
-      <c r="H66" s="110">
+      <c r="H66" s="111">
         <f>IF(S57="","",S57)</f>
         <v>11.43</v>
       </c>
-      <c r="I66" s="110">
+      <c r="I66" s="111">
         <f>IF(T57="","",T57)</f>
         <v>20.32</v>
       </c>
-      <c r="K66" s="110" t="str">
+      <c r="K66" s="111" t="str">
         <f>IF(V57="","",V57)</f>
         <v>Tableside</v>
       </c>
-      <c r="L66" s="110" t="str">
+      <c r="L66" s="136" t="str">
         <f>IF(W57="","",W57)</f>
         <v/>
       </c>
-      <c r="M66" s="22"/>
-      <c r="O66" s="106" t="str">
+      <c r="M66" s="23"/>
+      <c r="O66" s="107" t="str">
         <f>IF(O57="","",O57)</f>
         <v>High Def</v>
       </c>
-      <c r="P66" s="11" t="s">
+      <c r="P66" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="R66" s="1" t="s">
+      <c r="R66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="11" t="s">
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="V66" s="11" t="s">
+      <c r="V66" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="Y66" s="88"/>
+      <c r="Y66" s="89"/>
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A67" s="12">
+      <c r="A67" s="13">
         <v>7</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="D67" s="110" t="str">
+      <c r="B67" s="22"/>
+      <c r="D67" s="111" t="str">
         <f>IF(O58="","",O58)</f>
         <v>Array</v>
       </c>
-      <c r="E67" s="110" t="str">
+      <c r="E67" s="111" t="str">
         <f>IF(P58="","",P58)</f>
         <v>140/100</v>
       </c>
-      <c r="F67" s="110">
+      <c r="F67" s="111">
         <f>IF(Q58="","",Q58)</f>
         <v>2.5</v>
       </c>
-      <c r="G67" s="110">
+      <c r="G67" s="111">
         <f>IF(R58="","",R58)</f>
         <v>82</v>
       </c>
-      <c r="H67" s="110">
+      <c r="H67" s="111">
         <f>IF(S58="","",S58)</f>
         <v>11.43</v>
       </c>
-      <c r="I67" s="110">
+      <c r="I67" s="111">
         <f>IF(T58="","",T58)</f>
         <v>20.32</v>
       </c>
-      <c r="K67" s="110" t="str">
+      <c r="K67" s="111" t="str">
         <f>IF(V58="","",V58)</f>
         <v>Operator</v>
       </c>
-      <c r="L67" s="110" t="str">
+      <c r="L67" s="136" t="str">
         <f>IF(W58="","",W58)</f>
         <v/>
       </c>
-      <c r="M67" s="22"/>
-      <c r="O67" s="87"/>
-      <c r="P67" s="104" t="str">
+      <c r="M67" s="23"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="105" t="str">
         <f>IF($V$57="","",$V$57)</f>
         <v>Tableside</v>
       </c>
-      <c r="Q67" s="104" t="str">
+      <c r="Q67" s="105" t="str">
         <f>IF($W$57="","",$W$57)</f>
         <v/>
       </c>
-      <c r="R67" s="101"/>
-      <c r="S67" s="101"/>
-      <c r="T67" s="101"/>
-      <c r="U67" s="108" t="str">
+      <c r="R67" s="102"/>
+      <c r="S67" s="102"/>
+      <c r="T67" s="102"/>
+      <c r="U67" s="109" t="str">
         <f>IF(R67="","",AVERAGE(R67:T67)-($W$63*(VLOOKUP($O$66,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V67" s="108" t="str">
+      <c r="V67" s="109" t="str">
         <f>IF(U67="","",U67/(VLOOKUP($O$66,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y67" s="88"/>
+      <c r="Y67" s="89"/>
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A68" s="12">
+      <c r="A68" s="13">
         <v>8</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="D68" s="110" t="str">
+      <c r="B68" s="22"/>
+      <c r="D68" s="111" t="str">
         <f>IF(O59="","",O59)</f>
         <v>Fast Array</v>
       </c>
-      <c r="E68" s="110" t="str">
+      <c r="E68" s="111" t="str">
         <f>IF(P59="","",P59)</f>
         <v>140/100</v>
       </c>
-      <c r="F68" s="110">
+      <c r="F68" s="111">
         <f>IF(Q59="","",Q59)</f>
         <v>2.5</v>
       </c>
-      <c r="G68" s="110">
+      <c r="G68" s="111">
         <f>IF(R59="","",R59)</f>
         <v>41</v>
       </c>
-      <c r="H68" s="110">
+      <c r="H68" s="111">
         <f>IF(S59="","",S59)</f>
         <v>11.43</v>
       </c>
-      <c r="I68" s="110">
+      <c r="I68" s="111">
         <f>IF(T59="","",T59)</f>
         <v>20.32</v>
       </c>
-      <c r="K68" s="110" t="str">
+      <c r="K68" s="111" t="str">
         <f>IF(V59="","",V59)</f>
         <v>Door</v>
       </c>
-      <c r="L68" s="110" t="str">
+      <c r="L68" s="136" t="str">
         <f>IF(W59="","",W59)</f>
         <v/>
       </c>
-      <c r="M68" s="22"/>
-      <c r="O68" s="87"/>
-      <c r="P68" s="104" t="str">
+      <c r="M68" s="23"/>
+      <c r="O68" s="88"/>
+      <c r="P68" s="105" t="str">
         <f>IF($V$58="","",$V$58)</f>
         <v>Operator</v>
       </c>
-      <c r="Q68" s="104" t="str">
+      <c r="Q68" s="105" t="str">
         <f>IF($W$58="","",$W$58)</f>
         <v/>
       </c>
-      <c r="R68" s="101"/>
-      <c r="S68" s="101"/>
-      <c r="T68" s="101"/>
-      <c r="U68" s="108" t="str">
+      <c r="R68" s="102"/>
+      <c r="S68" s="102"/>
+      <c r="T68" s="102"/>
+      <c r="U68" s="109" t="str">
         <f>IF(R68="","",AVERAGE(R68:T68)-($W$63*(VLOOKUP($O$66,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V68" s="108" t="str">
+      <c r="V68" s="109" t="str">
         <f>IF(U68="","",U68/(VLOOKUP($O$66,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y68" s="88"/>
+      <c r="Y68" s="89"/>
     </row>
     <row r="69" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A69" s="12">
+      <c r="A69" s="13">
         <v>9</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="D69" s="110" t="str">
+      <c r="B69" s="22"/>
+      <c r="D69" s="111" t="str">
         <f>IF(O60="","",O60)</f>
         <v>Turbo</v>
       </c>
-      <c r="E69" s="110" t="str">
+      <c r="E69" s="111" t="str">
         <f>IF(P60="","",P60)</f>
         <v>140/100</v>
       </c>
-      <c r="F69" s="110">
+      <c r="F69" s="111">
         <f>IF(Q60="","",Q60)</f>
         <v>2.5</v>
       </c>
-      <c r="G69" s="110">
+      <c r="G69" s="111">
         <f>IF(R60="","",R60)</f>
         <v>15</v>
       </c>
-      <c r="H69" s="110">
+      <c r="H69" s="111">
         <f>IF(S60="","",S60)</f>
         <v>11.43</v>
       </c>
-      <c r="I69" s="110">
+      <c r="I69" s="111">
         <f>IF(T60="","",T60)</f>
         <v>20.32</v>
       </c>
-      <c r="K69" s="110" t="str">
+      <c r="K69" s="111" t="str">
         <f>IF(V60="","",V60)</f>
         <v/>
       </c>
-      <c r="L69" s="110" t="str">
+      <c r="L69" s="136" t="str">
         <f>IF(W60="","",W60)</f>
         <v/>
       </c>
-      <c r="M69" s="22"/>
-      <c r="O69" s="87"/>
-      <c r="P69" s="104" t="str">
+      <c r="M69" s="23"/>
+      <c r="O69" s="88"/>
+      <c r="P69" s="105" t="str">
         <f>IF($V$59="","",$V$59)</f>
         <v>Door</v>
       </c>
-      <c r="Q69" s="104" t="str">
+      <c r="Q69" s="105" t="str">
         <f>IF($W$59="","",$W$59)</f>
         <v/>
       </c>
-      <c r="R69" s="101"/>
-      <c r="S69" s="101"/>
-      <c r="T69" s="101"/>
-      <c r="U69" s="108" t="str">
+      <c r="R69" s="102"/>
+      <c r="S69" s="102"/>
+      <c r="T69" s="102"/>
+      <c r="U69" s="109" t="str">
         <f>IF(R69="","",AVERAGE(R69:T69)-($W$63*(VLOOKUP($O$66,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V69" s="108" t="str">
+      <c r="V69" s="109" t="str">
         <f>IF(U69="","",U69/(VLOOKUP($O$66,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y69" s="88"/>
+      <c r="Y69" s="89"/>
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A70" s="12">
+      <c r="A70" s="13">
         <v>10</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="M70" s="22"/>
-      <c r="O70" s="87"/>
-      <c r="P70" s="104" t="str">
+      <c r="B70" s="22"/>
+      <c r="M70" s="23"/>
+      <c r="O70" s="88"/>
+      <c r="P70" s="105" t="str">
         <f>IF($V$60="","",$V$60)</f>
         <v/>
       </c>
-      <c r="Q70" s="104" t="str">
+      <c r="Q70" s="105" t="str">
         <f>IF($W$60="","",$W$60)</f>
         <v/>
       </c>
-      <c r="R70" s="101"/>
-      <c r="S70" s="101"/>
-      <c r="T70" s="101"/>
-      <c r="U70" s="108" t="str">
+      <c r="R70" s="102"/>
+      <c r="S70" s="102"/>
+      <c r="T70" s="102"/>
+      <c r="U70" s="109" t="str">
         <f>IF(R70="","",AVERAGE(R70:T70)-($W$63*(VLOOKUP($O$66,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V70" s="108" t="str">
+      <c r="V70" s="109" t="str">
         <f>IF(U70="","",U70/(VLOOKUP($O$66,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y70" s="88"/>
+      <c r="Y70" s="89"/>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A71" s="12">
+      <c r="A71" s="13">
         <v>11</v>
       </c>
-      <c r="B71" s="21"/>
-      <c r="M71" s="22"/>
-      <c r="O71" s="87"/>
-      <c r="Y71" s="88"/>
+      <c r="B71" s="22"/>
+      <c r="M71" s="23"/>
+      <c r="O71" s="88"/>
+      <c r="Y71" s="89"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A72" s="12">
+      <c r="A72" s="13">
         <v>12</v>
       </c>
-      <c r="B72" s="21"/>
-      <c r="M72" s="22"/>
-      <c r="O72" s="106" t="str">
+      <c r="B72" s="22"/>
+      <c r="M72" s="23"/>
+      <c r="O72" s="107" t="str">
         <f>IF(O58="","",O58)</f>
         <v>Array</v>
       </c>
-      <c r="P72" s="11" t="s">
+      <c r="P72" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q72" s="11" t="s">
+      <c r="Q72" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="R72" s="1" t="s">
+      <c r="R72" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="11" t="s">
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="V72" s="11" t="s">
+      <c r="V72" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="Y72" s="88"/>
+      <c r="Y72" s="89"/>
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A73" s="12">
+      <c r="A73" s="13">
         <v>13</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="M73" s="22"/>
-      <c r="O73" s="87"/>
-      <c r="P73" s="104" t="str">
+      <c r="B73" s="22"/>
+      <c r="M73" s="23"/>
+      <c r="O73" s="88"/>
+      <c r="P73" s="105" t="str">
         <f>IF($V$57="","",$V$57)</f>
         <v>Tableside</v>
       </c>
-      <c r="Q73" s="104" t="str">
+      <c r="Q73" s="105" t="str">
         <f>IF($W$57="","",$W$57)</f>
         <v/>
       </c>
-      <c r="R73" s="101"/>
-      <c r="S73" s="101"/>
-      <c r="T73" s="101"/>
-      <c r="U73" s="108" t="str">
+      <c r="R73" s="102"/>
+      <c r="S73" s="102"/>
+      <c r="T73" s="102"/>
+      <c r="U73" s="109" t="str">
         <f>IF(R73="","",AVERAGE(R73:T73)-($W$63*(VLOOKUP($O$72,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V73" s="108" t="str">
+      <c r="V73" s="109" t="str">
         <f>IF(U73="","",U73/(VLOOKUP($O$72,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y73" s="88"/>
+      <c r="Y73" s="89"/>
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A74" s="12">
+      <c r="A74" s="13">
         <v>14</v>
       </c>
-      <c r="B74" s="113"/>
-      <c r="C74" s="114"/>
-      <c r="D74" s="114"/>
-      <c r="E74" s="114"/>
-      <c r="F74" s="114"/>
-      <c r="G74" s="114"/>
-      <c r="H74" s="114"/>
-      <c r="I74" s="114"/>
-      <c r="J74" s="114"/>
-      <c r="K74" s="114"/>
-      <c r="L74" s="114"/>
-      <c r="M74" s="115"/>
-      <c r="O74" s="87"/>
-      <c r="P74" s="104" t="str">
+      <c r="B74" s="114"/>
+      <c r="C74" s="115"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="115"/>
+      <c r="F74" s="115"/>
+      <c r="G74" s="115"/>
+      <c r="H74" s="115"/>
+      <c r="I74" s="115"/>
+      <c r="J74" s="115"/>
+      <c r="K74" s="115"/>
+      <c r="L74" s="115"/>
+      <c r="M74" s="116"/>
+      <c r="O74" s="88"/>
+      <c r="P74" s="105" t="str">
         <f>IF($V$58="","",$V$58)</f>
         <v>Operator</v>
       </c>
-      <c r="Q74" s="104" t="str">
+      <c r="Q74" s="105" t="str">
         <f>IF($W$58="","",$W$58)</f>
         <v/>
       </c>
-      <c r="R74" s="101"/>
-      <c r="S74" s="101"/>
-      <c r="T74" s="101"/>
-      <c r="U74" s="108" t="str">
+      <c r="R74" s="102"/>
+      <c r="S74" s="102"/>
+      <c r="T74" s="102"/>
+      <c r="U74" s="109" t="str">
         <f>IF(R74="","",AVERAGE(R74:T74)-($W$63*(VLOOKUP($O$72,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V74" s="108" t="str">
+      <c r="V74" s="109" t="str">
         <f>IF(U74="","",U74/(VLOOKUP($O$72,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y74" s="88"/>
+      <c r="Y74" s="89"/>
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A75" s="12">
+      <c r="A75" s="13">
         <v>15</v>
       </c>
       <c r="B75" s="129"/>
-      <c r="C75" s="116" t="s">
+      <c r="C75" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="117"/>
-      <c r="E75" s="117"/>
-      <c r="F75" s="117"/>
-      <c r="G75" s="117"/>
-      <c r="H75" s="117"/>
-      <c r="I75" s="116" t="s">
+      <c r="D75" s="118"/>
+      <c r="E75" s="118"/>
+      <c r="F75" s="118"/>
+      <c r="G75" s="118"/>
+      <c r="H75" s="118"/>
+      <c r="I75" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="117"/>
-      <c r="K75" s="117"/>
-      <c r="L75" s="117"/>
+      <c r="J75" s="118"/>
+      <c r="K75" s="118"/>
+      <c r="L75" s="118"/>
       <c r="M75" s="130"/>
-      <c r="O75" s="87"/>
-      <c r="P75" s="104" t="str">
+      <c r="O75" s="88"/>
+      <c r="P75" s="105" t="str">
         <f>IF($V$59="","",$V$59)</f>
         <v>Door</v>
       </c>
-      <c r="Q75" s="104" t="str">
+      <c r="Q75" s="105" t="str">
         <f>IF($W$59="","",$W$59)</f>
         <v/>
       </c>
-      <c r="R75" s="101"/>
-      <c r="S75" s="101"/>
-      <c r="T75" s="101"/>
-      <c r="U75" s="108" t="str">
+      <c r="R75" s="102"/>
+      <c r="S75" s="102"/>
+      <c r="T75" s="102"/>
+      <c r="U75" s="109" t="str">
         <f>IF(R75="","",AVERAGE(R75:T75)-($W$63*(VLOOKUP($O$72,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V75" s="108" t="str">
+      <c r="V75" s="109" t="str">
         <f>IF(U75="","",U75/(VLOOKUP($O$72,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y75" s="88"/>
+      <c r="Y75" s="89"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A76" s="12">
+      <c r="A76" s="13">
         <v>16</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="M76" s="22"/>
-      <c r="O76" s="87"/>
-      <c r="P76" s="104" t="str">
+      <c r="B76" s="22"/>
+      <c r="M76" s="23"/>
+      <c r="O76" s="88"/>
+      <c r="P76" s="105" t="str">
         <f>IF($V$60="","",$V$60)</f>
         <v/>
       </c>
-      <c r="Q76" s="104" t="str">
+      <c r="Q76" s="105" t="str">
         <f>IF($W$60="","",$W$60)</f>
         <v/>
       </c>
-      <c r="R76" s="101"/>
-      <c r="S76" s="101"/>
-      <c r="T76" s="101"/>
-      <c r="U76" s="108" t="str">
+      <c r="R76" s="102"/>
+      <c r="S76" s="102"/>
+      <c r="T76" s="102"/>
+      <c r="U76" s="109" t="str">
         <f>IF(R76="","",AVERAGE(R76:T76)-($W$63*(VLOOKUP($O$72,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V76" s="108" t="str">
+      <c r="V76" s="109" t="str">
         <f>IF(U76="","",U76/(VLOOKUP($O$72,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y76" s="88"/>
+      <c r="Y76" s="89"/>
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A77" s="12">
+      <c r="A77" s="13">
         <v>17</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="112" t="str">
+      <c r="B77" s="22"/>
+      <c r="C77" s="113" t="str">
         <f>IF(O66="","",O66)</f>
         <v>High Def</v>
       </c>
-      <c r="D77" s="110" t="s">
+      <c r="D77" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="125" t="s">
+      <c r="E77" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="F77" s="110" t="s">
+      <c r="F77" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="G77" s="110" t="s">
+      <c r="G77" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="110" t="s">
+      <c r="I77" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J77" s="128" t="s">
+      <c r="J77" s="138" t="s">
         <v>95</v>
       </c>
       <c r="K77" s="134" t="s">
         <v>96</v>
       </c>
       <c r="L77" s="135"/>
-      <c r="M77" s="22"/>
-      <c r="O77" s="87"/>
-      <c r="Y77" s="88"/>
+      <c r="M77" s="23"/>
+      <c r="O77" s="88"/>
+      <c r="Y77" s="89"/>
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A78" s="12">
+      <c r="A78" s="13">
         <v>18</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="D78" s="110" t="str">
+      <c r="B78" s="22"/>
+      <c r="D78" s="111" t="str">
         <f>IF(P67="","",P67)</f>
         <v>Tableside</v>
       </c>
-      <c r="E78" s="110" t="str">
+      <c r="E78" s="136" t="str">
         <f>IF(Q67="","",Q67)</f>
         <v/>
       </c>
-      <c r="F78" s="126" t="str">
+      <c r="F78" s="127" t="str">
         <f>IF(U67="","",U67)</f>
         <v/>
       </c>
-      <c r="G78" s="127" t="str">
+      <c r="G78" s="128" t="str">
         <f>IF(V67="","",V67)</f>
         <v/>
       </c>
-      <c r="I78" s="110"/>
-      <c r="J78" s="110"/>
-      <c r="K78" s="110" t="s">
+      <c r="I78" s="137"/>
+      <c r="J78" s="139"/>
+      <c r="K78" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="L78" s="110" t="s">
+      <c r="L78" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="M78" s="22"/>
-      <c r="O78" s="106" t="str">
+      <c r="M78" s="23"/>
+      <c r="O78" s="107" t="str">
         <f>IF(O59="","",O59)</f>
         <v>Fast Array</v>
       </c>
-      <c r="P78" s="11" t="s">
+      <c r="P78" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q78" s="11" t="s">
+      <c r="Q78" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="R78" s="1" t="s">
+      <c r="R78" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="11" t="s">
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="V78" s="11" t="s">
+      <c r="V78" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="Y78" s="88"/>
+      <c r="Y78" s="89"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A79" s="12">
+      <c r="A79" s="13">
         <v>19</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="D79" s="110" t="str">
+      <c r="B79" s="22"/>
+      <c r="D79" s="111" t="str">
         <f>IF(P68="","",P68)</f>
         <v>Operator</v>
       </c>
-      <c r="E79" s="110" t="str">
+      <c r="E79" s="136" t="str">
         <f>IF(Q68="","",Q68)</f>
         <v/>
       </c>
-      <c r="F79" s="126" t="str">
+      <c r="F79" s="127" t="str">
         <f>IF(U68="","",U68)</f>
         <v/>
       </c>
-      <c r="G79" s="127" t="str">
+      <c r="G79" s="128" t="str">
         <f>IF(V68="","",V68)</f>
         <v/>
       </c>
-      <c r="I79" s="110" t="str">
+      <c r="I79" s="111" t="str">
         <f>IF(O98="","",O98)</f>
         <v>High Def</v>
       </c>
-      <c r="J79" s="127" t="str">
+      <c r="J79" s="128" t="str">
         <f>IF(S98="","",S98)</f>
         <v/>
       </c>
-      <c r="K79" s="127" t="str">
+      <c r="K79" s="128" t="str">
         <f>IF(U98="","",U98)</f>
         <v/>
       </c>
-      <c r="L79" s="127" t="str">
+      <c r="L79" s="128" t="str">
         <f>IF(V98="","",V98)</f>
         <v/>
       </c>
-      <c r="M79" s="22"/>
-      <c r="O79" s="87"/>
-      <c r="P79" s="104" t="str">
+      <c r="M79" s="23"/>
+      <c r="O79" s="88"/>
+      <c r="P79" s="105" t="str">
         <f>IF($V$57="","",$V$57)</f>
         <v>Tableside</v>
       </c>
-      <c r="Q79" s="104" t="str">
+      <c r="Q79" s="105" t="str">
         <f>IF($W$57="","",$W$57)</f>
         <v/>
       </c>
-      <c r="R79" s="101"/>
-      <c r="S79" s="101"/>
-      <c r="T79" s="101"/>
-      <c r="U79" s="108" t="str">
+      <c r="R79" s="102"/>
+      <c r="S79" s="102"/>
+      <c r="T79" s="102"/>
+      <c r="U79" s="109" t="str">
         <f>IF(R79="","",AVERAGE(R79:T79)-($W$63*(VLOOKUP($O$78,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V79" s="108" t="str">
+      <c r="V79" s="109" t="str">
         <f>IF(U79="","",U79/(VLOOKUP($O$78,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y79" s="88"/>
+      <c r="Y79" s="89"/>
     </row>
     <row r="80" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A80" s="12">
+      <c r="A80" s="13">
         <v>20</v>
       </c>
-      <c r="B80" s="21"/>
-      <c r="D80" s="110" t="str">
+      <c r="B80" s="22"/>
+      <c r="D80" s="111" t="str">
         <f>IF(P69="","",P69)</f>
         <v>Door</v>
       </c>
-      <c r="E80" s="110" t="str">
+      <c r="E80" s="136" t="str">
         <f>IF(Q69="","",Q69)</f>
         <v/>
       </c>
-      <c r="F80" s="126" t="str">
+      <c r="F80" s="127" t="str">
         <f>IF(U69="","",U69)</f>
         <v/>
       </c>
-      <c r="G80" s="127" t="str">
+      <c r="G80" s="128" t="str">
         <f>IF(V69="","",V69)</f>
         <v/>
       </c>
-      <c r="I80" s="110" t="str">
+      <c r="I80" s="111" t="str">
         <f>IF(O99="","",O99)</f>
         <v>Array</v>
       </c>
-      <c r="J80" s="127" t="str">
+      <c r="J80" s="128" t="str">
         <f>IF(S99="","",S99)</f>
         <v/>
       </c>
-      <c r="K80" s="127" t="str">
+      <c r="K80" s="128" t="str">
         <f>IF(U99="","",U99)</f>
         <v/>
       </c>
-      <c r="L80" s="127" t="str">
+      <c r="L80" s="128" t="str">
         <f>IF(V99="","",V99)</f>
         <v/>
       </c>
-      <c r="M80" s="22"/>
-      <c r="O80" s="87"/>
-      <c r="P80" s="104" t="str">
+      <c r="M80" s="23"/>
+      <c r="O80" s="88"/>
+      <c r="P80" s="105" t="str">
         <f>IF($V$58="","",$V$58)</f>
         <v>Operator</v>
       </c>
-      <c r="Q80" s="104" t="str">
+      <c r="Q80" s="105" t="str">
         <f>IF($W$58="","",$W$58)</f>
         <v/>
       </c>
-      <c r="R80" s="101"/>
-      <c r="S80" s="101"/>
-      <c r="T80" s="101"/>
-      <c r="U80" s="108" t="str">
+      <c r="R80" s="102"/>
+      <c r="S80" s="102"/>
+      <c r="T80" s="102"/>
+      <c r="U80" s="109" t="str">
         <f>IF(R80="","",AVERAGE(R80:T80)-($W$63*(VLOOKUP($O$78,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V80" s="108" t="str">
+      <c r="V80" s="109" t="str">
         <f>IF(U80="","",U80/(VLOOKUP($O$78,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y80" s="88"/>
+      <c r="Y80" s="89"/>
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A81" s="12">
+      <c r="A81" s="13">
         <v>21</v>
       </c>
-      <c r="B81" s="21"/>
-      <c r="D81" s="110" t="str">
+      <c r="B81" s="22"/>
+      <c r="D81" s="111" t="str">
         <f>IF(P70="","",P70)</f>
         <v/>
       </c>
-      <c r="E81" s="110" t="str">
+      <c r="E81" s="136" t="str">
         <f>IF(Q70="","",Q70)</f>
         <v/>
       </c>
-      <c r="F81" s="126" t="str">
+      <c r="F81" s="127" t="str">
         <f>IF(U70="","",U70)</f>
         <v/>
       </c>
-      <c r="G81" s="127" t="str">
+      <c r="G81" s="128" t="str">
         <f>IF(V70="","",V70)</f>
         <v/>
       </c>
-      <c r="I81" s="110" t="str">
+      <c r="I81" s="111" t="str">
         <f>IF(O100="","",O100)</f>
         <v>Fast Array</v>
       </c>
-      <c r="J81" s="127" t="str">
+      <c r="J81" s="128" t="str">
         <f>IF(S100="","",S100)</f>
         <v/>
       </c>
-      <c r="K81" s="127" t="str">
+      <c r="K81" s="128" t="str">
         <f>IF(U100="","",U100)</f>
         <v/>
       </c>
-      <c r="L81" s="127" t="str">
+      <c r="L81" s="128" t="str">
         <f>IF(V100="","",V100)</f>
         <v/>
       </c>
-      <c r="M81" s="22"/>
-      <c r="O81" s="87"/>
-      <c r="P81" s="104" t="str">
+      <c r="M81" s="23"/>
+      <c r="O81" s="88"/>
+      <c r="P81" s="105" t="str">
         <f>IF($V$59="","",$V$59)</f>
         <v>Door</v>
       </c>
-      <c r="Q81" s="104" t="str">
+      <c r="Q81" s="105" t="str">
         <f>IF($W$59="","",$W$59)</f>
         <v/>
       </c>
-      <c r="R81" s="101"/>
-      <c r="S81" s="101"/>
-      <c r="T81" s="101"/>
-      <c r="U81" s="108" t="str">
+      <c r="R81" s="102"/>
+      <c r="S81" s="102"/>
+      <c r="T81" s="102"/>
+      <c r="U81" s="109" t="str">
         <f>IF(R81="","",AVERAGE(R81:T81)-($W$63*(VLOOKUP($O$78,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V81" s="108" t="str">
+      <c r="V81" s="109" t="str">
         <f>IF(U81="","",U81/(VLOOKUP($O$78,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y81" s="88"/>
+      <c r="Y81" s="89"/>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A82" s="12">
+      <c r="A82" s="13">
         <v>22</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="I82" s="110" t="str">
+      <c r="B82" s="22"/>
+      <c r="I82" s="111" t="str">
         <f>IF(O101="","",O101)</f>
         <v>Turbo</v>
       </c>
-      <c r="J82" s="127" t="str">
+      <c r="J82" s="128" t="str">
         <f>IF(S101="","",S101)</f>
         <v/>
       </c>
-      <c r="K82" s="127" t="str">
+      <c r="K82" s="128" t="str">
         <f>IF(U101="","",U101)</f>
         <v/>
       </c>
-      <c r="L82" s="127" t="str">
+      <c r="L82" s="128" t="str">
         <f>IF(V101="","",V101)</f>
         <v/>
       </c>
-      <c r="M82" s="22"/>
-      <c r="O82" s="87"/>
-      <c r="P82" s="104" t="str">
+      <c r="M82" s="23"/>
+      <c r="O82" s="88"/>
+      <c r="P82" s="105" t="str">
         <f>IF($V$60="","",$V$60)</f>
         <v/>
       </c>
-      <c r="Q82" s="104" t="str">
+      <c r="Q82" s="105" t="str">
         <f>IF($W$60="","",$W$60)</f>
         <v/>
       </c>
-      <c r="R82" s="101"/>
-      <c r="S82" s="101"/>
-      <c r="T82" s="101"/>
-      <c r="U82" s="108" t="str">
+      <c r="R82" s="102"/>
+      <c r="S82" s="102"/>
+      <c r="T82" s="102"/>
+      <c r="U82" s="109" t="str">
         <f>IF(R82="","",AVERAGE(R82:T82)-($W$63*(VLOOKUP($O$78,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V82" s="108" t="str">
+      <c r="V82" s="109" t="str">
         <f>IF(U82="","",U82/(VLOOKUP($O$78,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y82" s="88"/>
+      <c r="Y82" s="89"/>
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A83" s="12">
+      <c r="A83" s="13">
         <v>23</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="112" t="str">
+      <c r="B83" s="22"/>
+      <c r="C83" s="113" t="str">
         <f>IF(O72="","",O72)</f>
         <v>Array</v>
       </c>
-      <c r="D83" s="110" t="s">
+      <c r="D83" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="125" t="s">
+      <c r="E83" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="F83" s="110" t="s">
+      <c r="F83" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="G83" s="110" t="s">
+      <c r="G83" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="M83" s="22"/>
-      <c r="O83" s="87"/>
-      <c r="Y83" s="88"/>
+      <c r="M83" s="23"/>
+      <c r="O83" s="88"/>
+      <c r="Y83" s="89"/>
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A84" s="12">
+      <c r="A84" s="13">
         <v>24</v>
       </c>
-      <c r="B84" s="21"/>
-      <c r="D84" s="110" t="str">
+      <c r="B84" s="22"/>
+      <c r="D84" s="111" t="str">
         <f>IF(P73="","",P73)</f>
         <v>Tableside</v>
       </c>
-      <c r="E84" s="110" t="str">
+      <c r="E84" s="136" t="str">
         <f>IF(Q73="","",Q73)</f>
         <v/>
       </c>
-      <c r="F84" s="126" t="str">
+      <c r="F84" s="127" t="str">
         <f>IF(U73="","",U73)</f>
         <v/>
       </c>
-      <c r="G84" s="127" t="str">
+      <c r="G84" s="128" t="str">
         <f>IF(V73="","",V73)</f>
         <v/>
       </c>
-      <c r="M84" s="22"/>
-      <c r="O84" s="106" t="str">
+      <c r="M84" s="23"/>
+      <c r="O84" s="107" t="str">
         <f>IF(O60="","",O60)</f>
         <v>Turbo</v>
       </c>
-      <c r="P84" s="11" t="s">
+      <c r="P84" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q84" s="11" t="s">
+      <c r="Q84" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="R84" s="1" t="s">
+      <c r="R84" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="S84" s="1"/>
-      <c r="T84" s="1"/>
-      <c r="U84" s="11" t="s">
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="V84" s="11" t="s">
+      <c r="V84" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="Y84" s="88"/>
+      <c r="Y84" s="89"/>
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A85" s="12">
+      <c r="A85" s="13">
         <v>25</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="D85" s="110" t="str">
+      <c r="B85" s="22"/>
+      <c r="D85" s="111" t="str">
         <f>IF(P74="","",P74)</f>
         <v>Operator</v>
       </c>
-      <c r="E85" s="110" t="str">
+      <c r="E85" s="136" t="str">
         <f>IF(Q74="","",Q74)</f>
         <v/>
       </c>
-      <c r="F85" s="126" t="str">
+      <c r="F85" s="127" t="str">
         <f>IF(U74="","",U74)</f>
         <v/>
       </c>
-      <c r="G85" s="127" t="str">
+      <c r="G85" s="128" t="str">
         <f>IF(V74="","",V74)</f>
         <v/>
       </c>
-      <c r="M85" s="22"/>
-      <c r="O85" s="87"/>
-      <c r="P85" s="104" t="str">
+      <c r="M85" s="23"/>
+      <c r="O85" s="88"/>
+      <c r="P85" s="105" t="str">
         <f>IF($V$57="","",$V$57)</f>
         <v>Tableside</v>
       </c>
-      <c r="Q85" s="104" t="str">
+      <c r="Q85" s="105" t="str">
         <f>IF($W$57="","",$W$57)</f>
         <v/>
       </c>
-      <c r="R85" s="101"/>
-      <c r="S85" s="101"/>
-      <c r="T85" s="101"/>
-      <c r="U85" s="108" t="str">
+      <c r="R85" s="102"/>
+      <c r="S85" s="102"/>
+      <c r="T85" s="102"/>
+      <c r="U85" s="109" t="str">
         <f>IF(R85="","",AVERAGE(R85:T85)-($W$63*(VLOOKUP($O$84,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V85" s="108" t="str">
+      <c r="V85" s="109" t="str">
         <f>IF(U85="","",U85/(VLOOKUP($O$84,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y85" s="88"/>
+      <c r="Y85" s="89"/>
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A86" s="12">
+      <c r="A86" s="13">
         <v>26</v>
       </c>
-      <c r="B86" s="21"/>
-      <c r="D86" s="110" t="str">
+      <c r="B86" s="22"/>
+      <c r="D86" s="111" t="str">
         <f>IF(P75="","",P75)</f>
         <v>Door</v>
       </c>
-      <c r="E86" s="110" t="str">
+      <c r="E86" s="136" t="str">
         <f>IF(Q75="","",Q75)</f>
         <v/>
       </c>
-      <c r="F86" s="126" t="str">
+      <c r="F86" s="127" t="str">
         <f>IF(U75="","",U75)</f>
         <v/>
       </c>
-      <c r="G86" s="127" t="str">
+      <c r="G86" s="128" t="str">
         <f>IF(V75="","",V75)</f>
         <v/>
       </c>
-      <c r="M86" s="22"/>
-      <c r="O86" s="87"/>
-      <c r="P86" s="104" t="str">
+      <c r="M86" s="23"/>
+      <c r="O86" s="88"/>
+      <c r="P86" s="105" t="str">
         <f>IF($V$58="","",$V$58)</f>
         <v>Operator</v>
       </c>
-      <c r="Q86" s="104" t="str">
+      <c r="Q86" s="105" t="str">
         <f>IF($W$58="","",$W$58)</f>
         <v/>
       </c>
-      <c r="R86" s="101"/>
-      <c r="S86" s="101"/>
-      <c r="T86" s="101"/>
-      <c r="U86" s="108" t="str">
+      <c r="R86" s="102"/>
+      <c r="S86" s="102"/>
+      <c r="T86" s="102"/>
+      <c r="U86" s="109" t="str">
         <f>IF(R86="","",AVERAGE(R86:T86)-($W$63*(VLOOKUP($O$84,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V86" s="108" t="str">
+      <c r="V86" s="109" t="str">
         <f>IF(U86="","",U86/(VLOOKUP($O$84,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y86" s="88"/>
+      <c r="Y86" s="89"/>
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A87" s="12">
+      <c r="A87" s="13">
         <v>27</v>
       </c>
-      <c r="B87" s="21"/>
-      <c r="D87" s="110" t="str">
+      <c r="B87" s="22"/>
+      <c r="D87" s="111" t="str">
         <f>IF(P76="","",P76)</f>
         <v/>
       </c>
-      <c r="E87" s="110" t="str">
+      <c r="E87" s="136" t="str">
         <f>IF(Q76="","",Q76)</f>
         <v/>
       </c>
-      <c r="F87" s="126" t="str">
+      <c r="F87" s="127" t="str">
         <f>IF(U76="","",U76)</f>
         <v/>
       </c>
-      <c r="G87" s="127" t="str">
+      <c r="G87" s="128" t="str">
         <f>IF(V76="","",V76)</f>
         <v/>
       </c>
-      <c r="M87" s="22"/>
-      <c r="O87" s="87"/>
-      <c r="P87" s="104" t="str">
+      <c r="M87" s="23"/>
+      <c r="O87" s="88"/>
+      <c r="P87" s="105" t="str">
         <f>IF($V$59="","",$V$59)</f>
         <v>Door</v>
       </c>
-      <c r="Q87" s="104" t="str">
+      <c r="Q87" s="105" t="str">
         <f>IF($W$59="","",$W$59)</f>
         <v/>
       </c>
-      <c r="R87" s="101"/>
-      <c r="S87" s="101"/>
-      <c r="T87" s="101"/>
-      <c r="U87" s="108" t="str">
+      <c r="R87" s="102"/>
+      <c r="S87" s="102"/>
+      <c r="T87" s="102"/>
+      <c r="U87" s="109" t="str">
         <f>IF(R87="","",AVERAGE(R87:T87)-($W$63*(VLOOKUP($O$84,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V87" s="108" t="str">
+      <c r="V87" s="109" t="str">
         <f>IF(U87="","",U87/(VLOOKUP($O$84,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y87" s="88"/>
+      <c r="Y87" s="89"/>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A88" s="12">
+      <c r="A88" s="13">
         <v>28</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="M88" s="22"/>
-      <c r="O88" s="87"/>
-      <c r="P88" s="104" t="str">
+      <c r="B88" s="22"/>
+      <c r="M88" s="23"/>
+      <c r="O88" s="88"/>
+      <c r="P88" s="105" t="str">
         <f>IF($V$60="","",$V$60)</f>
         <v/>
       </c>
-      <c r="Q88" s="104" t="str">
+      <c r="Q88" s="105" t="str">
         <f>IF($W$60="","",$W$60)</f>
         <v/>
       </c>
-      <c r="R88" s="101"/>
-      <c r="S88" s="101"/>
-      <c r="T88" s="101"/>
-      <c r="U88" s="108" t="str">
+      <c r="R88" s="102"/>
+      <c r="S88" s="102"/>
+      <c r="T88" s="102"/>
+      <c r="U88" s="109" t="str">
         <f>IF(R88="","",AVERAGE(R88:T88)-($W$63*(VLOOKUP($O$84,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V88" s="108" t="str">
+      <c r="V88" s="109" t="str">
         <f>IF(U88="","",U88/(VLOOKUP($O$84,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y88" s="88"/>
+      <c r="Y88" s="89"/>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A89" s="12">
+      <c r="A89" s="13">
         <v>29</v>
       </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="112" t="str">
+      <c r="B89" s="22"/>
+      <c r="C89" s="113" t="str">
         <f>IF(O78="","",O78)</f>
         <v>Fast Array</v>
       </c>
-      <c r="D89" s="110" t="s">
+      <c r="D89" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="125" t="s">
+      <c r="E89" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="F89" s="110" t="s">
+      <c r="F89" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="G89" s="110" t="s">
+      <c r="G89" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="M89" s="22"/>
-      <c r="O89" s="92"/>
-      <c r="P89" s="93"/>
-      <c r="Q89" s="93"/>
-      <c r="R89" s="93"/>
-      <c r="S89" s="93"/>
-      <c r="T89" s="93"/>
-      <c r="U89" s="93"/>
-      <c r="V89" s="93"/>
-      <c r="W89" s="93"/>
-      <c r="X89" s="93"/>
-      <c r="Y89" s="94"/>
+      <c r="M89" s="23"/>
+      <c r="O89" s="93"/>
+      <c r="P89" s="94"/>
+      <c r="Q89" s="94"/>
+      <c r="R89" s="94"/>
+      <c r="S89" s="94"/>
+      <c r="T89" s="94"/>
+      <c r="U89" s="94"/>
+      <c r="V89" s="94"/>
+      <c r="W89" s="94"/>
+      <c r="X89" s="94"/>
+      <c r="Y89" s="95"/>
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A90" s="12">
+      <c r="A90" s="13">
         <v>30</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="D90" s="110" t="str">
+      <c r="B90" s="22"/>
+      <c r="D90" s="111" t="str">
         <f>IF(P79="","",P79)</f>
         <v>Tableside</v>
       </c>
-      <c r="E90" s="110" t="str">
+      <c r="E90" s="136" t="str">
         <f>IF(Q79="","",Q79)</f>
         <v/>
       </c>
-      <c r="F90" s="126" t="str">
+      <c r="F90" s="127" t="str">
         <f>IF(U79="","",U79)</f>
         <v/>
       </c>
-      <c r="G90" s="127" t="str">
+      <c r="G90" s="128" t="str">
         <f>IF(V79="","",V79)</f>
         <v/>
       </c>
-      <c r="M90" s="22"/>
-      <c r="O90" s="118"/>
-      <c r="P90" s="96"/>
-      <c r="Q90" s="96"/>
-      <c r="R90" s="96"/>
-      <c r="S90" s="96"/>
-      <c r="T90" s="96"/>
-      <c r="U90" s="96"/>
-      <c r="V90" s="96"/>
-      <c r="W90" s="96"/>
-      <c r="X90" s="96"/>
-      <c r="Y90" s="98"/>
+      <c r="M90" s="23"/>
+      <c r="O90" s="119"/>
+      <c r="P90" s="97"/>
+      <c r="Q90" s="97"/>
+      <c r="R90" s="97"/>
+      <c r="S90" s="97"/>
+      <c r="T90" s="97"/>
+      <c r="U90" s="97"/>
+      <c r="V90" s="97"/>
+      <c r="W90" s="97"/>
+      <c r="X90" s="97"/>
+      <c r="Y90" s="99"/>
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A91" s="12">
+      <c r="A91" s="13">
         <v>31</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="D91" s="110" t="str">
+      <c r="B91" s="22"/>
+      <c r="D91" s="111" t="str">
         <f>IF(P80="","",P80)</f>
         <v>Operator</v>
       </c>
-      <c r="E91" s="110" t="str">
+      <c r="E91" s="136" t="str">
         <f>IF(Q80="","",Q80)</f>
         <v/>
       </c>
-      <c r="F91" s="126" t="str">
+      <c r="F91" s="127" t="str">
         <f>IF(U80="","",U80)</f>
         <v/>
       </c>
-      <c r="G91" s="127" t="str">
+      <c r="G91" s="128" t="str">
         <f>IF(V80="","",V80)</f>
         <v/>
       </c>
-      <c r="M91" s="22"/>
-      <c r="O91" s="102" t="s">
+      <c r="M91" s="23"/>
+      <c r="O91" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="Y91" s="88"/>
+      <c r="Y91" s="89"/>
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A92" s="12">
+      <c r="A92" s="13">
         <v>32</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="D92" s="110" t="str">
+      <c r="B92" s="22"/>
+      <c r="D92" s="111" t="str">
         <f>IF(P81="","",P81)</f>
         <v>Door</v>
       </c>
-      <c r="E92" s="110" t="str">
+      <c r="E92" s="136" t="str">
         <f>IF(Q81="","",Q81)</f>
         <v/>
       </c>
-      <c r="F92" s="126" t="str">
+      <c r="F92" s="127" t="str">
         <f>IF(U81="","",U81)</f>
         <v/>
       </c>
-      <c r="G92" s="127" t="str">
+      <c r="G92" s="128" t="str">
         <f>IF(V81="","",V81)</f>
         <v/>
       </c>
-      <c r="M92" s="22"/>
-      <c r="O92" s="89">
+      <c r="M92" s="23"/>
+      <c r="O92" s="90">
         <v>107</v>
       </c>
-      <c r="P92" s="10" t="s">
+      <c r="P92" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="T92" s="29" t="s">
+      <c r="T92" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="U92" s="40" t="str">
+      <c r="U92" s="41" t="str">
         <f>IF(U93&lt;&gt;"",U93,IF(AB42="","",AB42))</f>
         <v>Piranha CB2-17090320</v>
       </c>
-      <c r="V92" s="40"/>
-      <c r="W92" s="29" t="s">
+      <c r="V92" s="41"/>
+      <c r="W92" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="X92" s="40" t="str">
+      <c r="X92" s="41" t="str">
         <f>IF(X93&lt;&gt;"",X93,IF(AB43="","",AB43))</f>
         <v>Piranha R100B</v>
       </c>
-      <c r="Y92" s="88"/>
+      <c r="Y92" s="89"/>
     </row>
     <row r="93" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A93" s="12">
+      <c r="A93" s="13">
         <v>33</v>
       </c>
-      <c r="B93" s="21"/>
-      <c r="D93" s="110" t="str">
+      <c r="B93" s="22"/>
+      <c r="D93" s="111" t="str">
         <f>IF(P82="","",P82)</f>
         <v/>
       </c>
-      <c r="E93" s="110" t="str">
+      <c r="E93" s="136" t="str">
         <f>IF(Q82="","",Q82)</f>
         <v/>
       </c>
-      <c r="F93" s="126" t="str">
+      <c r="F93" s="127" t="str">
         <f>IF(U82="","",U82)</f>
         <v/>
       </c>
-      <c r="G93" s="127" t="str">
+      <c r="G93" s="128" t="str">
         <f>IF(V82="","",V82)</f>
         <v/>
       </c>
-      <c r="M93" s="22"/>
-      <c r="O93" s="89">
+      <c r="M93" s="23"/>
+      <c r="O93" s="90">
         <v>42.4</v>
       </c>
-      <c r="P93" s="10" t="s">
+      <c r="P93" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="U93" s="41" t="s">
+      <c r="U93" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="V93" s="41"/>
-      <c r="X93" s="41" t="s">
+      <c r="V93" s="42"/>
+      <c r="X93" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Y93" s="88"/>
+      <c r="Y93" s="89"/>
     </row>
     <row r="94" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A94" s="12">
+      <c r="A94" s="13">
         <v>34</v>
       </c>
-      <c r="B94" s="21"/>
-      <c r="M94" s="22"/>
-      <c r="O94" s="87"/>
-      <c r="T94" s="119"/>
-      <c r="U94" s="119"/>
-      <c r="Y94" s="88"/>
+      <c r="B94" s="22"/>
+      <c r="M94" s="23"/>
+      <c r="O94" s="88"/>
+      <c r="T94" s="120"/>
+      <c r="U94" s="120"/>
+      <c r="Y94" s="89"/>
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A95" s="12">
+      <c r="A95" s="13">
         <v>35</v>
       </c>
-      <c r="B95" s="21"/>
-      <c r="C95" s="112" t="str">
+      <c r="B95" s="22"/>
+      <c r="C95" s="113" t="str">
         <f>IF(O84="","",O84)</f>
         <v>Turbo</v>
       </c>
-      <c r="D95" s="110" t="s">
+      <c r="D95" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="125" t="s">
+      <c r="E95" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="F95" s="110" t="s">
+      <c r="F95" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="G95" s="110" t="s">
+      <c r="G95" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="M95" s="22"/>
-      <c r="O95" s="102" t="s">
+      <c r="M95" s="23"/>
+      <c r="O95" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="T95" s="119"/>
-      <c r="U95" s="119"/>
-      <c r="Y95" s="88"/>
+      <c r="T95" s="120"/>
+      <c r="U95" s="120"/>
+      <c r="Y95" s="89"/>
     </row>
     <row r="96" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A96" s="12">
+      <c r="A96" s="13">
         <v>36</v>
       </c>
-      <c r="B96" s="21"/>
-      <c r="D96" s="110" t="str">
+      <c r="B96" s="22"/>
+      <c r="D96" s="111" t="str">
         <f>IF(P85="","",P85)</f>
         <v>Tableside</v>
       </c>
-      <c r="E96" s="110" t="str">
+      <c r="E96" s="136" t="str">
         <f>IF(Q85="","",Q85)</f>
         <v/>
       </c>
-      <c r="F96" s="126" t="str">
+      <c r="F96" s="127" t="str">
         <f>IF(U85="","",U85)</f>
         <v/>
       </c>
-      <c r="G96" s="127" t="str">
+      <c r="G96" s="128" t="str">
         <f>IF(V85="","",V85)</f>
         <v/>
       </c>
-      <c r="M96" s="22"/>
-      <c r="O96" s="120"/>
-      <c r="P96" s="119"/>
-      <c r="Q96" s="119"/>
-      <c r="R96" s="119"/>
-      <c r="S96" s="11" t="s">
+      <c r="M96" s="23"/>
+      <c r="O96" s="121"/>
+      <c r="P96" s="120"/>
+      <c r="Q96" s="120"/>
+      <c r="R96" s="120"/>
+      <c r="S96" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="T96" s="119"/>
-      <c r="U96" s="1" t="s">
+      <c r="T96" s="120"/>
+      <c r="U96" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="V96" s="1"/>
-      <c r="Y96" s="88"/>
+      <c r="V96" s="2"/>
+      <c r="Y96" s="89"/>
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A97" s="12">
+      <c r="A97" s="13">
         <v>37</v>
       </c>
-      <c r="B97" s="21"/>
-      <c r="D97" s="110" t="str">
+      <c r="B97" s="22"/>
+      <c r="D97" s="111" t="str">
         <f>IF(P86="","",P86)</f>
         <v>Operator</v>
       </c>
-      <c r="E97" s="110" t="str">
+      <c r="E97" s="136" t="str">
         <f>IF(Q86="","",Q86)</f>
         <v/>
       </c>
-      <c r="F97" s="126" t="str">
+      <c r="F97" s="127" t="str">
         <f>IF(U86="","",U86)</f>
         <v/>
       </c>
-      <c r="G97" s="127" t="str">
+      <c r="G97" s="128" t="str">
         <f>IF(V86="","",V86)</f>
         <v/>
       </c>
-      <c r="M97" s="22"/>
-      <c r="O97" s="121" t="s">
+      <c r="M97" s="23"/>
+      <c r="O97" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="P97" s="1" t="s">
+      <c r="P97" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="11" t="s">
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="T97" s="11" t="s">
+      <c r="T97" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="U97" s="11" t="s">
+      <c r="U97" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="V97" s="11" t="s">
+      <c r="V97" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="Y97" s="88"/>
+      <c r="Y97" s="89"/>
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A98" s="12">
+      <c r="A98" s="13">
         <v>38</v>
       </c>
-      <c r="B98" s="21"/>
-      <c r="D98" s="110" t="str">
+      <c r="B98" s="22"/>
+      <c r="D98" s="111" t="str">
         <f>IF(P87="","",P87)</f>
         <v>Door</v>
       </c>
-      <c r="E98" s="110" t="str">
+      <c r="E98" s="136" t="str">
         <f>IF(Q87="","",Q87)</f>
         <v/>
       </c>
-      <c r="F98" s="126" t="str">
+      <c r="F98" s="127" t="str">
         <f>IF(U87="","",U87)</f>
         <v/>
       </c>
-      <c r="G98" s="127" t="str">
+      <c r="G98" s="128" t="str">
         <f>IF(V87="","",V87)</f>
         <v/>
       </c>
-      <c r="M98" s="22"/>
-      <c r="O98" s="122" t="str">
+      <c r="M98" s="23"/>
+      <c r="O98" s="123" t="str">
         <f>IF(O57="","",O57)</f>
         <v>High Def</v>
       </c>
-      <c r="P98" s="101"/>
-      <c r="Q98" s="101"/>
-      <c r="R98" s="101"/>
-      <c r="S98" s="123" t="str">
+      <c r="P98" s="102"/>
+      <c r="Q98" s="102"/>
+      <c r="R98" s="102"/>
+      <c r="S98" s="124" t="str">
         <f>IF(P98="","",AVERAGE(P98:R98))</f>
         <v/>
       </c>
-      <c r="T98" s="123" t="str">
+      <c r="T98" s="124" t="str">
         <f>IF(P98="","",STDEV(P98:R98))</f>
         <v/>
       </c>
-      <c r="U98" s="108" t="str">
+      <c r="U98" s="109" t="str">
         <f>IF(S98="","",S98*($O$92/$O$93)^2)</f>
         <v/>
       </c>
-      <c r="V98" s="108" t="str">
+      <c r="V98" s="109" t="str">
         <f>IF(U98="","",U98/R57)</f>
         <v/>
       </c>
-      <c r="Y98" s="88"/>
+      <c r="Y98" s="89"/>
     </row>
     <row r="99" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A99" s="12">
+      <c r="A99" s="13">
         <v>39</v>
       </c>
-      <c r="B99" s="21"/>
-      <c r="D99" s="110" t="str">
+      <c r="B99" s="22"/>
+      <c r="D99" s="111" t="str">
         <f>IF(P88="","",P88)</f>
         <v/>
       </c>
-      <c r="E99" s="110" t="str">
+      <c r="E99" s="136" t="str">
         <f>IF(Q88="","",Q88)</f>
         <v/>
       </c>
-      <c r="F99" s="126" t="str">
+      <c r="F99" s="127" t="str">
         <f>IF(U88="","",U88)</f>
         <v/>
       </c>
-      <c r="G99" s="127" t="str">
+      <c r="G99" s="128" t="str">
         <f>IF(V88="","",V88)</f>
         <v/>
       </c>
-      <c r="M99" s="22"/>
-      <c r="O99" s="122" t="str">
+      <c r="M99" s="23"/>
+      <c r="O99" s="123" t="str">
         <f>IF(O58="","",O58)</f>
         <v>Array</v>
       </c>
-      <c r="P99" s="101"/>
-      <c r="Q99" s="101"/>
-      <c r="R99" s="101"/>
-      <c r="S99" s="123" t="str">
+      <c r="P99" s="102"/>
+      <c r="Q99" s="102"/>
+      <c r="R99" s="102"/>
+      <c r="S99" s="124" t="str">
         <f>IF(P99="","",AVERAGE(P99:R99))</f>
         <v/>
       </c>
-      <c r="T99" s="123" t="str">
+      <c r="T99" s="124" t="str">
         <f>IF(P99="","",STDEV(P99:R99))</f>
         <v/>
       </c>
-      <c r="U99" s="108" t="str">
+      <c r="U99" s="109" t="str">
         <f>IF(S99="","",S99*($O$92/$O$93)^2)</f>
         <v/>
       </c>
-      <c r="V99" s="108" t="str">
+      <c r="V99" s="109" t="str">
         <f>IF(U99="","",U99/R58)</f>
         <v/>
       </c>
-      <c r="Y99" s="88"/>
+      <c r="Y99" s="89"/>
     </row>
     <row r="100" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A100" s="12">
+      <c r="A100" s="13">
         <v>40</v>
       </c>
-      <c r="B100" s="31"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="32"/>
-      <c r="L100" s="32"/>
-      <c r="M100" s="33"/>
-      <c r="O100" s="122" t="str">
+      <c r="B100" s="32"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="34"/>
+      <c r="O100" s="123" t="str">
         <f>IF(O59="","",O59)</f>
         <v>Fast Array</v>
       </c>
-      <c r="P100" s="101"/>
-      <c r="Q100" s="101"/>
-      <c r="R100" s="101"/>
-      <c r="S100" s="123" t="str">
+      <c r="P100" s="102"/>
+      <c r="Q100" s="102"/>
+      <c r="R100" s="102"/>
+      <c r="S100" s="124" t="str">
         <f>IF(P100="","",AVERAGE(P100:R100))</f>
         <v/>
       </c>
-      <c r="T100" s="123" t="str">
+      <c r="T100" s="124" t="str">
         <f>IF(P100="","",STDEV(P100:R100))</f>
         <v/>
       </c>
-      <c r="U100" s="108" t="str">
+      <c r="U100" s="109" t="str">
         <f>IF(S100="","",S100*($O$92/$O$93)^2)</f>
         <v/>
       </c>
-      <c r="V100" s="108" t="str">
+      <c r="V100" s="109" t="str">
         <f>IF(U100="","",U100/R59)</f>
         <v/>
       </c>
-      <c r="Y100" s="88"/>
+      <c r="Y100" s="89"/>
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A101" s="12">
+      <c r="A101" s="13">
         <v>41</v>
       </c>
-      <c r="O101" s="122" t="str">
+      <c r="O101" s="123" t="str">
         <f>IF(O60="","",O60)</f>
         <v>Turbo</v>
       </c>
-      <c r="P101" s="101"/>
-      <c r="Q101" s="101"/>
-      <c r="R101" s="101"/>
-      <c r="S101" s="123" t="str">
+      <c r="P101" s="102"/>
+      <c r="Q101" s="102"/>
+      <c r="R101" s="102"/>
+      <c r="S101" s="124" t="str">
         <f>IF(P101="","",AVERAGE(P101:R101))</f>
         <v/>
       </c>
-      <c r="T101" s="123" t="str">
+      <c r="T101" s="124" t="str">
         <f>IF(P101="","",STDEV(P101:R101))</f>
         <v/>
       </c>
-      <c r="U101" s="108" t="str">
+      <c r="U101" s="109" t="str">
         <f>IF(S101="","",S101*($O$92/$O$93)^2)</f>
         <v/>
       </c>
-      <c r="V101" s="108" t="str">
+      <c r="V101" s="109" t="str">
         <f>IF(U101="","",U101/R60)</f>
         <v/>
       </c>
-      <c r="Y101" s="88"/>
+      <c r="Y101" s="89"/>
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A102" s="12">
+      <c r="A102" s="13">
         <v>42</v>
       </c>
-      <c r="O102" s="92"/>
-      <c r="P102" s="93"/>
-      <c r="Q102" s="93"/>
-      <c r="R102" s="93"/>
-      <c r="S102" s="93"/>
-      <c r="T102" s="93"/>
-      <c r="U102" s="93"/>
-      <c r="V102" s="93"/>
-      <c r="W102" s="93"/>
-      <c r="X102" s="93"/>
-      <c r="Y102" s="94"/>
+      <c r="O102" s="93"/>
+      <c r="P102" s="94"/>
+      <c r="Q102" s="94"/>
+      <c r="R102" s="94"/>
+      <c r="S102" s="94"/>
+      <c r="T102" s="94"/>
+      <c r="U102" s="94"/>
+      <c r="V102" s="94"/>
+      <c r="W102" s="94"/>
+      <c r="X102" s="94"/>
+      <c r="Y102" s="95"/>
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A103" s="12">
+      <c r="A103" s="13">
         <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A104" s="12">
+      <c r="A104" s="13">
         <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A105" s="12">
+      <c r="A105" s="13">
         <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A106" s="12">
+      <c r="A106" s="13">
         <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A107" s="12">
+      <c r="A107" s="13">
         <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A108" s="12">
+      <c r="A108" s="13">
         <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A109" s="12">
+      <c r="A109" s="13">
         <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A110" s="12">
+      <c r="A110" s="13">
         <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A111" s="12">
+      <c r="A111" s="13">
         <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A112" s="12">
+      <c r="A112" s="13">
         <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A113" s="12">
+      <c r="A113" s="13">
         <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A114" s="12">
+      <c r="A114" s="13">
         <v>54</v>
       </c>
-      <c r="B114" s="62"/>
-      <c r="C114" s="62"/>
-      <c r="D114" s="62"/>
-      <c r="E114" s="62"/>
-      <c r="F114" s="62"/>
-      <c r="G114" s="62"/>
-      <c r="H114" s="62"/>
-      <c r="I114" s="62"/>
-      <c r="J114" s="62"/>
-      <c r="K114" s="62"/>
-      <c r="L114" s="62"/>
-      <c r="M114" s="62"/>
+      <c r="B114" s="63"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="63"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="63"/>
+      <c r="G114" s="63"/>
+      <c r="H114" s="63"/>
+      <c r="I114" s="63"/>
+      <c r="J114" s="63"/>
+      <c r="K114" s="63"/>
+      <c r="L114" s="63"/>
+      <c r="M114" s="63"/>
     </row>
     <row r="115" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A115" s="12">
+      <c r="A115" s="13">
         <v>55</v>
       </c>
-      <c r="B115" s="62"/>
-      <c r="C115" s="62"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="62"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="62"/>
-      <c r="I115" s="62"/>
-      <c r="J115" s="62"/>
-      <c r="K115" s="62"/>
-      <c r="L115" s="62"/>
-      <c r="M115" s="62"/>
+      <c r="B115" s="63"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="63"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="63"/>
+      <c r="H115" s="63"/>
+      <c r="I115" s="63"/>
+      <c r="J115" s="63"/>
+      <c r="K115" s="63"/>
+      <c r="L115" s="63"/>
+      <c r="M115" s="63"/>
     </row>
     <row r="116" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A116" s="12">
+      <c r="A116" s="13">
         <v>56</v>
       </c>
-      <c r="B116" s="62"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="62"/>
-      <c r="F116" s="62"/>
-      <c r="G116" s="62"/>
-      <c r="H116" s="62"/>
-      <c r="I116" s="62"/>
-      <c r="J116" s="62"/>
-      <c r="K116" s="62"/>
-      <c r="L116" s="62"/>
-      <c r="M116" s="62"/>
+      <c r="B116" s="63"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="63"/>
+      <c r="F116" s="63"/>
+      <c r="G116" s="63"/>
+      <c r="H116" s="63"/>
+      <c r="I116" s="63"/>
+      <c r="J116" s="63"/>
+      <c r="K116" s="63"/>
+      <c r="L116" s="63"/>
+      <c r="M116" s="63"/>
     </row>
     <row r="117" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A117" s="12">
+      <c r="A117" s="13">
         <v>57</v>
       </c>
-      <c r="B117" s="62"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="62"/>
-      <c r="E117" s="62"/>
-      <c r="F117" s="62"/>
-      <c r="G117" s="62"/>
-      <c r="H117" s="62"/>
-      <c r="I117" s="62"/>
-      <c r="J117" s="62"/>
-      <c r="K117" s="62"/>
-      <c r="L117" s="62"/>
-      <c r="M117" s="62"/>
+      <c r="B117" s="63"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="63"/>
+      <c r="F117" s="63"/>
+      <c r="G117" s="63"/>
+      <c r="H117" s="63"/>
+      <c r="I117" s="63"/>
+      <c r="J117" s="63"/>
+      <c r="K117" s="63"/>
+      <c r="L117" s="63"/>
+      <c r="M117" s="63"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A118" s="12">
+      <c r="A118" s="13">
         <v>58</v>
       </c>
-      <c r="B118" s="62"/>
-      <c r="C118" s="62"/>
-      <c r="D118" s="62"/>
-      <c r="E118" s="62"/>
-      <c r="F118" s="62"/>
-      <c r="G118" s="62"/>
-      <c r="H118" s="62"/>
-      <c r="I118" s="62"/>
-      <c r="J118" s="62"/>
-      <c r="K118" s="62"/>
-      <c r="L118" s="62"/>
-      <c r="M118" s="62"/>
+      <c r="B118" s="63"/>
+      <c r="C118" s="63"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="63"/>
+      <c r="G118" s="63"/>
+      <c r="H118" s="63"/>
+      <c r="I118" s="63"/>
+      <c r="J118" s="63"/>
+      <c r="K118" s="63"/>
+      <c r="L118" s="63"/>
+      <c r="M118" s="63"/>
     </row>
     <row r="119" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A119" s="12">
+      <c r="A119" s="13">
         <v>59</v>
       </c>
-      <c r="C119" s="63" t="s">
+      <c r="C119" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="105" t="str">
+      <c r="D119" s="106" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
-      <c r="L119" s="63" t="s">
+      <c r="L119" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="M119" s="65" t="str">
+      <c r="M119" s="66" t="str">
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A120" s="12">
+      <c r="A120" s="13">
         <v>60</v>
       </c>
-      <c r="C120" s="63" t="s">
+      <c r="C120" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D120" s="65" t="str">
+      <c r="D120" s="66" t="str">
         <f>IF($R$14="","",$R$14)</f>
         <v/>
       </c>
-      <c r="L120" s="63" t="s">
+      <c r="L120" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="M120" s="65" t="str">
+      <c r="M120" s="66" t="str">
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A121" s="12"/>
+      <c r="A121" s="13"/>
     </row>
     <row r="122" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A122" s="12"/>
+      <c r="A122" s="13"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A123" s="12"/>
+      <c r="A123" s="13"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A124" s="12"/>
+      <c r="A124" s="13"/>
     </row>
     <row r="125" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A125" s="12"/>
+      <c r="A125" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
     <mergeCell ref="P97:R97"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K77:L77"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
     <mergeCell ref="R84:T84"/>
     <mergeCell ref="U96:V96"/>
     <mergeCell ref="S55:T55"/>

--- a/MUSCBoneDensity.xlsx
+++ b/MUSCBoneDensity.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
   <si>
     <t>Print Area</t>
   </si>
@@ -341,9 +341,6 @@
     <t>Piranha CB2-17090320</t>
   </si>
   <si>
-    <t>Piranha R100B</t>
-  </si>
-  <si>
     <t>Detector entrance dose measurements</t>
   </si>
   <si>
@@ -357,6 +354,18 @@
   </si>
   <si>
     <t>Revision 1.3-20190605</t>
+  </si>
+  <si>
+    <t>Calibration date:</t>
+  </si>
+  <si>
+    <t>Calibration due:</t>
+  </si>
+  <si>
+    <t>Test equipment:</t>
+  </si>
+  <si>
+    <t>R100B</t>
   </si>
 </sst>
 </file>
@@ -367,9 +376,9 @@
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -469,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -924,6 +933,30 @@
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
         <color auto="1"/>
       </right>
       <top/>
@@ -944,7 +977,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1175,7 +1208,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1184,7 +1217,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1205,6 +1238,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1229,31 +1290,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="3"/>
@@ -1262,7 +1334,7 @@
     <cellStyle name="Result" xfId="1"/>
     <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1270,16 +1342,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1669,7 +1731,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="8"/>
       <c r="O1" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
@@ -1836,7 +1898,7 @@
       <c r="O7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="134"/>
+      <c r="P7" s="120"/>
       <c r="Q7" s="31"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
@@ -1876,7 +1938,7 @@
       <c r="O8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="135" t="str">
+      <c r="P8" s="121" t="str">
         <f>IF(AB8="","",AB8)</f>
         <v/>
       </c>
@@ -1894,12 +1956,12 @@
       <c r="AA8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AB8" s="137"/>
+      <c r="AB8" s="123"/>
       <c r="AC8" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD8" s="138" t="str">
+      <c r="AD8" s="124" t="str">
         <f>IF(P7="","",P7)</f>
         <v/>
       </c>
@@ -1961,19 +2023,19 @@
       <c r="E10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="128" t="str">
+      <c r="F10" s="125" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="128"/>
+      <c r="G10" s="125"/>
       <c r="J10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="128" t="str">
+      <c r="K10" s="125" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="128"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="15"/>
       <c r="O10" s="55"/>
       <c r="P10" s="13"/>
@@ -2017,19 +2079,19 @@
       <c r="E11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="131" t="str">
+      <c r="F11" s="126" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="131"/>
+      <c r="G11" s="126"/>
       <c r="J11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="131" t="str">
+      <c r="K11" s="126" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="131"/>
+      <c r="L11" s="126"/>
       <c r="M11" s="15"/>
       <c r="O11" s="55"/>
       <c r="P11" s="13"/>
@@ -2073,19 +2135,19 @@
       <c r="E12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="131" t="str">
+      <c r="F12" s="126" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="131"/>
+      <c r="G12" s="126"/>
       <c r="J12" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="133" t="str">
+      <c r="K12" s="127" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="133"/>
+      <c r="L12" s="127"/>
       <c r="M12" s="15"/>
       <c r="O12" s="55"/>
       <c r="P12" s="13"/>
@@ -2129,14 +2191,14 @@
       <c r="E13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="131" t="str">
+      <c r="F13" s="126" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="131"/>
+      <c r="G13" s="126"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
       <c r="M13" s="15"/>
       <c r="O13" s="55"/>
       <c r="P13" s="13"/>
@@ -2237,19 +2299,19 @@
       <c r="E16" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="128" t="str">
+      <c r="F16" s="125" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="128"/>
+      <c r="G16" s="125"/>
       <c r="J16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="130" t="str">
+      <c r="K16" s="129" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="130"/>
+      <c r="L16" s="129"/>
       <c r="M16" s="15"/>
       <c r="O16" s="55"/>
       <c r="P16" s="62" t="s">
@@ -2285,19 +2347,19 @@
       <c r="E17" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="128" t="str">
+      <c r="F17" s="125" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="128"/>
+      <c r="G17" s="125"/>
       <c r="J17" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="128" t="str">
+      <c r="K17" s="125" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="128"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="15"/>
       <c r="O17" s="55"/>
       <c r="P17" s="13"/>
@@ -2341,19 +2403,19 @@
       <c r="E18" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="128" t="str">
+      <c r="F18" s="125" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="128"/>
+      <c r="G18" s="125"/>
       <c r="J18" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="128" t="str">
+      <c r="K18" s="125" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="128"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="15"/>
       <c r="O18" s="55"/>
       <c r="P18" s="13"/>
@@ -2442,19 +2504,19 @@
       <c r="E21" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="128" t="str">
+      <c r="F21" s="125" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="128"/>
+      <c r="G21" s="125"/>
       <c r="J21" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="128" t="str">
+      <c r="K21" s="125" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="128"/>
+      <c r="L21" s="125"/>
       <c r="M21" s="15"/>
       <c r="O21" s="55"/>
       <c r="P21" s="62" t="s">
@@ -2492,19 +2554,19 @@
       <c r="E22" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="130" t="str">
+      <c r="F22" s="129" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="130"/>
+      <c r="G22" s="129"/>
       <c r="J22" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="128" t="str">
+      <c r="K22" s="125" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="128"/>
+      <c r="L22" s="125"/>
       <c r="M22" s="15"/>
       <c r="O22" s="55"/>
       <c r="P22" s="13"/>
@@ -2551,11 +2613,11 @@
       <c r="J23" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="128" t="str">
+      <c r="K23" s="125" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="128"/>
+      <c r="L23" s="125"/>
       <c r="M23" s="15"/>
       <c r="O23" s="55"/>
       <c r="P23" s="13"/>
@@ -2599,11 +2661,11 @@
       <c r="E24" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="128" t="str">
+      <c r="F24" s="125" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="128"/>
+      <c r="G24" s="125"/>
       <c r="M24" s="15"/>
       <c r="O24" s="55"/>
       <c r="P24" s="62" t="s">
@@ -2644,11 +2706,11 @@
       <c r="E25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="128" t="str">
+      <c r="F25" s="125" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="128"/>
+      <c r="G25" s="125"/>
       <c r="J25" s="61" t="s">
         <v>39</v>
       </c>
@@ -2690,19 +2752,19 @@
       <c r="E26" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="128" t="str">
+      <c r="F26" s="125" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="128"/>
+      <c r="G26" s="125"/>
       <c r="J26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="128" t="str">
+      <c r="K26" s="125" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="128"/>
+      <c r="L26" s="125"/>
       <c r="M26" s="15"/>
       <c r="O26" s="55"/>
       <c r="P26" s="13"/>
@@ -2746,11 +2808,11 @@
       <c r="J27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="128" t="str">
+      <c r="K27" s="125" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="128"/>
+      <c r="L27" s="125"/>
       <c r="M27" s="15"/>
       <c r="O27" s="55"/>
       <c r="P27" s="13"/>
@@ -2787,11 +2849,11 @@
       <c r="E28" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="128" t="str">
+      <c r="F28" s="125" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="128"/>
+      <c r="G28" s="125"/>
       <c r="M28" s="15"/>
       <c r="O28" s="55"/>
       <c r="P28" s="62" t="s">
@@ -2832,11 +2894,11 @@
       <c r="E29" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="128" t="str">
+      <c r="F29" s="125" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="128"/>
+      <c r="G29" s="125"/>
       <c r="M29" s="15"/>
       <c r="O29" s="55"/>
       <c r="P29" s="13"/>
@@ -2875,11 +2937,11 @@
       <c r="E30" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="128" t="str">
+      <c r="F30" s="125" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="128"/>
+      <c r="G30" s="125"/>
       <c r="M30" s="15"/>
       <c r="O30" s="55"/>
       <c r="P30" s="13"/>
@@ -3023,10 +3085,10 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="129" t="s">
+      <c r="L34" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="129"/>
+      <c r="M34" s="130"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -3314,7 +3376,7 @@
         <v>Change</v>
       </c>
       <c r="AD42" s="50" t="str">
-        <f>IF(U92="","",U92)</f>
+        <f>IF(U94="","",U94)</f>
         <v>Piranha CB2-17090320</v>
       </c>
     </row>
@@ -3348,8 +3410,8 @@
         <v>Change</v>
       </c>
       <c r="AD43" s="50" t="str">
-        <f>IF(X93="","",X93)</f>
-        <v>Piranha R100B</v>
+        <f>IF(X95="","",X95)</f>
+        <v>R100B</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="15.75" customHeight="1">
@@ -3550,10 +3612,10 @@
         <v>55</v>
       </c>
       <c r="O55" s="75"/>
-      <c r="S55" s="119" t="s">
+      <c r="S55" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="T55" s="119"/>
+      <c r="T55" s="131"/>
       <c r="Y55" s="76"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
@@ -3651,7 +3713,7 @@
       <c r="C59" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="136" t="str">
+      <c r="D59" s="122" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -3801,10 +3863,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="H64" s="120" t="s">
+      <c r="H64" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="I64" s="121"/>
+      <c r="I64" s="133"/>
       <c r="K64" s="61" t="s">
         <v>67</v>
       </c>
@@ -3898,11 +3960,11 @@
       <c r="Q66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R66" s="119" t="s">
+      <c r="R66" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="S66" s="119"/>
-      <c r="T66" s="119"/>
+      <c r="S66" s="131"/>
+      <c r="T66" s="131"/>
       <c r="U66" s="4" t="s">
         <v>91</v>
       </c>
@@ -4144,11 +4206,11 @@
       <c r="Q72" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R72" s="119" t="s">
+      <c r="R72" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="S72" s="119"/>
-      <c r="T72" s="119"/>
+      <c r="S72" s="131"/>
+      <c r="T72" s="131"/>
       <c r="U72" s="4" t="s">
         <v>91</v>
       </c>
@@ -4314,16 +4376,16 @@
       <c r="G77" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="124" t="s">
+      <c r="I77" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="J77" s="126" t="s">
+      <c r="J77" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="K77" s="122" t="s">
+      <c r="K77" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="L77" s="123"/>
+      <c r="L77" s="135"/>
       <c r="M77" s="15"/>
       <c r="O77" s="75"/>
       <c r="Y77" s="76"/>
@@ -4349,8 +4411,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I78" s="125"/>
-      <c r="J78" s="127"/>
+      <c r="I78" s="137"/>
+      <c r="J78" s="139"/>
       <c r="K78" s="97" t="s">
         <v>97</v>
       </c>
@@ -4368,11 +4430,11 @@
       <c r="Q78" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R78" s="119" t="s">
+      <c r="R78" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="S78" s="119"/>
-      <c r="T78" s="119"/>
+      <c r="S78" s="131"/>
+      <c r="T78" s="131"/>
       <c r="U78" s="4" t="s">
         <v>91</v>
       </c>
@@ -4403,19 +4465,19 @@
         <v/>
       </c>
       <c r="I79" s="97" t="str">
-        <f>IF(O98="","",O98)</f>
+        <f>IF(O100="","",O100)</f>
         <v>High Def</v>
       </c>
       <c r="J79" s="114" t="str">
-        <f>IF(S98="","",S98)</f>
+        <f>IF(S100="","",S100)</f>
         <v/>
       </c>
       <c r="K79" s="114" t="str">
-        <f t="shared" ref="K79:L82" si="7">IF(U98="","",U98)</f>
+        <f>IF(U100="","",U100)</f>
         <v/>
       </c>
       <c r="L79" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(V100="","",V100)</f>
         <v/>
       </c>
       <c r="M79" s="15"/>
@@ -4463,19 +4525,19 @@
         <v/>
       </c>
       <c r="I80" s="97" t="str">
-        <f>IF(O99="","",O99)</f>
+        <f>IF(O101="","",O101)</f>
         <v>Array</v>
       </c>
       <c r="J80" s="114" t="str">
-        <f>IF(S99="","",S99)</f>
+        <f>IF(S101="","",S101)</f>
         <v/>
       </c>
       <c r="K80" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(U101="","",U101)</f>
         <v/>
       </c>
       <c r="L80" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(V101="","",V101)</f>
         <v/>
       </c>
       <c r="M80" s="15"/>
@@ -4523,19 +4585,19 @@
         <v/>
       </c>
       <c r="I81" s="97" t="str">
-        <f>IF(O100="","",O100)</f>
+        <f>IF(O102="","",O102)</f>
         <v>Fast Array</v>
       </c>
       <c r="J81" s="114" t="str">
-        <f>IF(S100="","",S100)</f>
+        <f>IF(S102="","",S102)</f>
         <v/>
       </c>
       <c r="K81" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(U102="","",U102)</f>
         <v/>
       </c>
       <c r="L81" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(V102="","",V102)</f>
         <v/>
       </c>
       <c r="M81" s="15"/>
@@ -4567,19 +4629,19 @@
       </c>
       <c r="B82" s="14"/>
       <c r="I82" s="97" t="str">
-        <f>IF(O101="","",O101)</f>
+        <f>IF(O103="","",O103)</f>
         <v>Turbo</v>
       </c>
       <c r="J82" s="114" t="str">
-        <f>IF(S101="","",S101)</f>
+        <f>IF(S103="","",S103)</f>
         <v/>
       </c>
       <c r="K82" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(U103="","",U103)</f>
         <v/>
       </c>
       <c r="L82" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(V103="","",V103)</f>
         <v/>
       </c>
       <c r="M82" s="15"/>
@@ -4636,22 +4698,35 @@
       </c>
       <c r="B84" s="14"/>
       <c r="D84" s="97" t="str">
-        <f t="shared" ref="D84:E87" si="8">IF(P73="","",P73)</f>
+        <f t="shared" ref="D84:E87" si="7">IF(P73="","",P73)</f>
         <v>Tableside</v>
       </c>
       <c r="E84" s="118" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F84" s="113" t="str">
+        <f t="shared" ref="F84:G87" si="8">IF(U73="","",U73)</f>
+        <v/>
+      </c>
+      <c r="G84" s="114" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F84" s="113" t="str">
-        <f t="shared" ref="F84:G87" si="9">IF(U73="","",U73)</f>
-        <v/>
-      </c>
-      <c r="G84" s="114" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M84" s="15"/>
+      <c r="I84" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="J84" s="146" t="str">
+        <f>IF(U94="","",U94)</f>
+        <v>Piranha CB2-17090320</v>
+      </c>
+      <c r="L84" s="151" t="s">
+        <v>60</v>
+      </c>
+      <c r="M84" s="153" t="str">
+        <f>IF(X94="","",X94)</f>
+        <v>R100B</v>
+      </c>
       <c r="O84" s="93" t="str">
         <f>IF(O60="","",O60)</f>
         <v>Turbo</v>
@@ -4662,11 +4737,11 @@
       <c r="Q84" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R84" s="119" t="s">
+      <c r="R84" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="S84" s="119"/>
-      <c r="T84" s="119"/>
+      <c r="S84" s="131"/>
+      <c r="T84" s="131"/>
       <c r="U84" s="4" t="s">
         <v>91</v>
       </c>
@@ -4681,22 +4756,32 @@
       </c>
       <c r="B85" s="14"/>
       <c r="D85" s="97" t="str">
+        <f t="shared" si="7"/>
+        <v>Operator</v>
+      </c>
+      <c r="E85" s="118" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F85" s="113" t="str">
         <f t="shared" si="8"/>
-        <v>Operator</v>
-      </c>
-      <c r="E85" s="118" t="str">
+        <v/>
+      </c>
+      <c r="G85" s="114" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F85" s="113" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G85" s="114" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M85" s="15"/>
+      <c r="I85" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="J85" s="147"/>
+      <c r="L85" s="151" t="s">
+        <v>109</v>
+      </c>
+      <c r="M85" s="152" t="str">
+        <f>IF(X96="","",X96)</f>
+        <v/>
+      </c>
       <c r="O85" s="75"/>
       <c r="P85" s="92" t="str">
         <f>IF($V$57="","",$V$57)</f>
@@ -4725,22 +4810,35 @@
       </c>
       <c r="B86" s="14"/>
       <c r="D86" s="97" t="str">
+        <f t="shared" si="7"/>
+        <v>Door</v>
+      </c>
+      <c r="E86" s="118" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F86" s="113" t="str">
         <f t="shared" si="8"/>
-        <v>Door</v>
-      </c>
-      <c r="E86" s="118" t="str">
+        <v/>
+      </c>
+      <c r="G86" s="114" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F86" s="113" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G86" s="114" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M86" s="15"/>
+      <c r="I86" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="J86" s="148" t="str">
+        <f>IF(U96="","",U96)</f>
+        <v/>
+      </c>
+      <c r="L86" s="151" t="s">
+        <v>110</v>
+      </c>
+      <c r="M86" s="152" t="str">
+        <f>IF(X97="","",X97)</f>
+        <v/>
+      </c>
       <c r="O86" s="75"/>
       <c r="P86" s="92" t="str">
         <f>IF($V$58="","",$V$58)</f>
@@ -4769,19 +4867,19 @@
       </c>
       <c r="B87" s="14"/>
       <c r="D87" s="97" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E87" s="118" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F87" s="113" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E87" s="118" t="str">
+      <c r="G87" s="114" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F87" s="113" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G87" s="114" t="str">
-        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M87" s="15"/>
@@ -4835,7 +4933,7 @@
       </c>
       <c r="Y88" s="76"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1">
       <c r="A89" s="5">
         <v>29</v>
       </c>
@@ -4857,17 +4955,8 @@
         <v>92</v>
       </c>
       <c r="M89" s="15"/>
-      <c r="O89" s="80"/>
-      <c r="P89" s="81"/>
-      <c r="Q89" s="81"/>
-      <c r="R89" s="81"/>
-      <c r="S89" s="81"/>
-      <c r="T89" s="81"/>
-      <c r="U89" s="81"/>
-      <c r="V89" s="81"/>
-      <c r="W89" s="81"/>
-      <c r="X89" s="81"/>
-      <c r="Y89" s="82"/>
+      <c r="O89" s="75"/>
+      <c r="Y89" s="76"/>
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1">
       <c r="A90" s="5">
@@ -4875,60 +4964,70 @@
       </c>
       <c r="B90" s="14"/>
       <c r="D90" s="97" t="str">
-        <f t="shared" ref="D90:E93" si="10">IF(P79="","",P79)</f>
+        <f t="shared" ref="D90:E93" si="9">IF(P79="","",P79)</f>
         <v>Tableside</v>
       </c>
       <c r="E90" s="118" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F90" s="113" t="str">
+        <f t="shared" ref="F90:G93" si="10">IF(U79="","",U79)</f>
+        <v/>
+      </c>
+      <c r="G90" s="114" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F90" s="113" t="str">
-        <f t="shared" ref="F90:G93" si="11">IF(U79="","",U79)</f>
-        <v/>
-      </c>
-      <c r="G90" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="M90" s="15"/>
-      <c r="O90" s="105"/>
-      <c r="P90" s="84"/>
-      <c r="Q90" s="84"/>
-      <c r="R90" s="84"/>
-      <c r="S90" s="84"/>
-      <c r="T90" s="84"/>
-      <c r="U90" s="84"/>
-      <c r="V90" s="84"/>
-      <c r="W90" s="84"/>
-      <c r="X90" s="84"/>
-      <c r="Y90" s="86"/>
-    </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1">
+      <c r="O90" s="75"/>
+      <c r="P90" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q90" s="140"/>
+      <c r="S90" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="T90" s="142"/>
+      <c r="V90" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="W90" s="142"/>
+      <c r="Y90" s="76"/>
+    </row>
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
       <c r="A91" s="5">
         <v>31</v>
       </c>
       <c r="B91" s="14"/>
       <c r="D91" s="97" t="str">
+        <f t="shared" si="9"/>
+        <v>Operator</v>
+      </c>
+      <c r="E91" s="118" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F91" s="113" t="str">
         <f t="shared" si="10"/>
-        <v>Operator</v>
-      </c>
-      <c r="E91" s="118" t="str">
+        <v/>
+      </c>
+      <c r="G91" s="114" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F91" s="113" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G91" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="M91" s="15"/>
-      <c r="O91" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y91" s="76"/>
+      <c r="O91" s="80"/>
+      <c r="P91" s="81"/>
+      <c r="Q91" s="81"/>
+      <c r="R91" s="81"/>
+      <c r="S91" s="81"/>
+      <c r="T91" s="81"/>
+      <c r="U91" s="81"/>
+      <c r="V91" s="81"/>
+      <c r="W91" s="81"/>
+      <c r="X91" s="81"/>
+      <c r="Y91" s="82"/>
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1">
       <c r="A92" s="5">
@@ -4936,44 +5035,33 @@
       </c>
       <c r="B92" s="14"/>
       <c r="D92" s="97" t="str">
+        <f t="shared" si="9"/>
+        <v>Door</v>
+      </c>
+      <c r="E92" s="118" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F92" s="113" t="str">
         <f t="shared" si="10"/>
-        <v>Door</v>
-      </c>
-      <c r="E92" s="118" t="str">
+        <v/>
+      </c>
+      <c r="G92" s="114" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F92" s="113" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G92" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="M92" s="15"/>
-      <c r="O92" s="77">
-        <v>107</v>
-      </c>
-      <c r="P92" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="T92" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="U92" s="32" t="str">
-        <f>IF(U93&lt;&gt;"",U93,IF(AB42="","",AB42))</f>
-        <v>Piranha CB2-17090320</v>
-      </c>
-      <c r="V92" s="32"/>
-      <c r="W92" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="X92" s="32" t="str">
-        <f>IF(X93&lt;&gt;"",X93,IF(AB43="","",AB43))</f>
-        <v>Piranha R100B</v>
-      </c>
-      <c r="Y92" s="76"/>
+      <c r="O92" s="105"/>
+      <c r="P92" s="84"/>
+      <c r="Q92" s="84"/>
+      <c r="R92" s="84"/>
+      <c r="S92" s="84"/>
+      <c r="T92" s="84"/>
+      <c r="U92" s="84"/>
+      <c r="V92" s="84"/>
+      <c r="W92" s="84"/>
+      <c r="X92" s="84"/>
+      <c r="Y92" s="86"/>
     </row>
     <row r="93" spans="1:25" ht="15.75" customHeight="1">
       <c r="A93" s="5">
@@ -4981,34 +5069,24 @@
       </c>
       <c r="B93" s="14"/>
       <c r="D93" s="97" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E93" s="118" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F93" s="113" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E93" s="118" t="str">
+      <c r="G93" s="114" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F93" s="113" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G93" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="M93" s="15"/>
-      <c r="O93" s="77">
-        <v>42.4</v>
-      </c>
-      <c r="P93" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U93" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="V93" s="33"/>
-      <c r="X93" s="33" t="s">
-        <v>104</v>
+      <c r="O93" s="90" t="s">
+        <v>99</v>
       </c>
       <c r="Y93" s="76"/>
     </row>
@@ -5018,9 +5096,27 @@
       </c>
       <c r="B94" s="14"/>
       <c r="M94" s="15"/>
-      <c r="O94" s="75"/>
-      <c r="T94" s="106"/>
-      <c r="U94" s="106"/>
+      <c r="O94" s="77">
+        <v>107</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T94" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="U94" s="143" t="str">
+        <f>IF(U95&lt;&gt;"",U95,IF(AB42="","",AB42))</f>
+        <v>Piranha CB2-17090320</v>
+      </c>
+      <c r="V94" s="143"/>
+      <c r="W94" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="X94" s="141" t="str">
+        <f>IF(X95&lt;&gt;"",X95,IF(AB43="","",AB43))</f>
+        <v>R100B</v>
+      </c>
       <c r="Y94" s="76"/>
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1">
@@ -5045,11 +5141,19 @@
         <v>92</v>
       </c>
       <c r="M95" s="15"/>
-      <c r="O95" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="T95" s="106"/>
-      <c r="U95" s="106"/>
+      <c r="O95" s="77">
+        <v>42.4</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U95" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="V95" s="144"/>
+      <c r="X95" s="140" t="s">
+        <v>112</v>
+      </c>
       <c r="Y95" s="76"/>
     </row>
     <row r="96" spans="1:25" ht="15.75" customHeight="1">
@@ -5058,34 +5162,31 @@
       </c>
       <c r="B96" s="14"/>
       <c r="D96" s="97" t="str">
-        <f t="shared" ref="D96:E99" si="12">IF(P85="","",P85)</f>
+        <f t="shared" ref="D96:E99" si="11">IF(P85="","",P85)</f>
         <v>Tableside</v>
       </c>
       <c r="E96" s="118" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F96" s="113" t="str">
+        <f t="shared" ref="F96:G99" si="12">IF(U85="","",U85)</f>
+        <v/>
+      </c>
+      <c r="G96" s="114" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="F96" s="113" t="str">
-        <f t="shared" ref="F96:G99" si="13">IF(U85="","",U85)</f>
-        <v/>
-      </c>
-      <c r="G96" s="114" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="M96" s="15"/>
-      <c r="O96" s="107"/>
-      <c r="P96" s="106"/>
-      <c r="Q96" s="106"/>
-      <c r="R96" s="106"/>
-      <c r="S96" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="T96" s="106"/>
-      <c r="U96" s="119" t="s">
-        <v>106</v>
-      </c>
-      <c r="V96" s="119"/>
+      <c r="O96" s="75"/>
+      <c r="T96" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="U96" s="142"/>
+      <c r="W96" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="X96" s="142"/>
       <c r="Y96" s="76"/>
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1">
@@ -5094,42 +5195,33 @@
       </c>
       <c r="B97" s="14"/>
       <c r="D97" s="97" t="str">
+        <f t="shared" si="11"/>
+        <v>Operator</v>
+      </c>
+      <c r="E97" s="118" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F97" s="113" t="str">
         <f t="shared" si="12"/>
-        <v>Operator</v>
-      </c>
-      <c r="E97" s="118" t="str">
+        <v/>
+      </c>
+      <c r="G97" s="114" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="F97" s="113" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G97" s="114" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="M97" s="15"/>
-      <c r="O97" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="P97" s="119" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q97" s="119"/>
-      <c r="R97" s="119"/>
-      <c r="S97" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="T97" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="U97" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="V97" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="O97" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="T97" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="U97" s="142"/>
+      <c r="W97" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="X97" s="142"/>
       <c r="Y97" s="76"/>
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1">
@@ -5138,45 +5230,34 @@
       </c>
       <c r="B98" s="14"/>
       <c r="D98" s="97" t="str">
+        <f t="shared" si="11"/>
+        <v>Door</v>
+      </c>
+      <c r="E98" s="118" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F98" s="113" t="str">
         <f t="shared" si="12"/>
-        <v>Door</v>
-      </c>
-      <c r="E98" s="118" t="str">
+        <v/>
+      </c>
+      <c r="G98" s="114" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="F98" s="113" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G98" s="114" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="M98" s="15"/>
-      <c r="O98" s="109" t="str">
-        <f>IF(O57="","",O57)</f>
-        <v>High Def</v>
-      </c>
-      <c r="P98" s="89"/>
-      <c r="Q98" s="89"/>
-      <c r="R98" s="89"/>
-      <c r="S98" s="110" t="str">
-        <f>IF(P98="","",AVERAGE(P98:R98))</f>
-        <v/>
-      </c>
-      <c r="T98" s="110" t="str">
-        <f>IF(P98="","",STDEV(P98:R98))</f>
-        <v/>
-      </c>
-      <c r="U98" s="95" t="str">
-        <f>IF(S98="","",S98*($O$92/$O$93)^2)</f>
-        <v/>
-      </c>
-      <c r="V98" s="95" t="str">
-        <f>IF(U98="","",U98/R57)</f>
-        <v/>
-      </c>
+      <c r="O98" s="107"/>
+      <c r="P98" s="106"/>
+      <c r="Q98" s="106"/>
+      <c r="R98" s="106"/>
+      <c r="S98" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="T98" s="106"/>
+      <c r="U98" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="V98" s="119"/>
       <c r="Y98" s="76"/>
     </row>
     <row r="99" spans="1:25" ht="15.75" customHeight="1">
@@ -5185,66 +5266,53 @@
       </c>
       <c r="B99" s="14"/>
       <c r="D99" s="97" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E99" s="118" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F99" s="113" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="E99" s="118" t="str">
+      <c r="G99" s="114" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="F99" s="113" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G99" s="114" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="M99" s="15"/>
-      <c r="O99" s="109" t="str">
-        <f>IF(O58="","",O58)</f>
-        <v>Array</v>
-      </c>
-      <c r="P99" s="89"/>
-      <c r="Q99" s="89"/>
-      <c r="R99" s="89"/>
-      <c r="S99" s="110" t="str">
-        <f>IF(P99="","",AVERAGE(P99:R99))</f>
-        <v/>
-      </c>
-      <c r="T99" s="110" t="str">
-        <f>IF(P99="","",STDEV(P99:R99))</f>
-        <v/>
-      </c>
-      <c r="U99" s="95" t="str">
-        <f>IF(S99="","",S99*($O$92/$O$93)^2)</f>
-        <v/>
-      </c>
-      <c r="V99" s="95" t="str">
-        <f>IF(U99="","",U99/R58)</f>
-        <v/>
+      <c r="O99" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="P99" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q99" s="119"/>
+      <c r="R99" s="119"/>
+      <c r="S99" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="T99" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="U99" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V99" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="Y99" s="76"/>
     </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1">
       <c r="A100" s="5">
         <v>40</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="25"/>
-      <c r="L100" s="25"/>
-      <c r="M100" s="26"/>
+      <c r="B100" s="14"/>
+      <c r="M100" s="15"/>
       <c r="O100" s="109" t="str">
-        <f>IF(O59="","",O59)</f>
-        <v>Fast Array</v>
+        <f>IF(O57="","",O57)</f>
+        <v>High Def</v>
       </c>
       <c r="P100" s="89"/>
       <c r="Q100" s="89"/>
@@ -5258,22 +5326,31 @@
         <v/>
       </c>
       <c r="U100" s="95" t="str">
-        <f>IF(S100="","",S100*($O$92/$O$93)^2)</f>
+        <f>IF(S100="","",S100*($O$94/$O$95)^2)</f>
         <v/>
       </c>
       <c r="V100" s="95" t="str">
-        <f>IF(U100="","",U100/R59)</f>
+        <f>IF(U100="","",U100/R57)</f>
         <v/>
       </c>
       <c r="Y100" s="76"/>
     </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" thickTop="1">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1">
       <c r="A101" s="5">
         <v>41</v>
       </c>
+      <c r="B101" s="14"/>
+      <c r="D101" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" s="149" t="str">
+        <f>IF(Q90="","",Q90)</f>
+        <v/>
+      </c>
+      <c r="M101" s="15"/>
       <c r="O101" s="109" t="str">
-        <f>IF(O60="","",O60)</f>
-        <v>Turbo</v>
+        <f>IF(O58="","",O58)</f>
+        <v>Array</v>
       </c>
       <c r="P101" s="89"/>
       <c r="Q101" s="89"/>
@@ -5287,42 +5364,120 @@
         <v/>
       </c>
       <c r="U101" s="95" t="str">
-        <f>IF(S101="","",S101*($O$92/$O$93)^2)</f>
+        <f>IF(S101="","",S101*($O$94/$O$95)^2)</f>
         <v/>
       </c>
       <c r="V101" s="95" t="str">
-        <f>IF(U101="","",U101/R60)</f>
+        <f>IF(U101="","",U101/R58)</f>
         <v/>
       </c>
       <c r="Y101" s="76"/>
     </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="5">
         <v>42</v>
       </c>
-      <c r="O102" s="80"/>
-      <c r="P102" s="81"/>
-      <c r="Q102" s="81"/>
-      <c r="R102" s="81"/>
-      <c r="S102" s="81"/>
-      <c r="T102" s="81"/>
-      <c r="U102" s="81"/>
-      <c r="V102" s="81"/>
-      <c r="W102" s="81"/>
-      <c r="X102" s="81"/>
-      <c r="Y102" s="82"/>
+      <c r="B102" s="14"/>
+      <c r="D102" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="E102" s="150" t="str">
+        <f>IF(T90="","",T90)</f>
+        <v/>
+      </c>
+      <c r="M102" s="15"/>
+      <c r="O102" s="109" t="str">
+        <f>IF(O59="","",O59)</f>
+        <v>Fast Array</v>
+      </c>
+      <c r="P102" s="89"/>
+      <c r="Q102" s="89"/>
+      <c r="R102" s="89"/>
+      <c r="S102" s="110" t="str">
+        <f>IF(P102="","",AVERAGE(P102:R102))</f>
+        <v/>
+      </c>
+      <c r="T102" s="110" t="str">
+        <f>IF(P102="","",STDEV(P102:R102))</f>
+        <v/>
+      </c>
+      <c r="U102" s="95" t="str">
+        <f>IF(S102="","",S102*($O$94/$O$95)^2)</f>
+        <v/>
+      </c>
+      <c r="V102" s="95" t="str">
+        <f>IF(U102="","",U102/R59)</f>
+        <v/>
+      </c>
+      <c r="Y102" s="76"/>
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1">
+      <c r="B103" s="14"/>
+      <c r="D103" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="E103" s="150" t="str">
+        <f>IF(W90="","",W90)</f>
+        <v/>
+      </c>
+      <c r="M103" s="15"/>
+      <c r="O103" s="109" t="str">
+        <f>IF(O60="","",O60)</f>
+        <v>Turbo</v>
+      </c>
+      <c r="P103" s="89"/>
+      <c r="Q103" s="89"/>
+      <c r="R103" s="89"/>
+      <c r="S103" s="110" t="str">
+        <f>IF(P103="","",AVERAGE(P103:R103))</f>
+        <v/>
+      </c>
+      <c r="T103" s="110" t="str">
+        <f>IF(P103="","",STDEV(P103:R103))</f>
+        <v/>
+      </c>
+      <c r="U103" s="95" t="str">
+        <f>IF(S103="","",S103*($O$94/$O$95)^2)</f>
+        <v/>
+      </c>
+      <c r="V103" s="95" t="str">
+        <f>IF(U103="","",U103/R60)</f>
+        <v/>
+      </c>
+      <c r="Y103" s="76"/>
+    </row>
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
       <c r="A104" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1">
+      <c r="B104" s="24"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="26"/>
+      <c r="O104" s="80"/>
+      <c r="P104" s="81"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
+      <c r="S104" s="81"/>
+      <c r="T104" s="81"/>
+      <c r="U104" s="81"/>
+      <c r="V104" s="81"/>
+      <c r="W104" s="81"/>
+      <c r="X104" s="81"/>
+      <c r="Y104" s="82"/>
+    </row>
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" thickTop="1">
       <c r="A105" s="5">
         <v>45</v>
       </c>
@@ -5459,7 +5614,7 @@
       <c r="C119" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="136" t="str">
+      <c r="D119" s="122" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -5507,48 +5662,48 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="R84:T84"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="R72:T72"/>
+    <mergeCell ref="R78:T78"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="U95:V95"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="U96:V96"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="R72:T72"/>
-    <mergeCell ref="R78:T78"/>
-    <mergeCell ref="P97:R97"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="R84:T84"/>
   </mergeCells>
   <conditionalFormatting sqref="L35:L39 L42:L43 L46:L49">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MUSCBoneDensity.xlsx
+++ b/MUSCBoneDensity.xlsx
@@ -977,7 +977,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1245,86 +1245,80 @@
     </xf>
     <xf numFmtId="169" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1701,7 +1695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K100" sqref="K100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2023,19 +2019,19 @@
       <c r="E10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="125" t="str">
+      <c r="F10" s="139" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="125"/>
+      <c r="G10" s="139"/>
       <c r="J10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="125" t="str">
+      <c r="K10" s="139" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="125"/>
+      <c r="L10" s="139"/>
       <c r="M10" s="15"/>
       <c r="O10" s="55"/>
       <c r="P10" s="13"/>
@@ -2079,19 +2075,19 @@
       <c r="E11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="126" t="str">
+      <c r="F11" s="142" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="126"/>
+      <c r="G11" s="142"/>
       <c r="J11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="126" t="str">
+      <c r="K11" s="142" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="126"/>
+      <c r="L11" s="142"/>
       <c r="M11" s="15"/>
       <c r="O11" s="55"/>
       <c r="P11" s="13"/>
@@ -2135,19 +2131,19 @@
       <c r="E12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="126" t="str">
+      <c r="F12" s="142" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="126"/>
+      <c r="G12" s="142"/>
       <c r="J12" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="127" t="str">
+      <c r="K12" s="144" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="127"/>
+      <c r="L12" s="144"/>
       <c r="M12" s="15"/>
       <c r="O12" s="55"/>
       <c r="P12" s="13"/>
@@ -2191,14 +2187,14 @@
       <c r="E13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="126" t="str">
+      <c r="F13" s="142" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="126"/>
+      <c r="G13" s="142"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
       <c r="M13" s="15"/>
       <c r="O13" s="55"/>
       <c r="P13" s="13"/>
@@ -2299,19 +2295,19 @@
       <c r="E16" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="125" t="str">
+      <c r="F16" s="139" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="125"/>
+      <c r="G16" s="139"/>
       <c r="J16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="129" t="str">
+      <c r="K16" s="141" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="129"/>
+      <c r="L16" s="141"/>
       <c r="M16" s="15"/>
       <c r="O16" s="55"/>
       <c r="P16" s="62" t="s">
@@ -2347,19 +2343,19 @@
       <c r="E17" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="125" t="str">
+      <c r="F17" s="139" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="125"/>
+      <c r="G17" s="139"/>
       <c r="J17" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="125" t="str">
+      <c r="K17" s="139" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="125"/>
+      <c r="L17" s="139"/>
       <c r="M17" s="15"/>
       <c r="O17" s="55"/>
       <c r="P17" s="13"/>
@@ -2403,19 +2399,19 @@
       <c r="E18" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="125" t="str">
+      <c r="F18" s="139" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="125"/>
+      <c r="G18" s="139"/>
       <c r="J18" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="125" t="str">
+      <c r="K18" s="139" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="125"/>
+      <c r="L18" s="139"/>
       <c r="M18" s="15"/>
       <c r="O18" s="55"/>
       <c r="P18" s="13"/>
@@ -2504,19 +2500,19 @@
       <c r="E21" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="125" t="str">
+      <c r="F21" s="139" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="125"/>
+      <c r="G21" s="139"/>
       <c r="J21" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="125" t="str">
+      <c r="K21" s="139" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="125"/>
+      <c r="L21" s="139"/>
       <c r="M21" s="15"/>
       <c r="O21" s="55"/>
       <c r="P21" s="62" t="s">
@@ -2554,19 +2550,19 @@
       <c r="E22" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="129" t="str">
+      <c r="F22" s="141" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="129"/>
+      <c r="G22" s="141"/>
       <c r="J22" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="125" t="str">
+      <c r="K22" s="139" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="125"/>
+      <c r="L22" s="139"/>
       <c r="M22" s="15"/>
       <c r="O22" s="55"/>
       <c r="P22" s="13"/>
@@ -2613,11 +2609,11 @@
       <c r="J23" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="125" t="str">
+      <c r="K23" s="139" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="125"/>
+      <c r="L23" s="139"/>
       <c r="M23" s="15"/>
       <c r="O23" s="55"/>
       <c r="P23" s="13"/>
@@ -2661,11 +2657,11 @@
       <c r="E24" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="125" t="str">
+      <c r="F24" s="139" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="125"/>
+      <c r="G24" s="139"/>
       <c r="M24" s="15"/>
       <c r="O24" s="55"/>
       <c r="P24" s="62" t="s">
@@ -2706,11 +2702,11 @@
       <c r="E25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="125" t="str">
+      <c r="F25" s="139" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="125"/>
+      <c r="G25" s="139"/>
       <c r="J25" s="61" t="s">
         <v>39</v>
       </c>
@@ -2752,19 +2748,19 @@
       <c r="E26" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="125" t="str">
+      <c r="F26" s="139" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="125"/>
+      <c r="G26" s="139"/>
       <c r="J26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="125" t="str">
+      <c r="K26" s="139" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="125"/>
+      <c r="L26" s="139"/>
       <c r="M26" s="15"/>
       <c r="O26" s="55"/>
       <c r="P26" s="13"/>
@@ -2808,11 +2804,11 @@
       <c r="J27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="125" t="str">
+      <c r="K27" s="139" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="125"/>
+      <c r="L27" s="139"/>
       <c r="M27" s="15"/>
       <c r="O27" s="55"/>
       <c r="P27" s="13"/>
@@ -2849,11 +2845,11 @@
       <c r="E28" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="125" t="str">
+      <c r="F28" s="139" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="125"/>
+      <c r="G28" s="139"/>
       <c r="M28" s="15"/>
       <c r="O28" s="55"/>
       <c r="P28" s="62" t="s">
@@ -2894,11 +2890,11 @@
       <c r="E29" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="125" t="str">
+      <c r="F29" s="139" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="125"/>
+      <c r="G29" s="139"/>
       <c r="M29" s="15"/>
       <c r="O29" s="55"/>
       <c r="P29" s="13"/>
@@ -2937,11 +2933,11 @@
       <c r="E30" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="125" t="str">
+      <c r="F30" s="139" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="125"/>
+      <c r="G30" s="139"/>
       <c r="M30" s="15"/>
       <c r="O30" s="55"/>
       <c r="P30" s="13"/>
@@ -3085,10 +3081,10 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="130" t="s">
+      <c r="L34" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="130"/>
+      <c r="M34" s="140"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -3612,10 +3608,10 @@
         <v>55</v>
       </c>
       <c r="O55" s="75"/>
-      <c r="S55" s="131" t="s">
+      <c r="S55" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="T55" s="131"/>
+      <c r="T55" s="136"/>
       <c r="Y55" s="76"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
@@ -3863,10 +3859,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="H64" s="132" t="s">
+      <c r="H64" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="I64" s="133"/>
+      <c r="I64" s="129"/>
       <c r="K64" s="61" t="s">
         <v>67</v>
       </c>
@@ -3960,11 +3956,11 @@
       <c r="Q66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R66" s="131" t="s">
+      <c r="R66" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="S66" s="131"/>
-      <c r="T66" s="131"/>
+      <c r="S66" s="136"/>
+      <c r="T66" s="136"/>
       <c r="U66" s="4" t="s">
         <v>91</v>
       </c>
@@ -4206,11 +4202,11 @@
       <c r="Q72" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R72" s="131" t="s">
+      <c r="R72" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="S72" s="131"/>
-      <c r="T72" s="131"/>
+      <c r="S72" s="136"/>
+      <c r="T72" s="136"/>
       <c r="U72" s="4" t="s">
         <v>91</v>
       </c>
@@ -4376,16 +4372,16 @@
       <c r="G77" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="136" t="s">
+      <c r="I77" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="J77" s="138" t="s">
+      <c r="J77" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="K77" s="134" t="s">
+      <c r="K77" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="L77" s="135"/>
+      <c r="L77" s="131"/>
       <c r="M77" s="15"/>
       <c r="O77" s="75"/>
       <c r="Y77" s="76"/>
@@ -4411,8 +4407,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I78" s="137"/>
-      <c r="J78" s="139"/>
+      <c r="I78" s="133"/>
+      <c r="J78" s="135"/>
       <c r="K78" s="97" t="s">
         <v>97</v>
       </c>
@@ -4430,11 +4426,11 @@
       <c r="Q78" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R78" s="131" t="s">
+      <c r="R78" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="S78" s="131"/>
-      <c r="T78" s="131"/>
+      <c r="S78" s="136"/>
+      <c r="T78" s="136"/>
       <c r="U78" s="4" t="s">
         <v>91</v>
       </c>
@@ -4473,11 +4469,11 @@
         <v/>
       </c>
       <c r="K79" s="114" t="str">
-        <f>IF(U100="","",U100)</f>
+        <f t="shared" ref="K79:L82" si="7">IF(U100="","",U100)</f>
         <v/>
       </c>
       <c r="L79" s="114" t="str">
-        <f>IF(V100="","",V100)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M79" s="15"/>
@@ -4533,11 +4529,11 @@
         <v/>
       </c>
       <c r="K80" s="114" t="str">
-        <f>IF(U101="","",U101)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L80" s="114" t="str">
-        <f>IF(V101="","",V101)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M80" s="15"/>
@@ -4593,11 +4589,11 @@
         <v/>
       </c>
       <c r="K81" s="114" t="str">
-        <f>IF(U102="","",U102)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L81" s="114" t="str">
-        <f>IF(V102="","",V102)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M81" s="15"/>
@@ -4637,11 +4633,11 @@
         <v/>
       </c>
       <c r="K82" s="114" t="str">
-        <f>IF(U103="","",U103)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L82" s="114" t="str">
-        <f>IF(V103="","",V103)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M82" s="15"/>
@@ -4698,32 +4694,32 @@
       </c>
       <c r="B84" s="14"/>
       <c r="D84" s="97" t="str">
-        <f t="shared" ref="D84:E87" si="7">IF(P73="","",P73)</f>
+        <f t="shared" ref="D84:E87" si="8">IF(P73="","",P73)</f>
         <v>Tableside</v>
       </c>
       <c r="E84" s="118" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F84" s="113" t="str">
-        <f t="shared" ref="F84:G87" si="8">IF(U73="","",U73)</f>
+        <f t="shared" ref="F84:G87" si="9">IF(U73="","",U73)</f>
         <v/>
       </c>
       <c r="G84" s="114" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I84" s="145" t="s">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I84" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="J84" s="146" t="str">
+      <c r="J84" s="145" t="str">
         <f>IF(U94="","",U94)</f>
         <v>Piranha CB2-17090320</v>
       </c>
-      <c r="L84" s="151" t="s">
+      <c r="L84" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="M84" s="153" t="str">
+      <c r="M84" s="148" t="str">
         <f>IF(X94="","",X94)</f>
         <v>R100B</v>
       </c>
@@ -4737,11 +4733,11 @@
       <c r="Q84" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R84" s="131" t="s">
+      <c r="R84" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="S84" s="131"/>
-      <c r="T84" s="131"/>
+      <c r="S84" s="136"/>
+      <c r="T84" s="136"/>
       <c r="U84" s="4" t="s">
         <v>91</v>
       </c>
@@ -4756,29 +4752,32 @@
       </c>
       <c r="B85" s="14"/>
       <c r="D85" s="97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Operator</v>
       </c>
       <c r="E85" s="118" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F85" s="113" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G85" s="114" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I85" s="145" t="s">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I85" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="J85" s="147"/>
-      <c r="L85" s="151" t="s">
+      <c r="J85" s="146" t="str">
+        <f>IF(U96="","",U96)</f>
+        <v/>
+      </c>
+      <c r="L85" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="M85" s="152" t="str">
+      <c r="M85" s="149" t="str">
         <f>IF(X96="","",X96)</f>
         <v/>
       </c>
@@ -4810,32 +4809,32 @@
       </c>
       <c r="B86" s="14"/>
       <c r="D86" s="97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Door</v>
       </c>
       <c r="E86" s="118" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F86" s="113" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G86" s="114" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I86" s="145" t="s">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I86" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="J86" s="148" t="str">
-        <f>IF(U96="","",U96)</f>
-        <v/>
-      </c>
-      <c r="L86" s="151" t="s">
+      <c r="J86" s="146" t="str">
+        <f>IF(U97="","",U97)</f>
+        <v/>
+      </c>
+      <c r="L86" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="M86" s="152" t="str">
+      <c r="M86" s="149" t="str">
         <f>IF(X97="","",X97)</f>
         <v/>
       </c>
@@ -4867,19 +4866,19 @@
       </c>
       <c r="B87" s="14"/>
       <c r="D87" s="97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E87" s="118" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F87" s="113" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G87" s="114" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M87" s="15"/>
@@ -4964,19 +4963,19 @@
       </c>
       <c r="B90" s="14"/>
       <c r="D90" s="97" t="str">
-        <f t="shared" ref="D90:E93" si="9">IF(P79="","",P79)</f>
+        <f t="shared" ref="D90:E93" si="10">IF(P79="","",P79)</f>
         <v>Tableside</v>
       </c>
       <c r="E90" s="118" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F90" s="113" t="str">
-        <f t="shared" ref="F90:G93" si="10">IF(U79="","",U79)</f>
+        <f t="shared" ref="F90:G93" si="11">IF(U79="","",U79)</f>
         <v/>
       </c>
       <c r="G90" s="114" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M90" s="15"/>
@@ -4984,15 +4983,15 @@
       <c r="P90" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="Q90" s="140"/>
+      <c r="Q90" s="125"/>
       <c r="S90" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="T90" s="142"/>
+      <c r="T90" s="127"/>
       <c r="V90" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="W90" s="142"/>
+      <c r="W90" s="127"/>
       <c r="Y90" s="76"/>
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
@@ -5001,19 +5000,19 @@
       </c>
       <c r="B91" s="14"/>
       <c r="D91" s="97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Operator</v>
       </c>
       <c r="E91" s="118" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F91" s="113" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G91" s="114" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M91" s="15"/>
@@ -5035,19 +5034,19 @@
       </c>
       <c r="B92" s="14"/>
       <c r="D92" s="97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Door</v>
       </c>
       <c r="E92" s="118" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F92" s="113" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G92" s="114" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M92" s="15"/>
@@ -5069,19 +5068,19 @@
       </c>
       <c r="B93" s="14"/>
       <c r="D93" s="97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E93" s="118" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F93" s="113" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G93" s="114" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M93" s="15"/>
@@ -5105,15 +5104,15 @@
       <c r="T94" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U94" s="143" t="str">
+      <c r="U94" s="137" t="str">
         <f>IF(U95&lt;&gt;"",U95,IF(AB42="","",AB42))</f>
         <v>Piranha CB2-17090320</v>
       </c>
-      <c r="V94" s="143"/>
+      <c r="V94" s="137"/>
       <c r="W94" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="X94" s="141" t="str">
+      <c r="X94" s="126" t="str">
         <f>IF(X95&lt;&gt;"",X95,IF(AB43="","",AB43))</f>
         <v>R100B</v>
       </c>
@@ -5147,11 +5146,11 @@
       <c r="P95" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="U95" s="144" t="s">
+      <c r="U95" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="V95" s="144"/>
-      <c r="X95" s="140" t="s">
+      <c r="V95" s="138"/>
+      <c r="X95" s="125" t="s">
         <v>112</v>
       </c>
       <c r="Y95" s="76"/>
@@ -5162,19 +5161,19 @@
       </c>
       <c r="B96" s="14"/>
       <c r="D96" s="97" t="str">
-        <f t="shared" ref="D96:E99" si="11">IF(P85="","",P85)</f>
+        <f t="shared" ref="D96:E99" si="12">IF(P85="","",P85)</f>
         <v>Tableside</v>
       </c>
       <c r="E96" s="118" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F96" s="113" t="str">
-        <f t="shared" ref="F96:G99" si="12">IF(U85="","",U85)</f>
+        <f t="shared" ref="F96:G99" si="13">IF(U85="","",U85)</f>
         <v/>
       </c>
       <c r="G96" s="114" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M96" s="15"/>
@@ -5182,11 +5181,11 @@
       <c r="T96" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="U96" s="142"/>
+      <c r="U96" s="127"/>
       <c r="W96" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X96" s="142"/>
+      <c r="X96" s="127"/>
       <c r="Y96" s="76"/>
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1">
@@ -5195,19 +5194,19 @@
       </c>
       <c r="B97" s="14"/>
       <c r="D97" s="97" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Operator</v>
       </c>
       <c r="E97" s="118" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F97" s="113" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G97" s="114" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M97" s="15"/>
@@ -5217,11 +5216,11 @@
       <c r="T97" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="U97" s="142"/>
+      <c r="U97" s="127"/>
       <c r="W97" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="X97" s="142"/>
+      <c r="X97" s="127"/>
       <c r="Y97" s="76"/>
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1">
@@ -5230,19 +5229,19 @@
       </c>
       <c r="B98" s="14"/>
       <c r="D98" s="97" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Door</v>
       </c>
       <c r="E98" s="118" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F98" s="113" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G98" s="114" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M98" s="15"/>
@@ -5266,19 +5265,19 @@
       </c>
       <c r="B99" s="14"/>
       <c r="D99" s="97" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E99" s="118" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F99" s="113" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G99" s="114" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M99" s="15"/>
@@ -5340,10 +5339,10 @@
         <v>41</v>
       </c>
       <c r="B101" s="14"/>
-      <c r="D101" s="145" t="s">
+      <c r="D101" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="E101" s="149" t="str">
+      <c r="E101" s="150" t="str">
         <f>IF(Q90="","",Q90)</f>
         <v/>
       </c>
@@ -5378,10 +5377,10 @@
         <v>42</v>
       </c>
       <c r="B102" s="14"/>
-      <c r="D102" s="145" t="s">
+      <c r="D102" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="E102" s="150" t="str">
+      <c r="E102" s="151" t="str">
         <f>IF(T90="","",T90)</f>
         <v/>
       </c>
@@ -5416,10 +5415,10 @@
         <v>43</v>
       </c>
       <c r="B103" s="14"/>
-      <c r="D103" s="145" t="s">
+      <c r="D103" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E103" s="150" t="str">
+      <c r="E103" s="151" t="str">
         <f>IF(W90="","",W90)</f>
         <v/>
       </c>
@@ -5662,45 +5661,45 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="R84:T84"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="R72:T72"/>
-    <mergeCell ref="R78:T78"/>
-    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="U95:V95"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="L34:M34"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="R72:T72"/>
+    <mergeCell ref="R78:T78"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="R84:T84"/>
   </mergeCells>
   <conditionalFormatting sqref="L35:L39 L42:L43 L46:L49">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">

--- a/MUSCBoneDensity.xlsx
+++ b/MUSCBoneDensity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maheug\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A477F6DE-8019-4151-B70A-841B4DD085C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,8 +18,13 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$M$120</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="114">
   <si>
     <t>Print Area</t>
   </si>
@@ -366,12 +372,15 @@
   </si>
   <si>
     <t>R100B</t>
+  </si>
+  <si>
+    <t>Unit installed as shown on shielding plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
@@ -478,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -961,6 +970,19 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -977,7 +999,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1248,6 +1270,54 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1272,63 +1342,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Heading" xfId="3"/>
-    <cellStyle name="Heading1" xfId="4"/>
+    <cellStyle name="Heading" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading1" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Result" xfId="1"/>
-    <cellStyle name="Result2" xfId="2"/>
+    <cellStyle name="Result" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Result2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1692,22 +1730,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K100" sqref="K100"/>
+    <sheetView tabSelected="1" topLeftCell="C32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="2" customWidth="1"/>
-    <col min="3" max="13" width="11.5703125" style="2"/>
-    <col min="14" max="14" width="2.5703125" style="3" customWidth="1"/>
-    <col min="15" max="28" width="11.5703125" style="3"/>
-    <col min="29" max="29" width="11.5703125" style="4"/>
-    <col min="30" max="30" width="11.5703125" style="3"/>
+    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5546875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="11.5546875" style="2"/>
+    <col min="14" max="14" width="2.5546875" style="3" customWidth="1"/>
+    <col min="15" max="28" width="11.5546875" style="3"/>
+    <col min="29" max="29" width="11.5546875" style="4"/>
+    <col min="30" max="30" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1">
@@ -2019,19 +2057,19 @@
       <c r="E10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="139" t="str">
+      <c r="F10" s="135" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="139"/>
+      <c r="G10" s="135"/>
       <c r="J10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="139" t="str">
+      <c r="K10" s="135" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="139"/>
+      <c r="L10" s="135"/>
       <c r="M10" s="15"/>
       <c r="O10" s="55"/>
       <c r="P10" s="13"/>
@@ -2075,19 +2113,19 @@
       <c r="E11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="142" t="str">
+      <c r="F11" s="136" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="142"/>
+      <c r="G11" s="136"/>
       <c r="J11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="142" t="str">
+      <c r="K11" s="136" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="142"/>
+      <c r="L11" s="136"/>
       <c r="M11" s="15"/>
       <c r="O11" s="55"/>
       <c r="P11" s="13"/>
@@ -2131,19 +2169,19 @@
       <c r="E12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="142" t="str">
+      <c r="F12" s="136" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="142"/>
+      <c r="G12" s="136"/>
       <c r="J12" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="144" t="str">
+      <c r="K12" s="137" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="144"/>
+      <c r="L12" s="137"/>
       <c r="M12" s="15"/>
       <c r="O12" s="55"/>
       <c r="P12" s="13"/>
@@ -2187,14 +2225,14 @@
       <c r="E13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="142" t="str">
+      <c r="F13" s="136" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="142"/>
+      <c r="G13" s="136"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
       <c r="M13" s="15"/>
       <c r="O13" s="55"/>
       <c r="P13" s="13"/>
@@ -2295,19 +2333,19 @@
       <c r="E16" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="139" t="str">
+      <c r="F16" s="135" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="139"/>
+      <c r="G16" s="135"/>
       <c r="J16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="141" t="str">
+      <c r="K16" s="139" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="141"/>
+      <c r="L16" s="139"/>
       <c r="M16" s="15"/>
       <c r="O16" s="55"/>
       <c r="P16" s="62" t="s">
@@ -2343,19 +2381,19 @@
       <c r="E17" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="139" t="str">
+      <c r="F17" s="135" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="139"/>
+      <c r="G17" s="135"/>
       <c r="J17" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="139" t="str">
+      <c r="K17" s="135" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="139"/>
+      <c r="L17" s="135"/>
       <c r="M17" s="15"/>
       <c r="O17" s="55"/>
       <c r="P17" s="13"/>
@@ -2399,19 +2437,19 @@
       <c r="E18" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="139" t="str">
+      <c r="F18" s="135" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="139"/>
+      <c r="G18" s="135"/>
       <c r="J18" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="139" t="str">
+      <c r="K18" s="135" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="139"/>
+      <c r="L18" s="135"/>
       <c r="M18" s="15"/>
       <c r="O18" s="55"/>
       <c r="P18" s="13"/>
@@ -2500,19 +2538,19 @@
       <c r="E21" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="139" t="str">
+      <c r="F21" s="135" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="139"/>
+      <c r="G21" s="135"/>
       <c r="J21" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="139" t="str">
+      <c r="K21" s="135" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="139"/>
+      <c r="L21" s="135"/>
       <c r="M21" s="15"/>
       <c r="O21" s="55"/>
       <c r="P21" s="62" t="s">
@@ -2550,19 +2588,19 @@
       <c r="E22" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="141" t="str">
+      <c r="F22" s="139" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="141"/>
+      <c r="G22" s="139"/>
       <c r="J22" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="139" t="str">
+      <c r="K22" s="135" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="139"/>
+      <c r="L22" s="135"/>
       <c r="M22" s="15"/>
       <c r="O22" s="55"/>
       <c r="P22" s="13"/>
@@ -2609,11 +2647,11 @@
       <c r="J23" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="139" t="str">
+      <c r="K23" s="135" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="139"/>
+      <c r="L23" s="135"/>
       <c r="M23" s="15"/>
       <c r="O23" s="55"/>
       <c r="P23" s="13"/>
@@ -2657,11 +2695,11 @@
       <c r="E24" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="139" t="str">
+      <c r="F24" s="135" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="139"/>
+      <c r="G24" s="135"/>
       <c r="M24" s="15"/>
       <c r="O24" s="55"/>
       <c r="P24" s="62" t="s">
@@ -2702,11 +2740,11 @@
       <c r="E25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="139" t="str">
+      <c r="F25" s="135" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="139"/>
+      <c r="G25" s="135"/>
       <c r="J25" s="61" t="s">
         <v>39</v>
       </c>
@@ -2748,19 +2786,19 @@
       <c r="E26" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="139" t="str">
+      <c r="F26" s="135" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="139"/>
+      <c r="G26" s="135"/>
       <c r="J26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="139" t="str">
+      <c r="K26" s="135" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="139"/>
+      <c r="L26" s="135"/>
       <c r="M26" s="15"/>
       <c r="O26" s="55"/>
       <c r="P26" s="13"/>
@@ -2804,11 +2842,11 @@
       <c r="J27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="139" t="str">
+      <c r="K27" s="135" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="139"/>
+      <c r="L27" s="135"/>
       <c r="M27" s="15"/>
       <c r="O27" s="55"/>
       <c r="P27" s="13"/>
@@ -2845,11 +2883,11 @@
       <c r="E28" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="139" t="str">
+      <c r="F28" s="135" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="139"/>
+      <c r="G28" s="135"/>
       <c r="M28" s="15"/>
       <c r="O28" s="55"/>
       <c r="P28" s="62" t="s">
@@ -2890,11 +2928,11 @@
       <c r="E29" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="139" t="str">
+      <c r="F29" s="135" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="139"/>
+      <c r="G29" s="135"/>
       <c r="M29" s="15"/>
       <c r="O29" s="55"/>
       <c r="P29" s="13"/>
@@ -2933,11 +2971,11 @@
       <c r="E30" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="139" t="str">
+      <c r="F30" s="135" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="139"/>
+      <c r="G30" s="135"/>
       <c r="M30" s="15"/>
       <c r="O30" s="55"/>
       <c r="P30" s="13"/>
@@ -3081,10 +3119,10 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="140" t="s">
+      <c r="L34" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="140"/>
+      <c r="M34" s="141"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -3529,21 +3567,26 @@
       </c>
       <c r="Y49" s="76"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="5">
         <v>50</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="E50" s="25" t="s">
+        <v>113</v>
+      </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
+      <c r="L50" s="153" t="str">
+        <f>IF(O52="","TBD",IF(O52=1,"YES",IF(O52=3,"NA","")))</f>
+        <v>NA</v>
+      </c>
       <c r="M50" s="26"/>
       <c r="O50" s="77"/>
       <c r="P50" s="23" t="s">
@@ -3551,7 +3594,7 @@
       </c>
       <c r="Y50" s="76"/>
     </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" thickTop="1">
       <c r="A51" s="5">
         <v>51</v>
       </c>
@@ -3561,13 +3604,17 @@
       </c>
       <c r="Y51" s="76"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="5">
         <v>52</v>
       </c>
       <c r="H52" s="37"/>
-      <c r="O52" s="80"/>
-      <c r="P52" s="81"/>
+      <c r="O52" s="152">
+        <v>3</v>
+      </c>
+      <c r="P52" s="81" t="s">
+        <v>113</v>
+      </c>
       <c r="Q52" s="81"/>
       <c r="R52" s="81"/>
       <c r="S52" s="81"/>
@@ -3578,7 +3625,7 @@
       <c r="X52" s="81"/>
       <c r="Y52" s="82"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
       <c r="A53" s="5">
         <v>53</v>
       </c>
@@ -3608,10 +3655,10 @@
         <v>55</v>
       </c>
       <c r="O55" s="75"/>
-      <c r="S55" s="136" t="s">
+      <c r="S55" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="T55" s="136"/>
+      <c r="T55" s="142"/>
       <c r="Y55" s="76"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
@@ -3859,10 +3906,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="H64" s="128" t="s">
+      <c r="H64" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="I64" s="129"/>
+      <c r="I64" s="145"/>
       <c r="K64" s="61" t="s">
         <v>67</v>
       </c>
@@ -3956,11 +4003,11 @@
       <c r="Q66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R66" s="136" t="s">
+      <c r="R66" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="S66" s="136"/>
-      <c r="T66" s="136"/>
+      <c r="S66" s="142"/>
+      <c r="T66" s="142"/>
       <c r="U66" s="4" t="s">
         <v>91</v>
       </c>
@@ -4202,11 +4249,11 @@
       <c r="Q72" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R72" s="136" t="s">
+      <c r="R72" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="S72" s="136"/>
-      <c r="T72" s="136"/>
+      <c r="S72" s="142"/>
+      <c r="T72" s="142"/>
       <c r="U72" s="4" t="s">
         <v>91</v>
       </c>
@@ -4372,16 +4419,16 @@
       <c r="G77" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="132" t="s">
+      <c r="I77" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="J77" s="134" t="s">
+      <c r="J77" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="K77" s="130" t="s">
+      <c r="K77" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="L77" s="131"/>
+      <c r="L77" s="147"/>
       <c r="M77" s="15"/>
       <c r="O77" s="75"/>
       <c r="Y77" s="76"/>
@@ -4407,8 +4454,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I78" s="133"/>
-      <c r="J78" s="135"/>
+      <c r="I78" s="149"/>
+      <c r="J78" s="151"/>
       <c r="K78" s="97" t="s">
         <v>97</v>
       </c>
@@ -4426,11 +4473,11 @@
       <c r="Q78" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R78" s="136" t="s">
+      <c r="R78" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="S78" s="136"/>
-      <c r="T78" s="136"/>
+      <c r="S78" s="142"/>
+      <c r="T78" s="142"/>
       <c r="U78" s="4" t="s">
         <v>91</v>
       </c>
@@ -4712,14 +4759,14 @@
       <c r="I84" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="J84" s="145" t="str">
+      <c r="J84" s="128" t="str">
         <f>IF(U94="","",U94)</f>
         <v>Piranha CB2-17090320</v>
       </c>
-      <c r="L84" s="147" t="s">
+      <c r="L84" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="M84" s="148" t="str">
+      <c r="M84" s="131" t="str">
         <f>IF(X94="","",X94)</f>
         <v>R100B</v>
       </c>
@@ -4733,11 +4780,11 @@
       <c r="Q84" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R84" s="136" t="s">
+      <c r="R84" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="S84" s="136"/>
-      <c r="T84" s="136"/>
+      <c r="S84" s="142"/>
+      <c r="T84" s="142"/>
       <c r="U84" s="4" t="s">
         <v>91</v>
       </c>
@@ -4770,14 +4817,14 @@
       <c r="I85" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="J85" s="146" t="str">
+      <c r="J85" s="129" t="str">
         <f>IF(U96="","",U96)</f>
         <v/>
       </c>
-      <c r="L85" s="147" t="s">
+      <c r="L85" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="M85" s="149" t="str">
+      <c r="M85" s="132" t="str">
         <f>IF(X96="","",X96)</f>
         <v/>
       </c>
@@ -4827,14 +4874,14 @@
       <c r="I86" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="J86" s="146" t="str">
+      <c r="J86" s="129" t="str">
         <f>IF(U97="","",U97)</f>
         <v/>
       </c>
-      <c r="L86" s="147" t="s">
+      <c r="L86" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="M86" s="149" t="str">
+      <c r="M86" s="132" t="str">
         <f>IF(X97="","",X97)</f>
         <v/>
       </c>
@@ -5104,11 +5151,11 @@
       <c r="T94" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U94" s="137" t="str">
+      <c r="U94" s="143" t="str">
         <f>IF(U95&lt;&gt;"",U95,IF(AB42="","",AB42))</f>
         <v>Piranha CB2-17090320</v>
       </c>
-      <c r="V94" s="137"/>
+      <c r="V94" s="143"/>
       <c r="W94" s="22" t="s">
         <v>60</v>
       </c>
@@ -5146,10 +5193,10 @@
       <c r="P95" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="U95" s="138" t="s">
+      <c r="U95" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="V95" s="138"/>
+      <c r="V95" s="140"/>
       <c r="X95" s="125" t="s">
         <v>112</v>
       </c>
@@ -5342,7 +5389,7 @@
       <c r="D101" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="E101" s="150" t="str">
+      <c r="E101" s="133" t="str">
         <f>IF(Q90="","",Q90)</f>
         <v/>
       </c>
@@ -5380,7 +5427,7 @@
       <c r="D102" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="E102" s="151" t="str">
+      <c r="E102" s="134" t="str">
         <f>IF(T90="","",T90)</f>
         <v/>
       </c>
@@ -5418,7 +5465,7 @@
       <c r="D103" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E103" s="151" t="str">
+      <c r="E103" s="134" t="str">
         <f>IF(W90="","",W90)</f>
         <v/>
       </c>
@@ -5661,29 +5708,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K26:L26"/>
     <mergeCell ref="U95:V95"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="F28:G28"/>
@@ -5700,15 +5724,43 @@
     <mergeCell ref="I77:I78"/>
     <mergeCell ref="J77:J78"/>
     <mergeCell ref="R84:T84"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <conditionalFormatting sqref="L35:L39 L42:L43 L46:L49">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:M39 M42:M43 M46:M49">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"NO"</formula>
+      <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.5" right="0.5" top="0.59861111111111098" bottom="0.73750000000000004" header="0.5" footer="0.5"/>

--- a/MUSCBoneDensity.xlsx
+++ b/MUSCBoneDensity.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maheug\Documents\GitHub\EquipTestingSpreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A477F6DE-8019-4151-B70A-841B4DD085C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$M$120</definedName>
+    <definedName name="Z_FCFD580C_7BEB_4F5F_B2A6_4586EBD853CD_.wvu.PrintArea" localSheetId="0" hidden="1">Sheet1!$B$1:$M$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Eugene Mah - Personal View" guid="{FCFD580C-7BEB-4F5F-B2A6-4586EBD853CD}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" tabRatio="500" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -380,7 +383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
@@ -1291,70 +1294,70 @@
     <xf numFmtId="169" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Heading" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Heading1" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Heading" xfId="3"/>
+    <cellStyle name="Heading1" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Result" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Result2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Result" xfId="1"/>
+    <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1466,6 +1469,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{365164B5-DA74-46DD-9CB4-F2E36D7F5BF5}">
+  <header guid="{365164B5-DA74-46DD-9CB4-F2E36D7F5BF5}" dateTime="2020-06-03T09:43:54" maxSheetId="2" userName="Eugene Mah" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1730,22 +1751,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5546875" style="2" customWidth="1"/>
-    <col min="3" max="13" width="11.5546875" style="2"/>
-    <col min="14" max="14" width="2.5546875" style="3" customWidth="1"/>
-    <col min="15" max="28" width="11.5546875" style="3"/>
-    <col min="29" max="29" width="11.5546875" style="4"/>
-    <col min="30" max="30" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="2" customWidth="1"/>
+    <col min="3" max="13" width="11.5703125" style="2"/>
+    <col min="14" max="14" width="2.5703125" style="3" customWidth="1"/>
+    <col min="15" max="28" width="11.5703125" style="3"/>
+    <col min="29" max="29" width="11.5703125" style="4"/>
+    <col min="30" max="30" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1">
@@ -2057,19 +2076,19 @@
       <c r="E10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="135" t="str">
+      <c r="F10" s="138" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="135"/>
+      <c r="G10" s="138"/>
       <c r="J10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="135" t="str">
+      <c r="K10" s="138" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="135"/>
+      <c r="L10" s="138"/>
       <c r="M10" s="15"/>
       <c r="O10" s="55"/>
       <c r="P10" s="13"/>
@@ -2113,19 +2132,19 @@
       <c r="E11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="136" t="str">
+      <c r="F11" s="151" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="136"/>
+      <c r="G11" s="151"/>
       <c r="J11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="136" t="str">
+      <c r="K11" s="151" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="136"/>
+      <c r="L11" s="151"/>
       <c r="M11" s="15"/>
       <c r="O11" s="55"/>
       <c r="P11" s="13"/>
@@ -2169,19 +2188,19 @@
       <c r="E12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="136" t="str">
+      <c r="F12" s="151" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="136"/>
+      <c r="G12" s="151"/>
       <c r="J12" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="137" t="str">
+      <c r="K12" s="153" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="137"/>
+      <c r="L12" s="153"/>
       <c r="M12" s="15"/>
       <c r="O12" s="55"/>
       <c r="P12" s="13"/>
@@ -2225,14 +2244,14 @@
       <c r="E13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="136" t="str">
+      <c r="F13" s="151" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="136"/>
+      <c r="G13" s="151"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
       <c r="M13" s="15"/>
       <c r="O13" s="55"/>
       <c r="P13" s="13"/>
@@ -2333,19 +2352,19 @@
       <c r="E16" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="135" t="str">
+      <c r="F16" s="138" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="135"/>
+      <c r="G16" s="138"/>
       <c r="J16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="139" t="str">
+      <c r="K16" s="150" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="139"/>
+      <c r="L16" s="150"/>
       <c r="M16" s="15"/>
       <c r="O16" s="55"/>
       <c r="P16" s="62" t="s">
@@ -2381,19 +2400,19 @@
       <c r="E17" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="135" t="str">
+      <c r="F17" s="138" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="135"/>
+      <c r="G17" s="138"/>
       <c r="J17" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="135" t="str">
+      <c r="K17" s="138" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="135"/>
+      <c r="L17" s="138"/>
       <c r="M17" s="15"/>
       <c r="O17" s="55"/>
       <c r="P17" s="13"/>
@@ -2437,19 +2456,19 @@
       <c r="E18" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="135" t="str">
+      <c r="F18" s="138" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="135"/>
+      <c r="G18" s="138"/>
       <c r="J18" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="135" t="str">
+      <c r="K18" s="138" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="135"/>
+      <c r="L18" s="138"/>
       <c r="M18" s="15"/>
       <c r="O18" s="55"/>
       <c r="P18" s="13"/>
@@ -2538,19 +2557,19 @@
       <c r="E21" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="135" t="str">
+      <c r="F21" s="138" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="135"/>
+      <c r="G21" s="138"/>
       <c r="J21" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="135" t="str">
+      <c r="K21" s="138" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="135"/>
+      <c r="L21" s="138"/>
       <c r="M21" s="15"/>
       <c r="O21" s="55"/>
       <c r="P21" s="62" t="s">
@@ -2588,19 +2607,19 @@
       <c r="E22" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="139" t="str">
+      <c r="F22" s="150" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="139"/>
+      <c r="G22" s="150"/>
       <c r="J22" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="135" t="str">
+      <c r="K22" s="138" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="135"/>
+      <c r="L22" s="138"/>
       <c r="M22" s="15"/>
       <c r="O22" s="55"/>
       <c r="P22" s="13"/>
@@ -2647,11 +2666,11 @@
       <c r="J23" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="135" t="str">
+      <c r="K23" s="138" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="135"/>
+      <c r="L23" s="138"/>
       <c r="M23" s="15"/>
       <c r="O23" s="55"/>
       <c r="P23" s="13"/>
@@ -2695,11 +2714,11 @@
       <c r="E24" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="135" t="str">
+      <c r="F24" s="138" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="135"/>
+      <c r="G24" s="138"/>
       <c r="M24" s="15"/>
       <c r="O24" s="55"/>
       <c r="P24" s="62" t="s">
@@ -2740,11 +2759,11 @@
       <c r="E25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="135" t="str">
+      <c r="F25" s="138" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="135"/>
+      <c r="G25" s="138"/>
       <c r="J25" s="61" t="s">
         <v>39</v>
       </c>
@@ -2786,19 +2805,19 @@
       <c r="E26" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="135" t="str">
+      <c r="F26" s="138" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="135"/>
+      <c r="G26" s="138"/>
       <c r="J26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="135" t="str">
+      <c r="K26" s="138" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="135"/>
+      <c r="L26" s="138"/>
       <c r="M26" s="15"/>
       <c r="O26" s="55"/>
       <c r="P26" s="13"/>
@@ -2842,11 +2861,11 @@
       <c r="J27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="135" t="str">
+      <c r="K27" s="138" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="135"/>
+      <c r="L27" s="138"/>
       <c r="M27" s="15"/>
       <c r="O27" s="55"/>
       <c r="P27" s="13"/>
@@ -2883,11 +2902,11 @@
       <c r="E28" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="135" t="str">
+      <c r="F28" s="138" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="135"/>
+      <c r="G28" s="138"/>
       <c r="M28" s="15"/>
       <c r="O28" s="55"/>
       <c r="P28" s="62" t="s">
@@ -2928,11 +2947,11 @@
       <c r="E29" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="135" t="str">
+      <c r="F29" s="138" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="135"/>
+      <c r="G29" s="138"/>
       <c r="M29" s="15"/>
       <c r="O29" s="55"/>
       <c r="P29" s="13"/>
@@ -2971,11 +2990,11 @@
       <c r="E30" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="135" t="str">
+      <c r="F30" s="138" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="135"/>
+      <c r="G30" s="138"/>
       <c r="M30" s="15"/>
       <c r="O30" s="55"/>
       <c r="P30" s="13"/>
@@ -3119,10 +3138,10 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="141" t="s">
+      <c r="L34" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="141"/>
+      <c r="M34" s="139"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -3583,7 +3602,7 @@
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="136" t="str">
         <f>IF(O52="","TBD",IF(O52=1,"YES",IF(O52=3,"NA","")))</f>
         <v>NA</v>
       </c>
@@ -3609,7 +3628,7 @@
         <v>52</v>
       </c>
       <c r="H52" s="37"/>
-      <c r="O52" s="152">
+      <c r="O52" s="135">
         <v>3</v>
       </c>
       <c r="P52" s="81" t="s">
@@ -3655,10 +3674,10 @@
         <v>55</v>
       </c>
       <c r="O55" s="75"/>
-      <c r="S55" s="142" t="s">
+      <c r="S55" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="T55" s="142"/>
+      <c r="T55" s="140"/>
       <c r="Y55" s="76"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
@@ -3906,10 +3925,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="H64" s="144" t="s">
+      <c r="H64" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="I64" s="145"/>
+      <c r="I64" s="143"/>
       <c r="K64" s="61" t="s">
         <v>67</v>
       </c>
@@ -4003,11 +4022,11 @@
       <c r="Q66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R66" s="142" t="s">
+      <c r="R66" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="S66" s="142"/>
-      <c r="T66" s="142"/>
+      <c r="S66" s="140"/>
+      <c r="T66" s="140"/>
       <c r="U66" s="4" t="s">
         <v>91</v>
       </c>
@@ -4249,11 +4268,11 @@
       <c r="Q72" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R72" s="142" t="s">
+      <c r="R72" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="S72" s="142"/>
-      <c r="T72" s="142"/>
+      <c r="S72" s="140"/>
+      <c r="T72" s="140"/>
       <c r="U72" s="4" t="s">
         <v>91</v>
       </c>
@@ -4419,16 +4438,16 @@
       <c r="G77" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="148" t="s">
+      <c r="I77" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="J77" s="150" t="s">
+      <c r="J77" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="K77" s="146" t="s">
+      <c r="K77" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="L77" s="147"/>
+      <c r="L77" s="145"/>
       <c r="M77" s="15"/>
       <c r="O77" s="75"/>
       <c r="Y77" s="76"/>
@@ -4454,8 +4473,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I78" s="149"/>
-      <c r="J78" s="151"/>
+      <c r="I78" s="147"/>
+      <c r="J78" s="149"/>
       <c r="K78" s="97" t="s">
         <v>97</v>
       </c>
@@ -4473,11 +4492,11 @@
       <c r="Q78" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R78" s="142" t="s">
+      <c r="R78" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="S78" s="142"/>
-      <c r="T78" s="142"/>
+      <c r="S78" s="140"/>
+      <c r="T78" s="140"/>
       <c r="U78" s="4" t="s">
         <v>91</v>
       </c>
@@ -4780,11 +4799,11 @@
       <c r="Q84" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R84" s="142" t="s">
+      <c r="R84" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="S84" s="142"/>
-      <c r="T84" s="142"/>
+      <c r="S84" s="140"/>
+      <c r="T84" s="140"/>
       <c r="U84" s="4" t="s">
         <v>91</v>
       </c>
@@ -5151,11 +5170,11 @@
       <c r="T94" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U94" s="143" t="str">
+      <c r="U94" s="141" t="str">
         <f>IF(U95&lt;&gt;"",U95,IF(AB42="","",AB42))</f>
         <v>Piranha CB2-17090320</v>
       </c>
-      <c r="V94" s="143"/>
+      <c r="V94" s="141"/>
       <c r="W94" s="22" t="s">
         <v>60</v>
       </c>
@@ -5193,10 +5212,10 @@
       <c r="P95" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="U95" s="140" t="s">
+      <c r="U95" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="V95" s="140"/>
+      <c r="V95" s="137"/>
       <c r="X95" s="125" t="s">
         <v>112</v>
       </c>
@@ -5707,7 +5726,39 @@
       <c r="A125" s="5"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{FCFD580C-7BEB-4F5F-B2A6-4586EBD853CD}">
+      <pageMargins left="0.5" right="0.5" top="0.59861111111111098" bottom="0.73750000000000004" header="0.5" footer="0.5"/>
+      <pageSetup scale="75" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+      <headerFooter>
+        <oddFooter>&amp;CPage &amp;P</oddFooter>
+      </headerFooter>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="39">
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="U95:V95"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="F28:G28"/>
@@ -5724,29 +5775,6 @@
     <mergeCell ref="I77:I78"/>
     <mergeCell ref="J77:J78"/>
     <mergeCell ref="R84:T84"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <conditionalFormatting sqref="L35:L39 L42:L43 L46:L49">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -5764,7 +5792,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.5" right="0.5" top="0.59861111111111098" bottom="0.73750000000000004" header="0.5" footer="0.5"/>
-  <pageSetup scale="75" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="75" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/MUSCBoneDensity.xlsx
+++ b/MUSCBoneDensity.xlsx
@@ -1300,12 +1300,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1338,18 +1350,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1469,24 +1469,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{365164B5-DA74-46DD-9CB4-F2E36D7F5BF5}">
-  <header guid="{365164B5-DA74-46DD-9CB4-F2E36D7F5BF5}" dateTime="2020-06-03T09:43:54" maxSheetId="2" userName="Eugene Mah" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2076,19 +2058,19 @@
       <c r="E10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="138" t="str">
+      <c r="F10" s="137" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="138"/>
+      <c r="G10" s="137"/>
       <c r="J10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="138" t="str">
+      <c r="K10" s="137" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="138"/>
+      <c r="L10" s="137"/>
       <c r="M10" s="15"/>
       <c r="O10" s="55"/>
       <c r="P10" s="13"/>
@@ -2132,19 +2114,19 @@
       <c r="E11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="151" t="str">
+      <c r="F11" s="138" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="151"/>
+      <c r="G11" s="138"/>
       <c r="J11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="151" t="str">
+      <c r="K11" s="138" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="151"/>
+      <c r="L11" s="138"/>
       <c r="M11" s="15"/>
       <c r="O11" s="55"/>
       <c r="P11" s="13"/>
@@ -2188,19 +2170,19 @@
       <c r="E12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="151" t="str">
+      <c r="F12" s="138" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="151"/>
+      <c r="G12" s="138"/>
       <c r="J12" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="153" t="str">
+      <c r="K12" s="139" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="153"/>
+      <c r="L12" s="139"/>
       <c r="M12" s="15"/>
       <c r="O12" s="55"/>
       <c r="P12" s="13"/>
@@ -2244,14 +2226,14 @@
       <c r="E13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="151" t="str">
+      <c r="F13" s="138" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="151"/>
+      <c r="G13" s="138"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
       <c r="M13" s="15"/>
       <c r="O13" s="55"/>
       <c r="P13" s="13"/>
@@ -2352,19 +2334,19 @@
       <c r="E16" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="138" t="str">
+      <c r="F16" s="137" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="138"/>
+      <c r="G16" s="137"/>
       <c r="J16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="150" t="str">
+      <c r="K16" s="141" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="150"/>
+      <c r="L16" s="141"/>
       <c r="M16" s="15"/>
       <c r="O16" s="55"/>
       <c r="P16" s="62" t="s">
@@ -2400,19 +2382,19 @@
       <c r="E17" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="138" t="str">
+      <c r="F17" s="137" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="138"/>
+      <c r="G17" s="137"/>
       <c r="J17" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="138" t="str">
+      <c r="K17" s="137" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="138"/>
+      <c r="L17" s="137"/>
       <c r="M17" s="15"/>
       <c r="O17" s="55"/>
       <c r="P17" s="13"/>
@@ -2456,19 +2438,19 @@
       <c r="E18" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="138" t="str">
+      <c r="F18" s="137" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="138"/>
+      <c r="G18" s="137"/>
       <c r="J18" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="138" t="str">
+      <c r="K18" s="137" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="138"/>
+      <c r="L18" s="137"/>
       <c r="M18" s="15"/>
       <c r="O18" s="55"/>
       <c r="P18" s="13"/>
@@ -2557,19 +2539,19 @@
       <c r="E21" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="138" t="str">
+      <c r="F21" s="137" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="138"/>
+      <c r="G21" s="137"/>
       <c r="J21" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="138" t="str">
+      <c r="K21" s="137" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="138"/>
+      <c r="L21" s="137"/>
       <c r="M21" s="15"/>
       <c r="O21" s="55"/>
       <c r="P21" s="62" t="s">
@@ -2607,19 +2589,19 @@
       <c r="E22" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="150" t="str">
+      <c r="F22" s="141" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="150"/>
+      <c r="G22" s="141"/>
       <c r="J22" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="138" t="str">
+      <c r="K22" s="137" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="138"/>
+      <c r="L22" s="137"/>
       <c r="M22" s="15"/>
       <c r="O22" s="55"/>
       <c r="P22" s="13"/>
@@ -2666,11 +2648,11 @@
       <c r="J23" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="138" t="str">
+      <c r="K23" s="137" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="138"/>
+      <c r="L23" s="137"/>
       <c r="M23" s="15"/>
       <c r="O23" s="55"/>
       <c r="P23" s="13"/>
@@ -2714,11 +2696,11 @@
       <c r="E24" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="138" t="str">
+      <c r="F24" s="137" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="138"/>
+      <c r="G24" s="137"/>
       <c r="M24" s="15"/>
       <c r="O24" s="55"/>
       <c r="P24" s="62" t="s">
@@ -2759,11 +2741,11 @@
       <c r="E25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="138" t="str">
+      <c r="F25" s="137" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="138"/>
+      <c r="G25" s="137"/>
       <c r="J25" s="61" t="s">
         <v>39</v>
       </c>
@@ -2805,19 +2787,19 @@
       <c r="E26" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="138" t="str">
+      <c r="F26" s="137" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="138"/>
+      <c r="G26" s="137"/>
       <c r="J26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="138" t="str">
+      <c r="K26" s="137" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="138"/>
+      <c r="L26" s="137"/>
       <c r="M26" s="15"/>
       <c r="O26" s="55"/>
       <c r="P26" s="13"/>
@@ -2861,11 +2843,11 @@
       <c r="J27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="138" t="str">
+      <c r="K27" s="137" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="138"/>
+      <c r="L27" s="137"/>
       <c r="M27" s="15"/>
       <c r="O27" s="55"/>
       <c r="P27" s="13"/>
@@ -2902,11 +2884,11 @@
       <c r="E28" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="138" t="str">
+      <c r="F28" s="137" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="138"/>
+      <c r="G28" s="137"/>
       <c r="M28" s="15"/>
       <c r="O28" s="55"/>
       <c r="P28" s="62" t="s">
@@ -2947,11 +2929,11 @@
       <c r="E29" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="138" t="str">
+      <c r="F29" s="137" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="138"/>
+      <c r="G29" s="137"/>
       <c r="M29" s="15"/>
       <c r="O29" s="55"/>
       <c r="P29" s="13"/>
@@ -2990,11 +2972,11 @@
       <c r="E30" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="138" t="str">
+      <c r="F30" s="137" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="138"/>
+      <c r="G30" s="137"/>
       <c r="M30" s="15"/>
       <c r="O30" s="55"/>
       <c r="P30" s="13"/>
@@ -3138,10 +3120,10 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="139" t="s">
+      <c r="L34" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="139"/>
+      <c r="M34" s="143"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -3674,10 +3656,10 @@
         <v>55</v>
       </c>
       <c r="O55" s="75"/>
-      <c r="S55" s="140" t="s">
+      <c r="S55" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="T55" s="140"/>
+      <c r="T55" s="144"/>
       <c r="Y55" s="76"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
@@ -3925,10 +3907,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="H64" s="142" t="s">
+      <c r="H64" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="I64" s="143"/>
+      <c r="I64" s="147"/>
       <c r="K64" s="61" t="s">
         <v>67</v>
       </c>
@@ -4022,11 +4004,11 @@
       <c r="Q66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R66" s="140" t="s">
+      <c r="R66" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="S66" s="140"/>
-      <c r="T66" s="140"/>
+      <c r="S66" s="144"/>
+      <c r="T66" s="144"/>
       <c r="U66" s="4" t="s">
         <v>91</v>
       </c>
@@ -4268,11 +4250,11 @@
       <c r="Q72" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R72" s="140" t="s">
+      <c r="R72" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="S72" s="140"/>
-      <c r="T72" s="140"/>
+      <c r="S72" s="144"/>
+      <c r="T72" s="144"/>
       <c r="U72" s="4" t="s">
         <v>91</v>
       </c>
@@ -4438,16 +4420,16 @@
       <c r="G77" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="146" t="s">
+      <c r="I77" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="J77" s="148" t="s">
+      <c r="J77" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="K77" s="144" t="s">
+      <c r="K77" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="L77" s="145"/>
+      <c r="L77" s="149"/>
       <c r="M77" s="15"/>
       <c r="O77" s="75"/>
       <c r="Y77" s="76"/>
@@ -4473,8 +4455,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I78" s="147"/>
-      <c r="J78" s="149"/>
+      <c r="I78" s="151"/>
+      <c r="J78" s="153"/>
       <c r="K78" s="97" t="s">
         <v>97</v>
       </c>
@@ -4492,11 +4474,11 @@
       <c r="Q78" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R78" s="140" t="s">
+      <c r="R78" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="S78" s="140"/>
-      <c r="T78" s="140"/>
+      <c r="S78" s="144"/>
+      <c r="T78" s="144"/>
       <c r="U78" s="4" t="s">
         <v>91</v>
       </c>
@@ -4799,11 +4781,11 @@
       <c r="Q84" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R84" s="140" t="s">
+      <c r="R84" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="S84" s="140"/>
-      <c r="T84" s="140"/>
+      <c r="S84" s="144"/>
+      <c r="T84" s="144"/>
       <c r="U84" s="4" t="s">
         <v>91</v>
       </c>
@@ -5170,11 +5152,11 @@
       <c r="T94" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U94" s="141" t="str">
+      <c r="U94" s="145" t="str">
         <f>IF(U95&lt;&gt;"",U95,IF(AB42="","",AB42))</f>
         <v>Piranha CB2-17090320</v>
       </c>
-      <c r="V94" s="141"/>
+      <c r="V94" s="145"/>
       <c r="W94" s="22" t="s">
         <v>60</v>
       </c>
@@ -5212,10 +5194,10 @@
       <c r="P95" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="U95" s="137" t="s">
+      <c r="U95" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="V95" s="137"/>
+      <c r="V95" s="142"/>
       <c r="X95" s="125" t="s">
         <v>112</v>
       </c>
@@ -5736,29 +5718,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="39">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K26:L26"/>
     <mergeCell ref="U95:V95"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="F28:G28"/>
@@ -5775,6 +5734,29 @@
     <mergeCell ref="I77:I78"/>
     <mergeCell ref="J77:J78"/>
     <mergeCell ref="R84:T84"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <conditionalFormatting sqref="L35:L39 L42:L43 L46:L49">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">

--- a/MUSCBoneDensity.xlsx
+++ b/MUSCBoneDensity.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$M$120</definedName>
     <definedName name="Z_FCFD580C_7BEB_4F5F_B2A6_4586EBD853CD_.wvu.PrintArea" localSheetId="0" hidden="1">Sheet1!$B$1:$M$120</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
     <customWorkbookView name="Eugene Mah - Personal View" guid="{FCFD580C-7BEB-4F5F-B2A6-4586EBD853CD}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
@@ -191,9 +191,6 @@
     <t>DHEC RHB 10.2.1</t>
   </si>
   <si>
-    <t>DHEC form SC-RAH-20 “Notice to Employees” posted or referenced</t>
-  </si>
-  <si>
     <t>DHEC RHB 4.3.1</t>
   </si>
   <si>
@@ -378,6 +375,9 @@
   </si>
   <si>
     <t>Unit installed as shown on shielding plan</t>
+  </si>
+  <si>
+    <t>DHEC form SC-RHA-20 “Notice to Employees” posted or referenced</t>
   </si>
 </sst>
 </file>
@@ -1300,56 +1300,56 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1736,7 +1736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1766,7 +1768,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="8"/>
       <c r="O1" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
@@ -2058,19 +2060,19 @@
       <c r="E10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="137" t="str">
+      <c r="F10" s="138" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="137"/>
+      <c r="G10" s="138"/>
       <c r="J10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="137" t="str">
+      <c r="K10" s="138" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="137"/>
+      <c r="L10" s="138"/>
       <c r="M10" s="15"/>
       <c r="O10" s="55"/>
       <c r="P10" s="13"/>
@@ -2114,19 +2116,19 @@
       <c r="E11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="138" t="str">
+      <c r="F11" s="151" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="138"/>
+      <c r="G11" s="151"/>
       <c r="J11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="138" t="str">
+      <c r="K11" s="151" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="138"/>
+      <c r="L11" s="151"/>
       <c r="M11" s="15"/>
       <c r="O11" s="55"/>
       <c r="P11" s="13"/>
@@ -2170,19 +2172,19 @@
       <c r="E12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="138" t="str">
+      <c r="F12" s="151" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="138"/>
+      <c r="G12" s="151"/>
       <c r="J12" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="139" t="str">
+      <c r="K12" s="153" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="139"/>
+      <c r="L12" s="153"/>
       <c r="M12" s="15"/>
       <c r="O12" s="55"/>
       <c r="P12" s="13"/>
@@ -2226,14 +2228,14 @@
       <c r="E13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="138" t="str">
+      <c r="F13" s="151" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="138"/>
+      <c r="G13" s="151"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
       <c r="M13" s="15"/>
       <c r="O13" s="55"/>
       <c r="P13" s="13"/>
@@ -2334,19 +2336,19 @@
       <c r="E16" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="137" t="str">
+      <c r="F16" s="138" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="137"/>
+      <c r="G16" s="138"/>
       <c r="J16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="141" t="str">
+      <c r="K16" s="150" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="141"/>
+      <c r="L16" s="150"/>
       <c r="M16" s="15"/>
       <c r="O16" s="55"/>
       <c r="P16" s="62" t="s">
@@ -2382,19 +2384,19 @@
       <c r="E17" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="137" t="str">
+      <c r="F17" s="138" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="137"/>
+      <c r="G17" s="138"/>
       <c r="J17" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="137" t="str">
+      <c r="K17" s="138" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="137"/>
+      <c r="L17" s="138"/>
       <c r="M17" s="15"/>
       <c r="O17" s="55"/>
       <c r="P17" s="13"/>
@@ -2438,19 +2440,19 @@
       <c r="E18" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="137" t="str">
+      <c r="F18" s="138" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="137"/>
+      <c r="G18" s="138"/>
       <c r="J18" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="137" t="str">
+      <c r="K18" s="138" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="137"/>
+      <c r="L18" s="138"/>
       <c r="M18" s="15"/>
       <c r="O18" s="55"/>
       <c r="P18" s="13"/>
@@ -2539,19 +2541,19 @@
       <c r="E21" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="137" t="str">
+      <c r="F21" s="138" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="137"/>
+      <c r="G21" s="138"/>
       <c r="J21" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="137" t="str">
+      <c r="K21" s="138" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="137"/>
+      <c r="L21" s="138"/>
       <c r="M21" s="15"/>
       <c r="O21" s="55"/>
       <c r="P21" s="62" t="s">
@@ -2589,19 +2591,19 @@
       <c r="E22" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="141" t="str">
+      <c r="F22" s="150" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="141"/>
+      <c r="G22" s="150"/>
       <c r="J22" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="137" t="str">
+      <c r="K22" s="138" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="137"/>
+      <c r="L22" s="138"/>
       <c r="M22" s="15"/>
       <c r="O22" s="55"/>
       <c r="P22" s="13"/>
@@ -2648,11 +2650,11 @@
       <c r="J23" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="137" t="str">
+      <c r="K23" s="138" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="137"/>
+      <c r="L23" s="138"/>
       <c r="M23" s="15"/>
       <c r="O23" s="55"/>
       <c r="P23" s="13"/>
@@ -2696,11 +2698,11 @@
       <c r="E24" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="137" t="str">
+      <c r="F24" s="138" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="137"/>
+      <c r="G24" s="138"/>
       <c r="M24" s="15"/>
       <c r="O24" s="55"/>
       <c r="P24" s="62" t="s">
@@ -2741,11 +2743,11 @@
       <c r="E25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="137" t="str">
+      <c r="F25" s="138" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="137"/>
+      <c r="G25" s="138"/>
       <c r="J25" s="61" t="s">
         <v>39</v>
       </c>
@@ -2787,19 +2789,19 @@
       <c r="E26" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="137" t="str">
+      <c r="F26" s="138" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="137"/>
+      <c r="G26" s="138"/>
       <c r="J26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="137" t="str">
+      <c r="K26" s="138" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="137"/>
+      <c r="L26" s="138"/>
       <c r="M26" s="15"/>
       <c r="O26" s="55"/>
       <c r="P26" s="13"/>
@@ -2843,11 +2845,11 @@
       <c r="J27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="137" t="str">
+      <c r="K27" s="138" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="137"/>
+      <c r="L27" s="138"/>
       <c r="M27" s="15"/>
       <c r="O27" s="55"/>
       <c r="P27" s="13"/>
@@ -2884,11 +2886,11 @@
       <c r="E28" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="137" t="str">
+      <c r="F28" s="138" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="137"/>
+      <c r="G28" s="138"/>
       <c r="M28" s="15"/>
       <c r="O28" s="55"/>
       <c r="P28" s="62" t="s">
@@ -2929,11 +2931,11 @@
       <c r="E29" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="137" t="str">
+      <c r="F29" s="138" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="137"/>
+      <c r="G29" s="138"/>
       <c r="M29" s="15"/>
       <c r="O29" s="55"/>
       <c r="P29" s="13"/>
@@ -2972,11 +2974,11 @@
       <c r="E30" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="137" t="str">
+      <c r="F30" s="138" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="137"/>
+      <c r="G30" s="138"/>
       <c r="M30" s="15"/>
       <c r="O30" s="55"/>
       <c r="P30" s="13"/>
@@ -3120,10 +3122,10 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="143" t="s">
+      <c r="L34" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="143"/>
+      <c r="M34" s="139"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -3204,7 +3206,7 @@
         <v>50</v>
       </c>
       <c r="E36" s="72" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="L36" s="73" t="str">
         <f>IF(O38="","TBD",IF(O38=1,"YES",IF(O38=3,"NA","")))</f>
@@ -3238,10 +3240,10 @@
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="72" t="s">
         <v>52</v>
-      </c>
-      <c r="E37" s="72" t="s">
-        <v>53</v>
       </c>
       <c r="L37" s="73" t="str">
         <f>IF(O39="","TBD",IF(O39=1,"YES",IF(O39=3,"NA","")))</f>
@@ -3276,7 +3278,7 @@
       <c r="B38" s="14"/>
       <c r="C38" s="71"/>
       <c r="E38" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L38" s="73" t="str">
         <f>IF(O40="","TBD",IF(O40=1,"YES",IF(O40=3,"NA","")))</f>
@@ -3288,7 +3290,7 @@
       </c>
       <c r="O38" s="77"/>
       <c r="P38" s="23" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="Y38" s="76"/>
       <c r="AA38" s="22" t="s">
@@ -3311,7 +3313,7 @@
       <c r="B39" s="14"/>
       <c r="C39" s="71"/>
       <c r="E39" s="72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L39" s="73" t="str">
         <f>IF(O41="","TBD",IF(O41=1,"YES",IF(O41=3,"NA","")))</f>
@@ -3323,7 +3325,7 @@
       </c>
       <c r="O39" s="77"/>
       <c r="P39" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y39" s="76"/>
       <c r="AA39" s="22" t="s">
@@ -3350,7 +3352,7 @@
       <c r="M40" s="78"/>
       <c r="O40" s="77"/>
       <c r="P40" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y40" s="76"/>
       <c r="AA40" s="22" t="s">
@@ -3373,13 +3375,13 @@
       <c r="B41" s="14"/>
       <c r="C41" s="71"/>
       <c r="F41" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L41" s="21"/>
       <c r="M41" s="79"/>
       <c r="O41" s="77"/>
       <c r="P41" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y41" s="76"/>
     </row>
@@ -3390,7 +3392,7 @@
       <c r="B42" s="14"/>
       <c r="C42" s="71"/>
       <c r="E42" s="72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L42" s="73" t="str">
         <f>IF(O44="","TBD",IF(O44=1,"YES",IF(O44=3,"NA","")))</f>
@@ -3403,7 +3405,7 @@
       <c r="O42" s="75"/>
       <c r="Y42" s="76"/>
       <c r="AA42" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB42" s="49"/>
       <c r="AC42" s="35" t="str">
@@ -3421,7 +3423,7 @@
       </c>
       <c r="B43" s="14"/>
       <c r="E43" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L43" s="73" t="str">
         <f>IF(O45="","TBD",IF(O45=1,"YES",IF(O45=3,"NA","")))</f>
@@ -3433,11 +3435,11 @@
       </c>
       <c r="O43" s="75"/>
       <c r="T43" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y43" s="76"/>
       <c r="AA43" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB43" s="49"/>
       <c r="AC43" s="35" t="str">
@@ -3458,7 +3460,7 @@
       <c r="M44" s="79"/>
       <c r="O44" s="77"/>
       <c r="P44" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y44" s="76"/>
     </row>
@@ -3469,13 +3471,13 @@
       <c r="B45" s="14"/>
       <c r="C45" s="51"/>
       <c r="F45" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L45" s="21"/>
       <c r="M45" s="79"/>
       <c r="O45" s="77"/>
       <c r="P45" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y45" s="76"/>
     </row>
@@ -3486,7 +3488,7 @@
       <c r="B46" s="14"/>
       <c r="C46" s="51"/>
       <c r="E46" s="72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L46" s="73" t="str">
         <f>IF(O48="","TBD",IF(O48=1,"YES",IF(O48=3,"NA","")))</f>
@@ -3506,7 +3508,7 @@
       <c r="B47" s="14"/>
       <c r="C47" s="51"/>
       <c r="E47" s="72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L47" s="73" t="str">
         <f>IF(O49="","TBD",IF(O49=1,"YES",IF(O49=3,"NA","")))</f>
@@ -3518,7 +3520,7 @@
       </c>
       <c r="O47" s="75"/>
       <c r="T47" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y47" s="76"/>
     </row>
@@ -3529,7 +3531,7 @@
       <c r="B48" s="14"/>
       <c r="C48" s="51"/>
       <c r="E48" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L48" s="73" t="str">
         <f>IF(O50="","TBD",IF(O50=1,"YES",IF(O50=3,"NA","")))</f>
@@ -3541,7 +3543,7 @@
       </c>
       <c r="O48" s="77"/>
       <c r="P48" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y48" s="76"/>
     </row>
@@ -3552,7 +3554,7 @@
       <c r="B49" s="14"/>
       <c r="C49" s="51"/>
       <c r="E49" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L49" s="73" t="str">
         <f>IF(O51="","TBD",IF(O51=1,"YES",IF(O51=3,"NA","")))</f>
@@ -3564,7 +3566,7 @@
       </c>
       <c r="O49" s="77"/>
       <c r="P49" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y49" s="76"/>
     </row>
@@ -3576,7 +3578,7 @@
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
       <c r="E50" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
@@ -3591,7 +3593,7 @@
       <c r="M50" s="26"/>
       <c r="O50" s="77"/>
       <c r="P50" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y50" s="76"/>
     </row>
@@ -3601,7 +3603,7 @@
       </c>
       <c r="O51" s="77"/>
       <c r="P51" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y51" s="76"/>
     </row>
@@ -3614,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="P52" s="81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q52" s="81"/>
       <c r="R52" s="81"/>
@@ -3636,7 +3638,7 @@
         <v>54</v>
       </c>
       <c r="O54" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P54" s="84"/>
       <c r="Q54" s="84"/>
@@ -3645,7 +3647,7 @@
       <c r="T54" s="84"/>
       <c r="U54" s="84"/>
       <c r="V54" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W54" s="84"/>
       <c r="X54" s="84"/>
@@ -3656,10 +3658,10 @@
         <v>55</v>
       </c>
       <c r="O55" s="75"/>
-      <c r="S55" s="144" t="s">
-        <v>68</v>
-      </c>
-      <c r="T55" s="144"/>
+      <c r="S55" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="T55" s="140"/>
       <c r="Y55" s="76"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
@@ -3667,28 +3669,28 @@
         <v>56</v>
       </c>
       <c r="O56" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="P56" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P56" s="4" t="s">
+      <c r="Q56" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q56" s="4" t="s">
+      <c r="R56" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R56" s="4" t="s">
+      <c r="S56" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S56" s="4" t="s">
+      <c r="T56" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="T56" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="V56" s="4" t="s">
         <v>14</v>
       </c>
       <c r="W56" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y56" s="76"/>
     </row>
@@ -3697,10 +3699,10 @@
         <v>57</v>
       </c>
       <c r="O57" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="P57" s="89" t="s">
         <v>76</v>
-      </c>
-      <c r="P57" s="89" t="s">
-        <v>77</v>
       </c>
       <c r="Q57" s="89">
         <v>2.5</v>
@@ -3717,7 +3719,7 @@
         <v>20.32</v>
       </c>
       <c r="V57" s="89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W57" s="89"/>
       <c r="Y57" s="76"/>
@@ -3727,10 +3729,10 @@
         <v>58</v>
       </c>
       <c r="O58" s="88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P58" s="89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q58" s="89">
         <v>2.5</v>
@@ -3745,7 +3747,7 @@
         <v>20.32</v>
       </c>
       <c r="V58" s="89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W58" s="89"/>
       <c r="Y58" s="76"/>
@@ -3769,10 +3771,10 @@
         <v>Eugene Mah</v>
       </c>
       <c r="O59" s="88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P59" s="89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q59" s="89">
         <v>2.5</v>
@@ -3789,7 +3791,7 @@
         <v>20.32</v>
       </c>
       <c r="V59" s="89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W59" s="89"/>
       <c r="Y59" s="76"/>
@@ -3799,7 +3801,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D60" s="53" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -3813,10 +3815,10 @@
         <v/>
       </c>
       <c r="O60" s="88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P60" s="89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q60" s="89">
         <v>2.5</v>
@@ -3859,7 +3861,7 @@
         <v>Bone Mineral Density Compliance Inspection</v>
       </c>
       <c r="O62" s="90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y62" s="76"/>
     </row>
@@ -3869,7 +3871,7 @@
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -3882,19 +3884,19 @@
       <c r="L63" s="7"/>
       <c r="M63" s="8"/>
       <c r="O63" s="91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P63" s="89">
         <v>82</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R63" s="89"/>
       <c r="S63" s="89"/>
       <c r="T63" s="89"/>
       <c r="V63" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W63" s="92" t="str">
         <f>IF(R63="","",AVERAGE(R63:T63))</f>
@@ -3907,12 +3909,12 @@
         <v>4</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="H64" s="146" t="s">
-        <v>93</v>
-      </c>
-      <c r="I64" s="147"/>
+      <c r="H64" s="142" t="s">
+        <v>92</v>
+      </c>
+      <c r="I64" s="143"/>
       <c r="K64" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M64" s="15"/>
       <c r="O64" s="75"/>
@@ -3924,35 +3926,35 @@
       </c>
       <c r="B65" s="14"/>
       <c r="D65" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="97" t="s">
+      <c r="F65" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="F65" s="97" t="s">
+      <c r="G65" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="G65" s="97" t="s">
+      <c r="H65" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="H65" s="98" t="s">
+      <c r="I65" s="99" t="s">
         <v>73</v>
-      </c>
-      <c r="I65" s="99" t="s">
-        <v>74</v>
       </c>
       <c r="K65" s="97" t="s">
         <v>14</v>
       </c>
       <c r="L65" s="111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M65" s="15"/>
       <c r="O65" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="U65" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="U65" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="Y65" s="76"/>
     </row>
@@ -4002,18 +4004,18 @@
         <v>14</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R66" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="R66" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="S66" s="140"/>
+      <c r="T66" s="140"/>
+      <c r="U66" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V66" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="S66" s="144"/>
-      <c r="T66" s="144"/>
-      <c r="U66" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="V66" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="Y66" s="76"/>
     </row>
@@ -4248,18 +4250,18 @@
         <v>14</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R72" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="R72" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="S72" s="140"/>
+      <c r="T72" s="140"/>
+      <c r="U72" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V72" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="S72" s="144"/>
-      <c r="T72" s="144"/>
-      <c r="U72" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="V72" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="Y72" s="76"/>
     </row>
@@ -4335,7 +4337,7 @@
       </c>
       <c r="B75" s="115"/>
       <c r="C75" s="103" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D75" s="104"/>
       <c r="E75" s="104"/>
@@ -4343,7 +4345,7 @@
       <c r="G75" s="104"/>
       <c r="H75" s="104"/>
       <c r="I75" s="103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J75" s="104"/>
       <c r="K75" s="104"/>
@@ -4412,24 +4414,24 @@
         <v>14</v>
       </c>
       <c r="E77" s="112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F77" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="G77" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="I77" s="150" t="s">
-        <v>69</v>
-      </c>
-      <c r="J77" s="152" t="s">
+      <c r="I77" s="146" t="s">
+        <v>68</v>
+      </c>
+      <c r="J77" s="148" t="s">
+        <v>94</v>
+      </c>
+      <c r="K77" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="K77" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="L77" s="149"/>
+      <c r="L77" s="145"/>
       <c r="M77" s="15"/>
       <c r="O77" s="75"/>
       <c r="Y77" s="76"/>
@@ -4455,13 +4457,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I78" s="151"/>
-      <c r="J78" s="153"/>
+      <c r="I78" s="147"/>
+      <c r="J78" s="149"/>
       <c r="K78" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="L78" s="97" t="s">
         <v>97</v>
-      </c>
-      <c r="L78" s="97" t="s">
-        <v>98</v>
       </c>
       <c r="M78" s="15"/>
       <c r="O78" s="93" t="str">
@@ -4472,18 +4474,18 @@
         <v>14</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R78" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="R78" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="S78" s="140"/>
+      <c r="T78" s="140"/>
+      <c r="U78" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V78" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="S78" s="144"/>
-      <c r="T78" s="144"/>
-      <c r="U78" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="V78" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="Y78" s="76"/>
     </row>
@@ -4724,13 +4726,13 @@
         <v>14</v>
       </c>
       <c r="E83" s="112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F83" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" s="97" t="s">
         <v>91</v>
-      </c>
-      <c r="G83" s="97" t="s">
-        <v>92</v>
       </c>
       <c r="M83" s="15"/>
       <c r="O83" s="75"/>
@@ -4758,14 +4760,14 @@
         <v/>
       </c>
       <c r="I84" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J84" s="128" t="str">
         <f>IF(U94="","",U94)</f>
         <v>Piranha CB2-17090320</v>
       </c>
       <c r="L84" s="130" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M84" s="131" t="str">
         <f>IF(X94="","",X94)</f>
@@ -4779,18 +4781,18 @@
         <v>14</v>
       </c>
       <c r="Q84" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R84" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="R84" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="S84" s="140"/>
+      <c r="T84" s="140"/>
+      <c r="U84" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V84" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="S84" s="144"/>
-      <c r="T84" s="144"/>
-      <c r="U84" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="V84" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="Y84" s="76"/>
     </row>
@@ -4816,14 +4818,14 @@
         <v/>
       </c>
       <c r="I85" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J85" s="129" t="str">
         <f>IF(U96="","",U96)</f>
         <v/>
       </c>
       <c r="L85" s="130" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M85" s="132" t="str">
         <f>IF(X96="","",X96)</f>
@@ -4873,14 +4875,14 @@
         <v/>
       </c>
       <c r="I86" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J86" s="129" t="str">
         <f>IF(U97="","",U97)</f>
         <v/>
       </c>
       <c r="L86" s="130" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M86" s="132" t="str">
         <f>IF(X97="","",X97)</f>
@@ -4993,13 +4995,13 @@
         <v>14</v>
       </c>
       <c r="E89" s="112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F89" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89" s="97" t="s">
         <v>91</v>
-      </c>
-      <c r="G89" s="97" t="s">
-        <v>92</v>
       </c>
       <c r="M89" s="15"/>
       <c r="O89" s="75"/>
@@ -5029,15 +5031,15 @@
       <c r="M90" s="15"/>
       <c r="O90" s="75"/>
       <c r="P90" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q90" s="125"/>
       <c r="S90" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T90" s="127"/>
       <c r="V90" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W90" s="127"/>
       <c r="Y90" s="76"/>
@@ -5133,7 +5135,7 @@
       </c>
       <c r="M93" s="15"/>
       <c r="O93" s="90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y93" s="76"/>
     </row>
@@ -5147,18 +5149,18 @@
         <v>107</v>
       </c>
       <c r="P94" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T94" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="T94" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="U94" s="145" t="str">
+      <c r="U94" s="141" t="str">
         <f>IF(U95&lt;&gt;"",U95,IF(AB42="","",AB42))</f>
         <v>Piranha CB2-17090320</v>
       </c>
-      <c r="V94" s="145"/>
+      <c r="V94" s="141"/>
       <c r="W94" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X94" s="126" t="str">
         <f>IF(X95&lt;&gt;"",X95,IF(AB43="","",AB43))</f>
@@ -5179,27 +5181,27 @@
         <v>14</v>
       </c>
       <c r="E95" s="112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F95" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95" s="97" t="s">
         <v>91</v>
-      </c>
-      <c r="G95" s="97" t="s">
-        <v>92</v>
       </c>
       <c r="M95" s="15"/>
       <c r="O95" s="77">
         <v>42.4</v>
       </c>
       <c r="P95" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="U95" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="U95" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="V95" s="142"/>
+      <c r="V95" s="137"/>
       <c r="X95" s="125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y95" s="76"/>
     </row>
@@ -5227,11 +5229,11 @@
       <c r="M96" s="15"/>
       <c r="O96" s="75"/>
       <c r="T96" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U96" s="127"/>
       <c r="W96" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X96" s="127"/>
       <c r="Y96" s="76"/>
@@ -5259,14 +5261,14 @@
       </c>
       <c r="M97" s="15"/>
       <c r="O97" s="90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T97" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U97" s="127"/>
       <c r="W97" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X97" s="127"/>
       <c r="Y97" s="76"/>
@@ -5298,11 +5300,11 @@
       <c r="Q98" s="106"/>
       <c r="R98" s="106"/>
       <c r="S98" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T98" s="106"/>
       <c r="U98" s="119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V98" s="119"/>
       <c r="Y98" s="76"/>
@@ -5330,24 +5332,24 @@
       </c>
       <c r="M99" s="15"/>
       <c r="O99" s="108" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P99" s="119" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q99" s="119"/>
       <c r="R99" s="119"/>
       <c r="S99" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="T99" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U99" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="V99" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="T99" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="U99" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="V99" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="Y99" s="76"/>
     </row>
@@ -5388,7 +5390,7 @@
       </c>
       <c r="B101" s="14"/>
       <c r="D101" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E101" s="133" t="str">
         <f>IF(Q90="","",Q90)</f>
@@ -5426,7 +5428,7 @@
       </c>
       <c r="B102" s="14"/>
       <c r="D102" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E102" s="134" t="str">
         <f>IF(T90="","",T90)</f>
@@ -5464,7 +5466,7 @@
       </c>
       <c r="B103" s="14"/>
       <c r="D103" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E103" s="134" t="str">
         <f>IF(W90="","",W90)</f>
@@ -5678,7 +5680,7 @@
         <v>60</v>
       </c>
       <c r="C120" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D120" s="54" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -5718,6 +5720,29 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="39">
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="U95:V95"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="F28:G28"/>
@@ -5734,29 +5759,6 @@
     <mergeCell ref="I77:I78"/>
     <mergeCell ref="J77:J78"/>
     <mergeCell ref="R84:T84"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <conditionalFormatting sqref="L35:L39 L42:L43 L46:L49">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">

--- a/MUSCBoneDensity.xlsx
+++ b/MUSCBoneDensity.xlsx
@@ -15,6 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="Page1">Sheet1!$B$1:$M$60</definedName>
+    <definedName name="Page2">Sheet1!$B$61:$M$120</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$M$120</definedName>
     <definedName name="Z_FCFD580C_7BEB_4F5F_B2A6_4586EBD853CD_.wvu.PrintArea" localSheetId="0" hidden="1">Sheet1!$B$1:$M$120</definedName>
   </definedNames>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="115">
   <si>
     <t>Print Area</t>
   </si>
@@ -378,6 +380,9 @@
   </si>
   <si>
     <t>DHEC form SC-RHA-20 “Notice to Employees” posted or referenced</t>
+  </si>
+  <si>
+    <t>Page1,Page2</t>
   </si>
 </sst>
 </file>
@@ -1300,12 +1305,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1338,18 +1355,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1736,9 +1741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1808,7 +1811,9 @@
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
       <c r="Y2" s="18"/>
-      <c r="AA2" s="19"/>
+      <c r="AA2" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="AB2" s="13"/>
       <c r="AD2" s="13"/>
     </row>
@@ -1862,7 +1867,9 @@
       <c r="AA4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AB4" s="23"/>
+      <c r="AB4" s="23" t="s">
+        <v>114</v>
+      </c>
       <c r="AD4" s="13"/>
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1">
@@ -1958,11 +1965,11 @@
       <c r="AB7" s="34"/>
       <c r="AC7" s="35" t="str">
         <f t="shared" ref="AC7:AC17" si="0">IF(AB7&lt;&gt;AD7,"Change","")</f>
-        <v/>
+        <v>Change</v>
       </c>
       <c r="AD7" s="36" t="str">
         <f>IF(OR(AA2="",AA2=0),"",AA2)</f>
-        <v/>
+        <v>Page1,Page2</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
@@ -2060,19 +2067,19 @@
       <c r="E10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="138" t="str">
+      <c r="F10" s="137" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="138"/>
+      <c r="G10" s="137"/>
       <c r="J10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="138" t="str">
+      <c r="K10" s="137" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="138"/>
+      <c r="L10" s="137"/>
       <c r="M10" s="15"/>
       <c r="O10" s="55"/>
       <c r="P10" s="13"/>
@@ -2116,19 +2123,19 @@
       <c r="E11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="151" t="str">
+      <c r="F11" s="138" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="151"/>
+      <c r="G11" s="138"/>
       <c r="J11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="151" t="str">
+      <c r="K11" s="138" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="151"/>
+      <c r="L11" s="138"/>
       <c r="M11" s="15"/>
       <c r="O11" s="55"/>
       <c r="P11" s="13"/>
@@ -2172,19 +2179,19 @@
       <c r="E12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="151" t="str">
+      <c r="F12" s="138" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="151"/>
+      <c r="G12" s="138"/>
       <c r="J12" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="153" t="str">
+      <c r="K12" s="139" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="153"/>
+      <c r="L12" s="139"/>
       <c r="M12" s="15"/>
       <c r="O12" s="55"/>
       <c r="P12" s="13"/>
@@ -2228,14 +2235,14 @@
       <c r="E13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="151" t="str">
+      <c r="F13" s="138" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="151"/>
+      <c r="G13" s="138"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
       <c r="M13" s="15"/>
       <c r="O13" s="55"/>
       <c r="P13" s="13"/>
@@ -2336,19 +2343,19 @@
       <c r="E16" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="138" t="str">
+      <c r="F16" s="137" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="138"/>
+      <c r="G16" s="137"/>
       <c r="J16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="150" t="str">
+      <c r="K16" s="141" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="150"/>
+      <c r="L16" s="141"/>
       <c r="M16" s="15"/>
       <c r="O16" s="55"/>
       <c r="P16" s="62" t="s">
@@ -2384,19 +2391,19 @@
       <c r="E17" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="138" t="str">
+      <c r="F17" s="137" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="138"/>
+      <c r="G17" s="137"/>
       <c r="J17" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="138" t="str">
+      <c r="K17" s="137" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="138"/>
+      <c r="L17" s="137"/>
       <c r="M17" s="15"/>
       <c r="O17" s="55"/>
       <c r="P17" s="13"/>
@@ -2440,19 +2447,19 @@
       <c r="E18" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="138" t="str">
+      <c r="F18" s="137" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="138"/>
+      <c r="G18" s="137"/>
       <c r="J18" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="138" t="str">
+      <c r="K18" s="137" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="138"/>
+      <c r="L18" s="137"/>
       <c r="M18" s="15"/>
       <c r="O18" s="55"/>
       <c r="P18" s="13"/>
@@ -2541,19 +2548,19 @@
       <c r="E21" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="138" t="str">
+      <c r="F21" s="137" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="138"/>
+      <c r="G21" s="137"/>
       <c r="J21" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="138" t="str">
+      <c r="K21" s="137" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="138"/>
+      <c r="L21" s="137"/>
       <c r="M21" s="15"/>
       <c r="O21" s="55"/>
       <c r="P21" s="62" t="s">
@@ -2591,19 +2598,19 @@
       <c r="E22" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="150" t="str">
+      <c r="F22" s="141" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="150"/>
+      <c r="G22" s="141"/>
       <c r="J22" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="138" t="str">
+      <c r="K22" s="137" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="138"/>
+      <c r="L22" s="137"/>
       <c r="M22" s="15"/>
       <c r="O22" s="55"/>
       <c r="P22" s="13"/>
@@ -2650,11 +2657,11 @@
       <c r="J23" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="138" t="str">
+      <c r="K23" s="137" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="138"/>
+      <c r="L23" s="137"/>
       <c r="M23" s="15"/>
       <c r="O23" s="55"/>
       <c r="P23" s="13"/>
@@ -2698,11 +2705,11 @@
       <c r="E24" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="138" t="str">
+      <c r="F24" s="137" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="138"/>
+      <c r="G24" s="137"/>
       <c r="M24" s="15"/>
       <c r="O24" s="55"/>
       <c r="P24" s="62" t="s">
@@ -2743,11 +2750,11 @@
       <c r="E25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="138" t="str">
+      <c r="F25" s="137" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="138"/>
+      <c r="G25" s="137"/>
       <c r="J25" s="61" t="s">
         <v>39</v>
       </c>
@@ -2789,19 +2796,19 @@
       <c r="E26" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="138" t="str">
+      <c r="F26" s="137" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="138"/>
+      <c r="G26" s="137"/>
       <c r="J26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="138" t="str">
+      <c r="K26" s="137" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="138"/>
+      <c r="L26" s="137"/>
       <c r="M26" s="15"/>
       <c r="O26" s="55"/>
       <c r="P26" s="13"/>
@@ -2845,11 +2852,11 @@
       <c r="J27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="138" t="str">
+      <c r="K27" s="137" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="138"/>
+      <c r="L27" s="137"/>
       <c r="M27" s="15"/>
       <c r="O27" s="55"/>
       <c r="P27" s="13"/>
@@ -2886,11 +2893,11 @@
       <c r="E28" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="138" t="str">
+      <c r="F28" s="137" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="138"/>
+      <c r="G28" s="137"/>
       <c r="M28" s="15"/>
       <c r="O28" s="55"/>
       <c r="P28" s="62" t="s">
@@ -2931,11 +2938,11 @@
       <c r="E29" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="138" t="str">
+      <c r="F29" s="137" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="138"/>
+      <c r="G29" s="137"/>
       <c r="M29" s="15"/>
       <c r="O29" s="55"/>
       <c r="P29" s="13"/>
@@ -2974,11 +2981,11 @@
       <c r="E30" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="138" t="str">
+      <c r="F30" s="137" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="138"/>
+      <c r="G30" s="137"/>
       <c r="M30" s="15"/>
       <c r="O30" s="55"/>
       <c r="P30" s="13"/>
@@ -3122,10 +3129,10 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="139" t="s">
+      <c r="L34" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="139"/>
+      <c r="M34" s="143"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -3658,10 +3665,10 @@
         <v>55</v>
       </c>
       <c r="O55" s="75"/>
-      <c r="S55" s="140" t="s">
+      <c r="S55" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="T55" s="140"/>
+      <c r="T55" s="144"/>
       <c r="Y55" s="76"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
@@ -3909,10 +3916,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="H64" s="142" t="s">
+      <c r="H64" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="I64" s="143"/>
+      <c r="I64" s="147"/>
       <c r="K64" s="61" t="s">
         <v>66</v>
       </c>
@@ -4006,11 +4013,11 @@
       <c r="Q66" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R66" s="140" t="s">
+      <c r="R66" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="S66" s="140"/>
-      <c r="T66" s="140"/>
+      <c r="S66" s="144"/>
+      <c r="T66" s="144"/>
       <c r="U66" s="4" t="s">
         <v>90</v>
       </c>
@@ -4252,11 +4259,11 @@
       <c r="Q72" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R72" s="140" t="s">
+      <c r="R72" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="S72" s="140"/>
-      <c r="T72" s="140"/>
+      <c r="S72" s="144"/>
+      <c r="T72" s="144"/>
       <c r="U72" s="4" t="s">
         <v>90</v>
       </c>
@@ -4422,16 +4429,16 @@
       <c r="G77" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="I77" s="146" t="s">
+      <c r="I77" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="J77" s="148" t="s">
+      <c r="J77" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="K77" s="144" t="s">
+      <c r="K77" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="L77" s="145"/>
+      <c r="L77" s="149"/>
       <c r="M77" s="15"/>
       <c r="O77" s="75"/>
       <c r="Y77" s="76"/>
@@ -4457,8 +4464,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I78" s="147"/>
-      <c r="J78" s="149"/>
+      <c r="I78" s="151"/>
+      <c r="J78" s="153"/>
       <c r="K78" s="97" t="s">
         <v>96</v>
       </c>
@@ -4476,11 +4483,11 @@
       <c r="Q78" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R78" s="140" t="s">
+      <c r="R78" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="S78" s="140"/>
-      <c r="T78" s="140"/>
+      <c r="S78" s="144"/>
+      <c r="T78" s="144"/>
       <c r="U78" s="4" t="s">
         <v>90</v>
       </c>
@@ -4783,11 +4790,11 @@
       <c r="Q84" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R84" s="140" t="s">
+      <c r="R84" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="S84" s="140"/>
-      <c r="T84" s="140"/>
+      <c r="S84" s="144"/>
+      <c r="T84" s="144"/>
       <c r="U84" s="4" t="s">
         <v>90</v>
       </c>
@@ -5154,11 +5161,11 @@
       <c r="T94" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="U94" s="141" t="str">
+      <c r="U94" s="145" t="str">
         <f>IF(U95&lt;&gt;"",U95,IF(AB42="","",AB42))</f>
         <v>Piranha CB2-17090320</v>
       </c>
-      <c r="V94" s="141"/>
+      <c r="V94" s="145"/>
       <c r="W94" s="22" t="s">
         <v>59</v>
       </c>
@@ -5196,10 +5203,10 @@
       <c r="P95" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="U95" s="137" t="s">
+      <c r="U95" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="V95" s="137"/>
+      <c r="V95" s="142"/>
       <c r="X95" s="125" t="s">
         <v>111</v>
       </c>
@@ -5720,29 +5727,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="39">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K26:L26"/>
     <mergeCell ref="U95:V95"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="F28:G28"/>
@@ -5759,6 +5743,29 @@
     <mergeCell ref="I77:I78"/>
     <mergeCell ref="J77:J78"/>
     <mergeCell ref="R84:T84"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <conditionalFormatting sqref="L35:L39 L42:L43 L46:L49">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -5775,7 +5782,7 @@
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.5" right="0.5" top="0.59861111111111098" bottom="0.73750000000000004" header="0.5" footer="0.5"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.59055118110236227" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup scale="75" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/MUSCBoneDensity.xlsx
+++ b/MUSCBoneDensity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126C78CB-AFCE-4430-891F-B40C1178F619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$M$120</definedName>
     <definedName name="Z_FCFD580C_7BEB_4F5F_B2A6_4586EBD853CD_.wvu.PrintArea" localSheetId="0" hidden="1">Sheet1!$B$1:$M$120</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Eugene Mah - Personal View" guid="{FCFD580C-7BEB-4F5F-B2A6-4586EBD853CD}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
@@ -28,6 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="116">
   <si>
     <t>Print Area</t>
   </si>
@@ -190,9 +194,6 @@
     <t>Enter 1 for YES, 2 for NO, 3 for NA</t>
   </si>
   <si>
-    <t>DHEC RHB 10.2.1</t>
-  </si>
-  <si>
     <t>DHEC RHB 4.3.1</t>
   </si>
   <si>
@@ -383,12 +384,18 @@
   </si>
   <si>
     <t>Page1,Page2</t>
+  </si>
+  <si>
+    <t>DHEC RHB 11.2.3</t>
+  </si>
+  <si>
+    <t>DHEC RHB 4.10.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
@@ -1305,64 +1312,64 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Heading" xfId="3"/>
-    <cellStyle name="Heading1" xfId="4"/>
+    <cellStyle name="Heading" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading1" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Result" xfId="1"/>
-    <cellStyle name="Result2" xfId="2"/>
+    <cellStyle name="Result" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Result2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1738,7 +1745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1771,7 +1778,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="8"/>
       <c r="O1" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
@@ -1812,7 +1819,7 @@
       <c r="X2" s="13"/>
       <c r="Y2" s="18"/>
       <c r="AA2" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB2" s="13"/>
       <c r="AD2" s="13"/>
@@ -1868,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="AB4" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD4" s="13"/>
     </row>
@@ -2067,19 +2074,19 @@
       <c r="E10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="137" t="str">
+      <c r="F10" s="138" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="137"/>
+      <c r="G10" s="138"/>
       <c r="J10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="137" t="str">
+      <c r="K10" s="138" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="137"/>
+      <c r="L10" s="138"/>
       <c r="M10" s="15"/>
       <c r="O10" s="55"/>
       <c r="P10" s="13"/>
@@ -2123,19 +2130,19 @@
       <c r="E11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="138" t="str">
+      <c r="F11" s="151" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="138"/>
+      <c r="G11" s="151"/>
       <c r="J11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="138" t="str">
+      <c r="K11" s="151" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="138"/>
+      <c r="L11" s="151"/>
       <c r="M11" s="15"/>
       <c r="O11" s="55"/>
       <c r="P11" s="13"/>
@@ -2179,19 +2186,19 @@
       <c r="E12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="138" t="str">
+      <c r="F12" s="151" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="138"/>
+      <c r="G12" s="151"/>
       <c r="J12" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="139" t="str">
+      <c r="K12" s="153" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="139"/>
+      <c r="L12" s="153"/>
       <c r="M12" s="15"/>
       <c r="O12" s="55"/>
       <c r="P12" s="13"/>
@@ -2235,14 +2242,14 @@
       <c r="E13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="138" t="str">
+      <c r="F13" s="151" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="138"/>
+      <c r="G13" s="151"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
       <c r="M13" s="15"/>
       <c r="O13" s="55"/>
       <c r="P13" s="13"/>
@@ -2343,19 +2350,19 @@
       <c r="E16" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="137" t="str">
+      <c r="F16" s="138" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="137"/>
+      <c r="G16" s="138"/>
       <c r="J16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="141" t="str">
+      <c r="K16" s="150" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="141"/>
+      <c r="L16" s="150"/>
       <c r="M16" s="15"/>
       <c r="O16" s="55"/>
       <c r="P16" s="62" t="s">
@@ -2391,19 +2398,19 @@
       <c r="E17" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="137" t="str">
+      <c r="F17" s="138" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="137"/>
+      <c r="G17" s="138"/>
       <c r="J17" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="137" t="str">
+      <c r="K17" s="138" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="137"/>
+      <c r="L17" s="138"/>
       <c r="M17" s="15"/>
       <c r="O17" s="55"/>
       <c r="P17" s="13"/>
@@ -2447,19 +2454,19 @@
       <c r="E18" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="137" t="str">
+      <c r="F18" s="138" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="137"/>
+      <c r="G18" s="138"/>
       <c r="J18" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="137" t="str">
+      <c r="K18" s="138" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="137"/>
+      <c r="L18" s="138"/>
       <c r="M18" s="15"/>
       <c r="O18" s="55"/>
       <c r="P18" s="13"/>
@@ -2548,19 +2555,19 @@
       <c r="E21" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="137" t="str">
+      <c r="F21" s="138" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="137"/>
+      <c r="G21" s="138"/>
       <c r="J21" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="137" t="str">
+      <c r="K21" s="138" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="137"/>
+      <c r="L21" s="138"/>
       <c r="M21" s="15"/>
       <c r="O21" s="55"/>
       <c r="P21" s="62" t="s">
@@ -2598,19 +2605,19 @@
       <c r="E22" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="141" t="str">
+      <c r="F22" s="150" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="141"/>
+      <c r="G22" s="150"/>
       <c r="J22" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="137" t="str">
+      <c r="K22" s="138" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="137"/>
+      <c r="L22" s="138"/>
       <c r="M22" s="15"/>
       <c r="O22" s="55"/>
       <c r="P22" s="13"/>
@@ -2657,11 +2664,11 @@
       <c r="J23" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="137" t="str">
+      <c r="K23" s="138" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="137"/>
+      <c r="L23" s="138"/>
       <c r="M23" s="15"/>
       <c r="O23" s="55"/>
       <c r="P23" s="13"/>
@@ -2705,11 +2712,11 @@
       <c r="E24" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="137" t="str">
+      <c r="F24" s="138" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="137"/>
+      <c r="G24" s="138"/>
       <c r="M24" s="15"/>
       <c r="O24" s="55"/>
       <c r="P24" s="62" t="s">
@@ -2750,11 +2757,11 @@
       <c r="E25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="137" t="str">
+      <c r="F25" s="138" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="137"/>
+      <c r="G25" s="138"/>
       <c r="J25" s="61" t="s">
         <v>39</v>
       </c>
@@ -2796,19 +2803,19 @@
       <c r="E26" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="137" t="str">
+      <c r="F26" s="138" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="137"/>
+      <c r="G26" s="138"/>
       <c r="J26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="137" t="str">
+      <c r="K26" s="138" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="137"/>
+      <c r="L26" s="138"/>
       <c r="M26" s="15"/>
       <c r="O26" s="55"/>
       <c r="P26" s="13"/>
@@ -2852,11 +2859,11 @@
       <c r="J27" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="137" t="str">
+      <c r="K27" s="138" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="137"/>
+      <c r="L27" s="138"/>
       <c r="M27" s="15"/>
       <c r="O27" s="55"/>
       <c r="P27" s="13"/>
@@ -2893,11 +2900,11 @@
       <c r="E28" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="137" t="str">
+      <c r="F28" s="138" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="137"/>
+      <c r="G28" s="138"/>
       <c r="M28" s="15"/>
       <c r="O28" s="55"/>
       <c r="P28" s="62" t="s">
@@ -2938,11 +2945,11 @@
       <c r="E29" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="137" t="str">
+      <c r="F29" s="138" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="137"/>
+      <c r="G29" s="138"/>
       <c r="M29" s="15"/>
       <c r="O29" s="55"/>
       <c r="P29" s="13"/>
@@ -2981,11 +2988,11 @@
       <c r="E30" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="137" t="str">
+      <c r="F30" s="138" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="137"/>
+      <c r="G30" s="138"/>
       <c r="M30" s="15"/>
       <c r="O30" s="55"/>
       <c r="P30" s="13"/>
@@ -3129,10 +3136,10 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="143" t="s">
+      <c r="L34" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="143"/>
+      <c r="M34" s="139"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -3210,10 +3217,10 @@
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="71" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="E36" s="72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L36" s="73" t="str">
         <f>IF(O38="","TBD",IF(O38=1,"YES",IF(O38=3,"NA","")))</f>
@@ -3247,10 +3254,10 @@
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="72" t="s">
         <v>51</v>
-      </c>
-      <c r="E37" s="72" t="s">
-        <v>52</v>
       </c>
       <c r="L37" s="73" t="str">
         <f>IF(O39="","TBD",IF(O39=1,"YES",IF(O39=3,"NA","")))</f>
@@ -3285,7 +3292,7 @@
       <c r="B38" s="14"/>
       <c r="C38" s="71"/>
       <c r="E38" s="72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L38" s="73" t="str">
         <f>IF(O40="","TBD",IF(O40=1,"YES",IF(O40=3,"NA","")))</f>
@@ -3297,7 +3304,7 @@
       </c>
       <c r="O38" s="77"/>
       <c r="P38" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y38" s="76"/>
       <c r="AA38" s="22" t="s">
@@ -3320,7 +3327,7 @@
       <c r="B39" s="14"/>
       <c r="C39" s="71"/>
       <c r="E39" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L39" s="73" t="str">
         <f>IF(O41="","TBD",IF(O41=1,"YES",IF(O41=3,"NA","")))</f>
@@ -3332,7 +3339,7 @@
       </c>
       <c r="O39" s="77"/>
       <c r="P39" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y39" s="76"/>
       <c r="AA39" s="22" t="s">
@@ -3359,7 +3366,7 @@
       <c r="M40" s="78"/>
       <c r="O40" s="77"/>
       <c r="P40" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y40" s="76"/>
       <c r="AA40" s="22" t="s">
@@ -3382,13 +3389,13 @@
       <c r="B41" s="14"/>
       <c r="C41" s="71"/>
       <c r="F41" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L41" s="21"/>
       <c r="M41" s="79"/>
       <c r="O41" s="77"/>
       <c r="P41" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y41" s="76"/>
     </row>
@@ -3399,7 +3406,7 @@
       <c r="B42" s="14"/>
       <c r="C42" s="71"/>
       <c r="E42" s="72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L42" s="73" t="str">
         <f>IF(O44="","TBD",IF(O44=1,"YES",IF(O44=3,"NA","")))</f>
@@ -3412,7 +3419,7 @@
       <c r="O42" s="75"/>
       <c r="Y42" s="76"/>
       <c r="AA42" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB42" s="49"/>
       <c r="AC42" s="35" t="str">
@@ -3429,8 +3436,11 @@
         <v>43</v>
       </c>
       <c r="B43" s="14"/>
+      <c r="C43" s="71" t="s">
+        <v>115</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L43" s="73" t="str">
         <f>IF(O45="","TBD",IF(O45=1,"YES",IF(O45=3,"NA","")))</f>
@@ -3442,11 +3452,11 @@
       </c>
       <c r="O43" s="75"/>
       <c r="T43" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y43" s="76"/>
       <c r="AA43" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB43" s="49"/>
       <c r="AC43" s="35" t="str">
@@ -3467,7 +3477,7 @@
       <c r="M44" s="79"/>
       <c r="O44" s="77"/>
       <c r="P44" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y44" s="76"/>
     </row>
@@ -3478,13 +3488,13 @@
       <c r="B45" s="14"/>
       <c r="C45" s="51"/>
       <c r="F45" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="21"/>
       <c r="M45" s="79"/>
       <c r="O45" s="77"/>
       <c r="P45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y45" s="76"/>
     </row>
@@ -3495,7 +3505,7 @@
       <c r="B46" s="14"/>
       <c r="C46" s="51"/>
       <c r="E46" s="72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L46" s="73" t="str">
         <f>IF(O48="","TBD",IF(O48=1,"YES",IF(O48=3,"NA","")))</f>
@@ -3515,7 +3525,7 @@
       <c r="B47" s="14"/>
       <c r="C47" s="51"/>
       <c r="E47" s="72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L47" s="73" t="str">
         <f>IF(O49="","TBD",IF(O49=1,"YES",IF(O49=3,"NA","")))</f>
@@ -3527,7 +3537,7 @@
       </c>
       <c r="O47" s="75"/>
       <c r="T47" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y47" s="76"/>
     </row>
@@ -3538,7 +3548,7 @@
       <c r="B48" s="14"/>
       <c r="C48" s="51"/>
       <c r="E48" s="72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L48" s="73" t="str">
         <f>IF(O50="","TBD",IF(O50=1,"YES",IF(O50=3,"NA","")))</f>
@@ -3550,7 +3560,7 @@
       </c>
       <c r="O48" s="77"/>
       <c r="P48" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y48" s="76"/>
     </row>
@@ -3561,7 +3571,7 @@
       <c r="B49" s="14"/>
       <c r="C49" s="51"/>
       <c r="E49" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L49" s="73" t="str">
         <f>IF(O51="","TBD",IF(O51=1,"YES",IF(O51=3,"NA","")))</f>
@@ -3573,7 +3583,7 @@
       </c>
       <c r="O49" s="77"/>
       <c r="P49" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y49" s="76"/>
     </row>
@@ -3585,7 +3595,7 @@
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
       <c r="E50" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
@@ -3600,7 +3610,7 @@
       <c r="M50" s="26"/>
       <c r="O50" s="77"/>
       <c r="P50" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y50" s="76"/>
     </row>
@@ -3610,7 +3620,7 @@
       </c>
       <c r="O51" s="77"/>
       <c r="P51" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y51" s="76"/>
     </row>
@@ -3623,7 +3633,7 @@
         <v>3</v>
       </c>
       <c r="P52" s="81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q52" s="81"/>
       <c r="R52" s="81"/>
@@ -3645,7 +3655,7 @@
         <v>54</v>
       </c>
       <c r="O54" s="83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P54" s="84"/>
       <c r="Q54" s="84"/>
@@ -3654,7 +3664,7 @@
       <c r="T54" s="84"/>
       <c r="U54" s="84"/>
       <c r="V54" s="85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W54" s="84"/>
       <c r="X54" s="84"/>
@@ -3665,10 +3675,10 @@
         <v>55</v>
       </c>
       <c r="O55" s="75"/>
-      <c r="S55" s="144" t="s">
-        <v>67</v>
-      </c>
-      <c r="T55" s="144"/>
+      <c r="S55" s="140" t="s">
+        <v>66</v>
+      </c>
+      <c r="T55" s="140"/>
       <c r="Y55" s="76"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
@@ -3676,28 +3686,28 @@
         <v>56</v>
       </c>
       <c r="O56" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="P56" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P56" s="4" t="s">
+      <c r="Q56" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q56" s="4" t="s">
+      <c r="R56" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="R56" s="4" t="s">
+      <c r="S56" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="S56" s="4" t="s">
+      <c r="T56" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="T56" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="V56" s="4" t="s">
         <v>14</v>
       </c>
       <c r="W56" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y56" s="76"/>
     </row>
@@ -3706,10 +3716,10 @@
         <v>57</v>
       </c>
       <c r="O57" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="P57" s="89" t="s">
         <v>75</v>
-      </c>
-      <c r="P57" s="89" t="s">
-        <v>76</v>
       </c>
       <c r="Q57" s="89">
         <v>2.5</v>
@@ -3726,7 +3736,7 @@
         <v>20.32</v>
       </c>
       <c r="V57" s="89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W57" s="89"/>
       <c r="Y57" s="76"/>
@@ -3736,10 +3746,10 @@
         <v>58</v>
       </c>
       <c r="O58" s="88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P58" s="89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q58" s="89">
         <v>2.5</v>
@@ -3754,7 +3764,7 @@
         <v>20.32</v>
       </c>
       <c r="V58" s="89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W58" s="89"/>
       <c r="Y58" s="76"/>
@@ -3778,10 +3788,10 @@
         <v>Eugene Mah</v>
       </c>
       <c r="O59" s="88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P59" s="89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q59" s="89">
         <v>2.5</v>
@@ -3798,7 +3808,7 @@
         <v>20.32</v>
       </c>
       <c r="V59" s="89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W59" s="89"/>
       <c r="Y59" s="76"/>
@@ -3808,7 +3818,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D60" s="53" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -3822,10 +3832,10 @@
         <v/>
       </c>
       <c r="O60" s="88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P60" s="89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q60" s="89">
         <v>2.5</v>
@@ -3868,7 +3878,7 @@
         <v>Bone Mineral Density Compliance Inspection</v>
       </c>
       <c r="O62" s="90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y62" s="76"/>
     </row>
@@ -3878,7 +3888,7 @@
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -3891,19 +3901,19 @@
       <c r="L63" s="7"/>
       <c r="M63" s="8"/>
       <c r="O63" s="91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P63" s="89">
         <v>82</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R63" s="89"/>
       <c r="S63" s="89"/>
       <c r="T63" s="89"/>
       <c r="V63" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W63" s="92" t="str">
         <f>IF(R63="","",AVERAGE(R63:T63))</f>
@@ -3916,12 +3926,12 @@
         <v>4</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="H64" s="146" t="s">
-        <v>92</v>
-      </c>
-      <c r="I64" s="147"/>
+      <c r="H64" s="142" t="s">
+        <v>91</v>
+      </c>
+      <c r="I64" s="143"/>
       <c r="K64" s="61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M64" s="15"/>
       <c r="O64" s="75"/>
@@ -3933,35 +3943,35 @@
       </c>
       <c r="B65" s="14"/>
       <c r="D65" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="97" t="s">
+      <c r="F65" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="F65" s="97" t="s">
+      <c r="G65" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="G65" s="97" t="s">
+      <c r="H65" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="H65" s="98" t="s">
+      <c r="I65" s="99" t="s">
         <v>72</v>
-      </c>
-      <c r="I65" s="99" t="s">
-        <v>73</v>
       </c>
       <c r="K65" s="97" t="s">
         <v>14</v>
       </c>
       <c r="L65" s="111" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M65" s="15"/>
       <c r="O65" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="U65" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="U65" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="Y65" s="76"/>
     </row>
@@ -4011,18 +4021,18 @@
         <v>14</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R66" s="144" t="s">
+        <v>73</v>
+      </c>
+      <c r="R66" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="S66" s="140"/>
+      <c r="T66" s="140"/>
+      <c r="U66" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V66" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="S66" s="144"/>
-      <c r="T66" s="144"/>
-      <c r="U66" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="V66" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="Y66" s="76"/>
     </row>
@@ -4257,18 +4267,18 @@
         <v>14</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R72" s="144" t="s">
+        <v>73</v>
+      </c>
+      <c r="R72" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="S72" s="140"/>
+      <c r="T72" s="140"/>
+      <c r="U72" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V72" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="S72" s="144"/>
-      <c r="T72" s="144"/>
-      <c r="U72" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="V72" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="Y72" s="76"/>
     </row>
@@ -4344,7 +4354,7 @@
       </c>
       <c r="B75" s="115"/>
       <c r="C75" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75" s="104"/>
       <c r="E75" s="104"/>
@@ -4352,7 +4362,7 @@
       <c r="G75" s="104"/>
       <c r="H75" s="104"/>
       <c r="I75" s="103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J75" s="104"/>
       <c r="K75" s="104"/>
@@ -4421,24 +4431,24 @@
         <v>14</v>
       </c>
       <c r="E77" s="112" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F77" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="G77" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="G77" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I77" s="150" t="s">
-        <v>68</v>
-      </c>
-      <c r="J77" s="152" t="s">
+      <c r="I77" s="146" t="s">
+        <v>67</v>
+      </c>
+      <c r="J77" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="K77" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="K77" s="148" t="s">
-        <v>95</v>
-      </c>
-      <c r="L77" s="149"/>
+      <c r="L77" s="145"/>
       <c r="M77" s="15"/>
       <c r="O77" s="75"/>
       <c r="Y77" s="76"/>
@@ -4464,13 +4474,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I78" s="151"/>
-      <c r="J78" s="153"/>
+      <c r="I78" s="147"/>
+      <c r="J78" s="149"/>
       <c r="K78" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="L78" s="97" t="s">
         <v>96</v>
-      </c>
-      <c r="L78" s="97" t="s">
-        <v>97</v>
       </c>
       <c r="M78" s="15"/>
       <c r="O78" s="93" t="str">
@@ -4481,18 +4491,18 @@
         <v>14</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R78" s="144" t="s">
+        <v>73</v>
+      </c>
+      <c r="R78" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="S78" s="140"/>
+      <c r="T78" s="140"/>
+      <c r="U78" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V78" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="S78" s="144"/>
-      <c r="T78" s="144"/>
-      <c r="U78" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="V78" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="Y78" s="76"/>
     </row>
@@ -4733,13 +4743,13 @@
         <v>14</v>
       </c>
       <c r="E83" s="112" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F83" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" s="97" t="s">
         <v>90</v>
-      </c>
-      <c r="G83" s="97" t="s">
-        <v>91</v>
       </c>
       <c r="M83" s="15"/>
       <c r="O83" s="75"/>
@@ -4767,14 +4777,14 @@
         <v/>
       </c>
       <c r="I84" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J84" s="128" t="str">
         <f>IF(U94="","",U94)</f>
         <v>Piranha CB2-17090320</v>
       </c>
       <c r="L84" s="130" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M84" s="131" t="str">
         <f>IF(X94="","",X94)</f>
@@ -4788,18 +4798,18 @@
         <v>14</v>
       </c>
       <c r="Q84" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R84" s="144" t="s">
+        <v>73</v>
+      </c>
+      <c r="R84" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="S84" s="140"/>
+      <c r="T84" s="140"/>
+      <c r="U84" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V84" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="S84" s="144"/>
-      <c r="T84" s="144"/>
-      <c r="U84" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="V84" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="Y84" s="76"/>
     </row>
@@ -4825,14 +4835,14 @@
         <v/>
       </c>
       <c r="I85" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J85" s="129" t="str">
         <f>IF(U96="","",U96)</f>
         <v/>
       </c>
       <c r="L85" s="130" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M85" s="132" t="str">
         <f>IF(X96="","",X96)</f>
@@ -4882,14 +4892,14 @@
         <v/>
       </c>
       <c r="I86" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J86" s="129" t="str">
         <f>IF(U97="","",U97)</f>
         <v/>
       </c>
       <c r="L86" s="130" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M86" s="132" t="str">
         <f>IF(X97="","",X97)</f>
@@ -5002,13 +5012,13 @@
         <v>14</v>
       </c>
       <c r="E89" s="112" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F89" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89" s="97" t="s">
         <v>90</v>
-      </c>
-      <c r="G89" s="97" t="s">
-        <v>91</v>
       </c>
       <c r="M89" s="15"/>
       <c r="O89" s="75"/>
@@ -5038,15 +5048,15 @@
       <c r="M90" s="15"/>
       <c r="O90" s="75"/>
       <c r="P90" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q90" s="125"/>
       <c r="S90" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T90" s="127"/>
       <c r="V90" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W90" s="127"/>
       <c r="Y90" s="76"/>
@@ -5142,7 +5152,7 @@
       </c>
       <c r="M93" s="15"/>
       <c r="O93" s="90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y93" s="76"/>
     </row>
@@ -5156,18 +5166,18 @@
         <v>107</v>
       </c>
       <c r="P94" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T94" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="T94" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="U94" s="145" t="str">
+      <c r="U94" s="141" t="str">
         <f>IF(U95&lt;&gt;"",U95,IF(AB42="","",AB42))</f>
         <v>Piranha CB2-17090320</v>
       </c>
-      <c r="V94" s="145"/>
+      <c r="V94" s="141"/>
       <c r="W94" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X94" s="126" t="str">
         <f>IF(X95&lt;&gt;"",X95,IF(AB43="","",AB43))</f>
@@ -5188,27 +5198,27 @@
         <v>14</v>
       </c>
       <c r="E95" s="112" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F95" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="G95" s="97" t="s">
         <v>90</v>
-      </c>
-      <c r="G95" s="97" t="s">
-        <v>91</v>
       </c>
       <c r="M95" s="15"/>
       <c r="O95" s="77">
         <v>42.4</v>
       </c>
       <c r="P95" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U95" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="U95" s="142" t="s">
-        <v>102</v>
-      </c>
-      <c r="V95" s="142"/>
+      <c r="V95" s="137"/>
       <c r="X95" s="125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y95" s="76"/>
     </row>
@@ -5236,11 +5246,11 @@
       <c r="M96" s="15"/>
       <c r="O96" s="75"/>
       <c r="T96" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U96" s="127"/>
       <c r="W96" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X96" s="127"/>
       <c r="Y96" s="76"/>
@@ -5268,14 +5278,14 @@
       </c>
       <c r="M97" s="15"/>
       <c r="O97" s="90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T97" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U97" s="127"/>
       <c r="W97" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X97" s="127"/>
       <c r="Y97" s="76"/>
@@ -5307,11 +5317,11 @@
       <c r="Q98" s="106"/>
       <c r="R98" s="106"/>
       <c r="S98" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T98" s="106"/>
       <c r="U98" s="119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V98" s="119"/>
       <c r="Y98" s="76"/>
@@ -5339,24 +5349,24 @@
       </c>
       <c r="M99" s="15"/>
       <c r="O99" s="108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P99" s="119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q99" s="119"/>
       <c r="R99" s="119"/>
       <c r="S99" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="T99" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="U99" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="V99" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="T99" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="U99" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="V99" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="Y99" s="76"/>
     </row>
@@ -5397,7 +5407,7 @@
       </c>
       <c r="B101" s="14"/>
       <c r="D101" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E101" s="133" t="str">
         <f>IF(Q90="","",Q90)</f>
@@ -5435,7 +5445,7 @@
       </c>
       <c r="B102" s="14"/>
       <c r="D102" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E102" s="134" t="str">
         <f>IF(T90="","",T90)</f>
@@ -5473,7 +5483,7 @@
       </c>
       <c r="B103" s="14"/>
       <c r="D103" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E103" s="134" t="str">
         <f>IF(W90="","",W90)</f>
@@ -5687,7 +5697,7 @@
         <v>60</v>
       </c>
       <c r="C120" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D120" s="54" t="str">
         <f>IF($R$14="","",$R$14)</f>
@@ -5727,6 +5737,29 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="39">
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="U95:V95"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="F28:G28"/>
@@ -5743,29 +5776,6 @@
     <mergeCell ref="I77:I78"/>
     <mergeCell ref="J77:J78"/>
     <mergeCell ref="R84:T84"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <conditionalFormatting sqref="L35:L39 L42:L43 L46:L49">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">

--- a/MUSCBoneDensity.xlsx
+++ b/MUSCBoneDensity.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maheug\Documents\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126C78CB-AFCE-4430-891F-B40C1178F619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315DF12C-4CF1-4A93-9038-0D0B54444850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Page1">Sheet1!$B$1:$M$60</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="128">
   <si>
     <t>Print Area</t>
   </si>
@@ -287,9 +288,6 @@
     <t>Door</t>
   </si>
   <si>
-    <t>Turbo</t>
-  </si>
-  <si>
     <t>Background</t>
   </si>
   <si>
@@ -362,9 +360,6 @@
     <t>SD</t>
   </si>
   <si>
-    <t>Revision 1.3-20190605</t>
-  </si>
-  <si>
     <t>Calibration date:</t>
   </si>
   <si>
@@ -390,6 +385,48 @@
   </si>
   <si>
     <t>DHEC RHB 4.10.3</t>
+  </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>Exposure_x000D_(nGy)</t>
+  </si>
+  <si>
+    <t>Exposure rate_x000D_(µGy/h)</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Set text</t>
+  </si>
+  <si>
+    <t>Exposure_x000D_(mGy)</t>
+  </si>
+  <si>
+    <t>Exposure rate_x000D_(µGy/min)</t>
+  </si>
+  <si>
+    <t>Exposure time_x000D_(s)</t>
+  </si>
+  <si>
+    <t>HighDef</t>
+  </si>
+  <si>
+    <t>FastArray</t>
+  </si>
+  <si>
+    <t>Scatter</t>
+  </si>
+  <si>
+    <t>Detector entrance</t>
+  </si>
+  <si>
+    <t>Scan Mode</t>
+  </si>
+  <si>
+    <t>Revision 1.4-20260102</t>
   </si>
 </sst>
 </file>
@@ -404,7 +441,7 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -475,8 +512,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +551,12 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="45">
     <border>
@@ -1014,7 +1070,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1024,7 +1080,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1037,23 +1092,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1078,15 +1132,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1099,49 +1153,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1154,9 +1198,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1166,8 +1207,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1177,13 +1216,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1272,58 +1306,75 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1345,23 +1396,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1374,21 +1410,21 @@
   <dxfs count="3">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1746,9 +1782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1762,1930 +1800,1766 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A1" s="5">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="8"/>
-      <c r="O1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="11"/>
-      <c r="AA1" s="12" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="O1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="10"/>
+      <c r="AA1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" s="13"/>
-      <c r="AD1" s="13"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="H2" s="117" t="s">
+      <c r="B2" s="12"/>
+      <c r="H2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="17" t="s">
+      <c r="M2" s="13"/>
+      <c r="O2" s="14"/>
+      <c r="T2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="18"/>
-      <c r="AA2" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB2" s="13"/>
-      <c r="AD2" s="13"/>
+      <c r="Y2" s="16"/>
+      <c r="AA2" s="17" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="H3" s="117" t="s">
+      <c r="B3" s="12"/>
+      <c r="H3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="17" t="s">
+      <c r="M3" s="13"/>
+      <c r="O3" s="14"/>
+      <c r="T3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="18"/>
-      <c r="AA3" s="20" t="str">
+      <c r="Y3" s="16"/>
+      <c r="AA3" s="18" t="str">
         <f>IF(AB7="","",AB7)</f>
         <v/>
       </c>
-      <c r="AB3" s="13"/>
-      <c r="AD3" s="13"/>
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="H4" s="21"/>
-      <c r="M4" s="15"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="H4" s="19"/>
+      <c r="M4" s="13"/>
+      <c r="O4" s="14"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="18"/>
-      <c r="AA4" s="22" t="s">
+      <c r="Y4" s="16"/>
+      <c r="AA4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AB4" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD4" s="13"/>
+      <c r="AB4" s="21" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="H5" s="117" t="s">
+      <c r="B5" s="12"/>
+      <c r="H5" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="17" t="s">
+      <c r="M5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="T5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="18"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="13"/>
-      <c r="AD5" s="13"/>
+      <c r="Y5" s="16"/>
+      <c r="AA5" s="20"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="29"/>
-      <c r="AA6" s="30" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="27"/>
+      <c r="AA6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AB6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="13" t="s">
+      <c r="AD6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13" t="s">
+      <c r="P7" s="103"/>
+      <c r="Q7" s="29"/>
+      <c r="W7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="X7" s="32" t="str">
+      <c r="X7" s="30" t="str">
         <f>IF(Y7&lt;&gt;"",Y7,IF(AB9="","",AB9))</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="Y7" s="33" t="s">
+      <c r="Y7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AA7" s="22" t="s">
+      <c r="AA7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="35" t="str">
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="33" t="str">
         <f t="shared" ref="AC7:AC17" si="0">IF(AB7&lt;&gt;AD7,"Change","")</f>
         <v>Change</v>
       </c>
-      <c r="AD7" s="36" t="str">
+      <c r="AD7" s="34" t="str">
         <f>IF(OR(AA2="",AA2=0),"",AA2)</f>
         <v>Page1,Page2</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="121" t="str">
+      <c r="P8" s="104" t="str">
         <f>IF(AB8="","",AB8)</f>
         <v/>
       </c>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="39" t="s">
+      <c r="Q8" s="36"/>
+      <c r="T8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="41"/>
-      <c r="AA8" s="22" t="s">
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="38"/>
+      <c r="AA8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AB8" s="123"/>
-      <c r="AC8" s="35" t="str">
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD8" s="124" t="str">
+      <c r="AD8" s="107" t="str">
         <f>IF(P7="","",P7)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="42" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="44" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="46" t="s">
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="48"/>
-      <c r="AA9" s="22" t="s">
+      <c r="X9" s="42"/>
+      <c r="Y9" s="44"/>
+      <c r="AA9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="35" t="str">
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Change</v>
       </c>
-      <c r="AD9" s="50" t="str">
+      <c r="AD9" s="46" t="str">
         <f>IF(X7="","",X7)</f>
         <v>Eugene Mah</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="51"/>
-      <c r="E10" s="52" t="s">
+      <c r="B10" s="12"/>
+      <c r="E10" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="138" t="str">
+      <c r="F10" s="121" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="138"/>
-      <c r="J10" s="52" t="s">
+      <c r="G10" s="121"/>
+      <c r="J10" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="138" t="str">
+      <c r="K10" s="121" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="138"/>
-      <c r="M10" s="15"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="22" t="s">
+      <c r="L10" s="121"/>
+      <c r="M10" s="13"/>
+      <c r="O10" s="49"/>
+      <c r="Q10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="32" t="str">
+      <c r="R10" s="30" t="str">
         <f>IF(S10&lt;&gt;"",S10,IF(AB10="","",AB10))</f>
         <v/>
       </c>
-      <c r="S10" s="33"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="22" t="s">
+      <c r="S10" s="31"/>
+      <c r="U10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="V10" s="32" t="str">
+      <c r="V10" s="30" t="str">
         <f>IF(W10&lt;&gt;"",W10,IF(AB15="","",AB15))</f>
         <v/>
       </c>
-      <c r="W10" s="33"/>
-      <c r="Y10" s="56"/>
-      <c r="AA10" s="22" t="s">
+      <c r="W10" s="31"/>
+      <c r="Y10" s="50"/>
+      <c r="AA10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="35" t="str">
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD10" s="50" t="str">
+      <c r="AD10" s="46" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="51"/>
-      <c r="E11" s="52" t="s">
+      <c r="B11" s="12"/>
+      <c r="E11" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="151" t="str">
+      <c r="F11" s="122" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="151"/>
-      <c r="J11" s="52" t="s">
+      <c r="G11" s="122"/>
+      <c r="J11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="151" t="str">
+      <c r="K11" s="122" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="151"/>
-      <c r="M11" s="15"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="22" t="s">
+      <c r="L11" s="122"/>
+      <c r="M11" s="13"/>
+      <c r="O11" s="49"/>
+      <c r="Q11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="32" t="str">
+      <c r="R11" s="30" t="str">
         <f>IF(S11&lt;&gt;"",S11,IF(AB11="","",AB11))</f>
         <v/>
       </c>
-      <c r="S11" s="33"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="22" t="s">
+      <c r="S11" s="31"/>
+      <c r="U11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="32" t="str">
+      <c r="V11" s="30" t="str">
         <f>IF(W11&lt;&gt;"",W11,IF(AB16="","",AB16))</f>
         <v/>
       </c>
-      <c r="W11" s="33"/>
-      <c r="Y11" s="56"/>
-      <c r="AA11" s="22" t="s">
+      <c r="W11" s="31"/>
+      <c r="Y11" s="50"/>
+      <c r="AA11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="35" t="str">
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD11" s="50" t="str">
+      <c r="AD11" s="46" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="51"/>
-      <c r="E12" s="52" t="s">
+      <c r="B12" s="12"/>
+      <c r="E12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="151" t="str">
+      <c r="F12" s="122" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="151"/>
-      <c r="J12" s="52" t="s">
+      <c r="G12" s="122"/>
+      <c r="J12" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="153" t="str">
+      <c r="K12" s="123" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="153"/>
-      <c r="M12" s="15"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="22" t="s">
+      <c r="L12" s="123"/>
+      <c r="M12" s="13"/>
+      <c r="O12" s="49"/>
+      <c r="Q12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="32" t="str">
+      <c r="R12" s="30" t="str">
         <f>IF(S12&lt;&gt;"",S12,IF(AB12="","",AB12))</f>
         <v/>
       </c>
-      <c r="S12" s="33"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="22" t="s">
+      <c r="S12" s="31"/>
+      <c r="U12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="V12" s="57" t="str">
+      <c r="V12" s="51" t="str">
         <f>IF(W12&lt;&gt;"",W12,IF(AB17="","",AB17))</f>
         <v/>
       </c>
-      <c r="W12" s="58"/>
-      <c r="Y12" s="56"/>
-      <c r="AA12" s="22" t="s">
+      <c r="W12" s="52"/>
+      <c r="Y12" s="50"/>
+      <c r="AA12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="35" t="str">
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD12" s="50" t="str">
+      <c r="AD12" s="46" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="51"/>
-      <c r="E13" s="52" t="s">
+      <c r="B13" s="12"/>
+      <c r="E13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="151" t="str">
+      <c r="F13" s="122" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="151"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="15"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="22" t="s">
+      <c r="G13" s="122"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="13"/>
+      <c r="O13" s="49"/>
+      <c r="Q13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="59" t="str">
+      <c r="R13" s="30" t="str">
         <f>IF(S13&lt;&gt;"",S13,IF(AB13="","",AB13))</f>
         <v/>
       </c>
-      <c r="S13" s="60"/>
-      <c r="T13" s="13"/>
+      <c r="S13" s="31"/>
       <c r="V13" s="3" t="str">
         <f>IF(W13&lt;&gt;"",W13,IF(AB18="","",AB18))</f>
         <v/>
       </c>
-      <c r="Y13" s="56"/>
-      <c r="AA13" s="22" t="s">
+      <c r="Y13" s="50"/>
+      <c r="AA13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="35" t="str">
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD13" s="50" t="str">
+      <c r="AD13" s="46" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="51"/>
-      <c r="M14" s="15"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="22" t="s">
+      <c r="B14" s="12"/>
+      <c r="M14" s="13"/>
+      <c r="O14" s="49"/>
+      <c r="Q14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="32" t="str">
+      <c r="R14" s="30" t="str">
         <f>IF(S14&lt;&gt;"",S14,IF(AB14="","",AB14))</f>
         <v/>
       </c>
-      <c r="S14" s="33"/>
-      <c r="T14" s="13"/>
+      <c r="S14" s="31"/>
       <c r="V14" s="3" t="str">
         <f>IF(W14&lt;&gt;"",W14,IF(AB19="","",AB19))</f>
         <v/>
       </c>
-      <c r="Y14" s="56"/>
-      <c r="AA14" s="22" t="s">
+      <c r="Y14" s="50"/>
+      <c r="AA14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="35" t="str">
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD14" s="50" t="str">
+      <c r="AD14" s="46" t="str">
         <f>IF(R14="","",R14)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="61" t="s">
+      <c r="B15" s="12"/>
+      <c r="D15" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="O15" s="55"/>
-      <c r="Y15" s="56"/>
-      <c r="AA15" s="22" t="s">
+      <c r="M15" s="13"/>
+      <c r="O15" s="49"/>
+      <c r="Y15" s="50"/>
+      <c r="AA15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="35" t="str">
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD15" s="50" t="str">
+      <c r="AD15" s="46" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="51"/>
-      <c r="E16" s="52" t="s">
+      <c r="B16" s="12"/>
+      <c r="E16" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="138" t="str">
+      <c r="F16" s="121" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="138"/>
-      <c r="J16" s="52" t="s">
+      <c r="G16" s="121"/>
+      <c r="J16" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="150" t="str">
+      <c r="K16" s="125" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="150"/>
-      <c r="M16" s="15"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="62" t="s">
+      <c r="L16" s="125"/>
+      <c r="M16" s="13"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="Y16" s="56"/>
-      <c r="AA16" s="22" t="s">
+      <c r="Y16" s="50"/>
+      <c r="AA16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="35" t="str">
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD16" s="50" t="str">
+      <c r="AD16" s="46" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="51"/>
-      <c r="E17" s="52" t="s">
+      <c r="B17" s="12"/>
+      <c r="E17" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="138" t="str">
+      <c r="F17" s="121" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="138"/>
-      <c r="J17" s="52" t="s">
+      <c r="G17" s="121"/>
+      <c r="J17" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="138" t="str">
+      <c r="K17" s="121" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="138"/>
-      <c r="M17" s="15"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="22" t="s">
+      <c r="L17" s="121"/>
+      <c r="M17" s="13"/>
+      <c r="O17" s="49"/>
+      <c r="Q17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="R17" s="32" t="str">
+      <c r="R17" s="30" t="str">
         <f>IF(S17&lt;&gt;"",S17,IF(AB21="","",AB21))</f>
         <v/>
       </c>
-      <c r="S17" s="33"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="22" t="s">
+      <c r="S17" s="31"/>
+      <c r="U17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V17" s="57" t="str">
+      <c r="V17" s="51" t="str">
         <f>IF(W17&lt;&gt;"",W17,IF(AB24="","",AB24))</f>
         <v/>
       </c>
-      <c r="W17" s="58"/>
-      <c r="Y17" s="56"/>
-      <c r="AA17" s="22" t="s">
+      <c r="W17" s="52"/>
+      <c r="Y17" s="50"/>
+      <c r="AA17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="35" t="str">
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD17" s="64" t="str">
+      <c r="AD17" s="56" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="51"/>
-      <c r="E18" s="52" t="s">
+      <c r="B18" s="12"/>
+      <c r="E18" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="138" t="str">
+      <c r="F18" s="121" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="138"/>
-      <c r="J18" s="52" t="s">
+      <c r="G18" s="121"/>
+      <c r="J18" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="138" t="str">
+      <c r="K18" s="121" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="138"/>
-      <c r="M18" s="15"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="22" t="s">
+      <c r="L18" s="121"/>
+      <c r="M18" s="13"/>
+      <c r="O18" s="49"/>
+      <c r="Q18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="32" t="str">
+      <c r="R18" s="30" t="str">
         <f>IF(S18&lt;&gt;"",S18,IF(AB22="","",AB22))</f>
         <v/>
       </c>
-      <c r="S18" s="33"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="22" t="s">
+      <c r="S18" s="31"/>
+      <c r="U18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="V18" s="59" t="str">
+      <c r="V18" s="30" t="str">
         <f>IF(W18&lt;&gt;"",W18,IF(AB25="","",AB25))</f>
         <v/>
       </c>
-      <c r="W18" s="33"/>
-      <c r="Y18" s="56"/>
+      <c r="W18" s="31"/>
+      <c r="Y18" s="50"/>
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="51"/>
-      <c r="M19" s="15"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="22" t="s">
+      <c r="B19" s="12"/>
+      <c r="M19" s="13"/>
+      <c r="O19" s="49"/>
+      <c r="Q19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="R19" s="59" t="str">
+      <c r="R19" s="30" t="str">
         <f>IF(S19&lt;&gt;"",S19,IF(AB23="","",AB23))</f>
         <v/>
       </c>
-      <c r="S19" s="33"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="22" t="s">
+      <c r="S19" s="31"/>
+      <c r="U19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="V19" s="59" t="str">
+      <c r="V19" s="30" t="str">
         <f>IF(W19&lt;&gt;"",W19,IF(AB26="","",AB26))</f>
         <v/>
       </c>
-      <c r="W19" s="33"/>
-      <c r="Y19" s="56"/>
+      <c r="W19" s="31"/>
+      <c r="Y19" s="50"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="61" t="s">
+      <c r="B20" s="12"/>
+      <c r="D20" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="65" t="s">
+      <c r="J20" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="Y20" s="56"/>
-      <c r="AA20" s="30" t="s">
+      <c r="M20" s="13"/>
+      <c r="O20" s="49"/>
+      <c r="Y20" s="50"/>
+      <c r="AA20" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AB20" s="13"/>
-      <c r="AD20" s="13"/>
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="51"/>
-      <c r="E21" s="52" t="s">
+      <c r="B21" s="12"/>
+      <c r="E21" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="138" t="str">
+      <c r="F21" s="121" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="138"/>
-      <c r="J21" s="52" t="s">
+      <c r="G21" s="121"/>
+      <c r="J21" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="138" t="str">
+      <c r="K21" s="121" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L21" s="138"/>
-      <c r="M21" s="15"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="62" t="s">
+      <c r="L21" s="121"/>
+      <c r="M21" s="13"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="66" t="s">
+      <c r="U21" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="Y21" s="56"/>
-      <c r="AA21" s="22" t="s">
+      <c r="Y21" s="50"/>
+      <c r="AA21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AB21" s="49"/>
-      <c r="AC21" s="35" t="str">
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="33" t="str">
         <f t="shared" ref="AC21:AC26" si="1">IF(AB21&lt;&gt;AD21,"Change","")</f>
         <v/>
       </c>
-      <c r="AD21" s="50" t="str">
+      <c r="AD21" s="46" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="51"/>
-      <c r="E22" s="52" t="s">
+      <c r="B22" s="12"/>
+      <c r="E22" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="150" t="str">
+      <c r="F22" s="125" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="150"/>
-      <c r="J22" s="52" t="s">
+      <c r="G22" s="125"/>
+      <c r="J22" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="138" t="str">
+      <c r="K22" s="121" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
-      <c r="L22" s="138"/>
-      <c r="M22" s="15"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="22" t="s">
+      <c r="L22" s="121"/>
+      <c r="M22" s="13"/>
+      <c r="O22" s="49"/>
+      <c r="Q22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R22" s="32" t="str">
+      <c r="R22" s="30" t="str">
         <f>IF(S22&lt;&gt;"",S22,IF(AB28="","",AB28))</f>
         <v/>
       </c>
-      <c r="S22" s="33"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="22" t="s">
+      <c r="S22" s="31"/>
+      <c r="U22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="V22" s="32" t="str">
+      <c r="V22" s="30" t="str">
         <f>IF(W22&lt;&gt;"",W22,IF(AB36="","",AB36))</f>
         <v/>
       </c>
-      <c r="W22" s="33"/>
-      <c r="Y22" s="56"/>
-      <c r="AA22" s="22" t="s">
+      <c r="W22" s="31"/>
+      <c r="Y22" s="50"/>
+      <c r="AA22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="35" t="str">
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD22" s="50" t="str">
+      <c r="AD22" s="46" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="61" t="s">
+      <c r="B23" s="12"/>
+      <c r="D23" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="52" t="s">
+      <c r="J23" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="138" t="str">
+      <c r="K23" s="121" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="138"/>
-      <c r="M23" s="15"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="22" t="s">
+      <c r="L23" s="121"/>
+      <c r="M23" s="13"/>
+      <c r="O23" s="49"/>
+      <c r="Q23" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R23" s="57" t="str">
+      <c r="R23" s="51" t="str">
         <f>IF(S23&lt;&gt;"",S23,IF(AB29="","",AB29))</f>
         <v/>
       </c>
-      <c r="S23" s="58"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="22" t="s">
+      <c r="S23" s="52"/>
+      <c r="U23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="V23" s="32" t="str">
+      <c r="V23" s="30" t="str">
         <f>IF(W23&lt;&gt;"",W23,IF(AB37="","",AB37))</f>
         <v/>
       </c>
-      <c r="W23" s="33"/>
-      <c r="Y23" s="56"/>
-      <c r="AA23" s="22" t="s">
+      <c r="W23" s="31"/>
+      <c r="Y23" s="50"/>
+      <c r="AA23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="35" t="str">
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD23" s="50" t="str">
+      <c r="AD23" s="46" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A24" s="5">
+      <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="51"/>
-      <c r="E24" s="52" t="s">
+      <c r="B24" s="12"/>
+      <c r="E24" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="138" t="str">
+      <c r="F24" s="121" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="138"/>
-      <c r="M24" s="15"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="62" t="s">
+      <c r="G24" s="121"/>
+      <c r="M24" s="13"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="22" t="s">
+      <c r="U24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="V24" s="32" t="str">
+      <c r="V24" s="30" t="str">
         <f>IF(W24&lt;&gt;"",W24,IF(AB38="","",AB38))</f>
         <v/>
       </c>
-      <c r="W24" s="33"/>
-      <c r="Y24" s="56"/>
-      <c r="AA24" s="22" t="s">
+      <c r="W24" s="31"/>
+      <c r="Y24" s="50"/>
+      <c r="AA24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AB24" s="63"/>
-      <c r="AC24" s="35" t="str">
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD24" s="64" t="str">
+      <c r="AD24" s="56" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="51"/>
-      <c r="E25" s="52" t="s">
+      <c r="B25" s="12"/>
+      <c r="E25" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="138" t="str">
+      <c r="F25" s="121" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="138"/>
-      <c r="J25" s="61" t="s">
+      <c r="G25" s="121"/>
+      <c r="J25" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="22" t="s">
+      <c r="M25" s="13"/>
+      <c r="O25" s="49"/>
+      <c r="Q25" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="59" t="str">
+      <c r="R25" s="30" t="str">
         <f>IF(S25&lt;&gt;"",S25,IF(AB30="","",AB30))</f>
         <v/>
       </c>
-      <c r="S25" s="33"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="Y25" s="56"/>
-      <c r="AA25" s="22" t="s">
+      <c r="S25" s="31"/>
+      <c r="Y25" s="50"/>
+      <c r="AA25" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="35" t="str">
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD25" s="50" t="str">
+      <c r="AD25" s="46" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A26" s="5">
+      <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="51"/>
-      <c r="E26" s="52" t="s">
+      <c r="B26" s="12"/>
+      <c r="E26" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="138" t="str">
+      <c r="F26" s="121" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="138"/>
-      <c r="J26" s="52" t="s">
+      <c r="G26" s="121"/>
+      <c r="J26" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="138" t="str">
+      <c r="K26" s="121" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
-      <c r="L26" s="138"/>
-      <c r="M26" s="15"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="22" t="s">
+      <c r="L26" s="121"/>
+      <c r="M26" s="13"/>
+      <c r="O26" s="49"/>
+      <c r="Q26" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R26" s="59" t="str">
+      <c r="R26" s="30" t="str">
         <f>IF(S26&lt;&gt;"",S26,IF(AB31="","",AB31))</f>
         <v/>
       </c>
-      <c r="S26" s="60"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="62" t="s">
+      <c r="S26" s="31"/>
+      <c r="U26" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="Y26" s="56"/>
-      <c r="AA26" s="22" t="s">
+      <c r="Y26" s="50"/>
+      <c r="AA26" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="35" t="str">
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD26" s="50" t="str">
+      <c r="AD26" s="46" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A27" s="5">
+      <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="61" t="s">
+      <c r="B27" s="12"/>
+      <c r="D27" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="52" t="s">
+      <c r="J27" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="138" t="str">
+      <c r="K27" s="121" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="138"/>
-      <c r="M27" s="15"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="22" t="s">
+      <c r="L27" s="121"/>
+      <c r="M27" s="13"/>
+      <c r="O27" s="49"/>
+      <c r="Q27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R27" s="59" t="str">
+      <c r="R27" s="30" t="str">
         <f>IF(S27&lt;&gt;"",S27,IF(AB32="","",AB32))</f>
         <v/>
       </c>
-      <c r="S27" s="60"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="22" t="s">
+      <c r="S27" s="31"/>
+      <c r="U27" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="V27" s="32" t="str">
+      <c r="V27" s="30" t="str">
         <f>IF(W27&lt;&gt;"",W27,IF(AB39="","",AB39))</f>
         <v/>
       </c>
-      <c r="W27" s="33"/>
-      <c r="Y27" s="56"/>
-      <c r="AA27" s="62" t="s">
+      <c r="W27" s="31"/>
+      <c r="Y27" s="50"/>
+      <c r="AA27" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AB27" s="13"/>
-      <c r="AD27" s="13"/>
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A28" s="5">
+      <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="51"/>
-      <c r="E28" s="52" t="s">
+      <c r="B28" s="12"/>
+      <c r="E28" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="138" t="str">
+      <c r="F28" s="121" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="138"/>
-      <c r="M28" s="15"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="62" t="s">
+      <c r="G28" s="121"/>
+      <c r="M28" s="13"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="22" t="s">
+      <c r="U28" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="V28" s="32" t="str">
+      <c r="V28" s="30" t="str">
         <f>IF(W28&lt;&gt;"",W28,IF(AB40="","",AB40))</f>
         <v/>
       </c>
-      <c r="W28" s="33"/>
-      <c r="Y28" s="56"/>
-      <c r="AA28" s="22" t="s">
+      <c r="W28" s="31"/>
+      <c r="Y28" s="50"/>
+      <c r="AA28" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AB28" s="49"/>
-      <c r="AC28" s="35" t="str">
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="33" t="str">
         <f t="shared" ref="AC28:AC40" si="2">IF(AB28&lt;&gt;AD28,"Change","")</f>
         <v/>
       </c>
-      <c r="AD28" s="50" t="str">
+      <c r="AD28" s="46" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A29" s="5">
+      <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="51"/>
-      <c r="E29" s="52" t="s">
+      <c r="B29" s="12"/>
+      <c r="E29" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="138" t="str">
+      <c r="F29" s="121" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="138"/>
-      <c r="M29" s="15"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="22" t="s">
+      <c r="G29" s="121"/>
+      <c r="M29" s="13"/>
+      <c r="O29" s="49"/>
+      <c r="Q29" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="R29" s="59" t="str">
+      <c r="R29" s="30" t="str">
         <f>IF(S29&lt;&gt;"",S29,IF(AB33="","",AB33))</f>
         <v/>
       </c>
-      <c r="S29" s="33"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="Y29" s="56"/>
-      <c r="AA29" s="22" t="s">
+      <c r="S29" s="31"/>
+      <c r="Y29" s="50"/>
+      <c r="AA29" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AB29" s="63"/>
-      <c r="AC29" s="35" t="str">
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD29" s="64" t="str">
+      <c r="AD29" s="56" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A30" s="5">
+      <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="51"/>
-      <c r="E30" s="52" t="s">
+      <c r="B30" s="12"/>
+      <c r="E30" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="138" t="str">
+      <c r="F30" s="121" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="138"/>
-      <c r="M30" s="15"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="22" t="s">
+      <c r="G30" s="121"/>
+      <c r="M30" s="13"/>
+      <c r="O30" s="49"/>
+      <c r="Q30" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R30" s="59" t="str">
+      <c r="R30" s="30" t="str">
         <f>IF(S30&lt;&gt;"",S30,IF(AB34="","",AB34))</f>
         <v/>
       </c>
-      <c r="S30" s="60"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="Y30" s="56"/>
-      <c r="AA30" s="22" t="s">
+      <c r="S30" s="31"/>
+      <c r="Y30" s="50"/>
+      <c r="AA30" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AB30" s="49"/>
-      <c r="AC30" s="35" t="str">
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD30" s="50" t="str">
+      <c r="AD30" s="46" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="5">
+      <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="26"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="22" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24"/>
+      <c r="O31" s="49"/>
+      <c r="Q31" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R31" s="59" t="str">
+      <c r="R31" s="30" t="str">
         <f>IF(S31&lt;&gt;"",S31,IF(AB35="","",AB35))</f>
         <v/>
       </c>
-      <c r="S31" s="60"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="Y31" s="56"/>
-      <c r="AA31" s="22" t="s">
+      <c r="S31" s="31"/>
+      <c r="Y31" s="50"/>
+      <c r="AA31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="35" t="str">
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD31" s="50" t="str">
+      <c r="AD31" s="46" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A32" s="5">
+      <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="O32" s="67"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="69"/>
-      <c r="AA32" s="22" t="s">
+      <c r="O32" s="59"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="61"/>
+      <c r="AA32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="35" t="str">
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD32" s="50" t="str">
+      <c r="AD32" s="46" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="5">
+      <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="70" t="str">
+      <c r="M33" s="62" t="str">
         <f>$H$5</f>
         <v>Bone Mineral Density Compliance Inspection</v>
       </c>
-      <c r="AA33" s="22" t="s">
+      <c r="AA33" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AB33" s="49"/>
-      <c r="AC33" s="35" t="str">
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD33" s="50" t="str">
+      <c r="AD33" s="46" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A34" s="5">
+      <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="42" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="42" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="139" t="s">
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="139"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="39" t="s">
+      <c r="M34" s="131"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="AA34" s="22" t="s">
+      <c r="AA34" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AB34" s="49"/>
-      <c r="AC34" s="35" t="str">
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD34" s="50" t="str">
+      <c r="AD34" s="46" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A35" s="5">
+      <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="71" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="72" t="s">
+      <c r="E35" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="73" t="str">
+      <c r="L35" s="64" t="str">
         <f>IF(O37="","TBD",IF(O37=1,"YES",IF(O37=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M35" s="78" t="str">
+      <c r="M35" s="67" t="str">
         <f>IF(O37=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O35" s="74" t="s">
+      <c r="O35" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="11"/>
-      <c r="AA35" s="22" t="s">
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="10"/>
+      <c r="AA35" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AB35" s="49"/>
-      <c r="AC35" s="35" t="str">
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD35" s="50" t="str">
+      <c r="AD35" s="46" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A36" s="5">
+      <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="72" t="s">
+      <c r="B36" s="12"/>
+      <c r="C36" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="L36" s="73" t="str">
+      <c r="E36" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="L36" s="64" t="str">
         <f>IF(O38="","TBD",IF(O38=1,"YES",IF(O38=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M36" s="78" t="str">
+      <c r="M36" s="67" t="str">
         <f>IF(O38=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O36" s="75"/>
-      <c r="T36" s="39" t="s">
+      <c r="O36" s="14"/>
+      <c r="T36" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="Y36" s="76"/>
-      <c r="AA36" s="22" t="s">
+      <c r="Y36" s="16"/>
+      <c r="AA36" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AB36" s="49"/>
-      <c r="AC36" s="35" t="str">
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD36" s="50" t="str">
+      <c r="AD36" s="46" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A37" s="5">
+      <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="71" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="L37" s="73" t="str">
+      <c r="L37" s="64" t="str">
         <f>IF(O39="","TBD",IF(O39=1,"YES",IF(O39=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M37" s="78" t="str">
+      <c r="M37" s="67" t="str">
         <f>IF(O39=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O37" s="77"/>
-      <c r="P37" s="23" t="s">
+      <c r="O37" s="66"/>
+      <c r="P37" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="Y37" s="76"/>
-      <c r="AA37" s="22" t="s">
+      <c r="Y37" s="16"/>
+      <c r="AA37" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AB37" s="49"/>
-      <c r="AC37" s="35" t="str">
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD37" s="50" t="str">
+      <c r="AD37" s="46" t="str">
         <f>IF(V23="","",V23)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A38" s="5">
+      <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="71"/>
-      <c r="E38" s="72" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="63"/>
+      <c r="E38" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="L38" s="73" t="str">
+      <c r="L38" s="64" t="str">
         <f>IF(O40="","TBD",IF(O40=1,"YES",IF(O40=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M38" s="78" t="str">
+      <c r="M38" s="67" t="str">
         <f>IF(O40=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O38" s="77"/>
-      <c r="P38" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y38" s="76"/>
-      <c r="AA38" s="22" t="s">
+      <c r="O38" s="66"/>
+      <c r="P38" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y38" s="16"/>
+      <c r="AA38" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AB38" s="49"/>
-      <c r="AC38" s="35" t="str">
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD38" s="50" t="str">
+      <c r="AD38" s="46" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A39" s="5">
+      <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="71"/>
-      <c r="E39" s="72" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="63"/>
+      <c r="E39" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="L39" s="73" t="str">
+      <c r="L39" s="64" t="str">
         <f>IF(O41="","TBD",IF(O41=1,"YES",IF(O41=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M39" s="78" t="str">
+      <c r="M39" s="67" t="str">
         <f>IF(O41=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O39" s="77"/>
-      <c r="P39" s="23" t="s">
+      <c r="O39" s="66"/>
+      <c r="P39" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Y39" s="76"/>
-      <c r="AA39" s="22" t="s">
+      <c r="Y39" s="16"/>
+      <c r="AA39" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="35" t="str">
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD39" s="50" t="str">
+      <c r="AD39" s="46" t="str">
         <f>IF(V27="","",V27)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A40" s="5">
+      <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="71"/>
-      <c r="E40" s="72"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="78"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="23" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="67"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="Y40" s="76"/>
-      <c r="AA40" s="22" t="s">
+      <c r="Y40" s="16"/>
+      <c r="AA40" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AB40" s="49"/>
-      <c r="AC40" s="35" t="str">
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD40" s="50" t="str">
+      <c r="AD40" s="46" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A41" s="5">
+      <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="71"/>
-      <c r="F41" s="61" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="63"/>
+      <c r="F41" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="L41" s="21"/>
-      <c r="M41" s="79"/>
-      <c r="O41" s="77"/>
-      <c r="P41" s="23" t="s">
+      <c r="L41" s="19"/>
+      <c r="M41" s="68"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="Y41" s="76"/>
+      <c r="Y41" s="16"/>
     </row>
     <row r="42" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A42" s="5">
+      <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="71"/>
-      <c r="E42" s="72" t="s">
+      <c r="B42" s="12"/>
+      <c r="C42" s="63"/>
+      <c r="E42" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="L42" s="73" t="str">
+      <c r="L42" s="64" t="str">
         <f>IF(O44="","TBD",IF(O44=1,"YES",IF(O44=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M42" s="78" t="str">
+      <c r="M42" s="67" t="str">
         <f>IF(O44=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O42" s="75"/>
-      <c r="Y42" s="76"/>
-      <c r="AA42" s="22" t="s">
+      <c r="O42" s="14"/>
+      <c r="Y42" s="16"/>
+      <c r="AA42" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AB42" s="49"/>
-      <c r="AC42" s="35" t="str">
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="33" t="str">
         <f>IF(AB42&lt;&gt;AD42,"Change","")</f>
         <v>Change</v>
       </c>
-      <c r="AD42" s="50" t="str">
+      <c r="AD42" s="46" t="str">
         <f>IF(U94="","",U94)</f>
         <v>Piranha CB2-17090320</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A43" s="5">
+      <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="71" t="s">
-        <v>115</v>
+      <c r="B43" s="12"/>
+      <c r="C43" s="63" t="s">
+        <v>113</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L43" s="73" t="str">
+      <c r="L43" s="64" t="str">
         <f>IF(O45="","TBD",IF(O45=1,"YES",IF(O45=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M43" s="78" t="str">
+      <c r="M43" s="67" t="str">
         <f>IF(O45=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O43" s="75"/>
-      <c r="T43" s="39" t="s">
+      <c r="O43" s="14"/>
+      <c r="T43" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="Y43" s="76"/>
-      <c r="AA43" s="22" t="s">
+      <c r="Y43" s="16"/>
+      <c r="AA43" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AB43" s="49"/>
-      <c r="AC43" s="35" t="str">
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="33" t="str">
         <f>IF(AB43&lt;&gt;AD43,"Change","")</f>
         <v>Change</v>
       </c>
-      <c r="AD43" s="50" t="str">
+      <c r="AD43" s="46" t="str">
         <f>IF(X95="","",X95)</f>
         <v>R100B</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A44" s="5">
+      <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="79"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="23" t="s">
+      <c r="B44" s="12"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="68"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="Y44" s="76"/>
+      <c r="Y44" s="16"/>
     </row>
     <row r="45" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A45" s="5">
+      <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="51"/>
-      <c r="F45" s="61" t="s">
+      <c r="B45" s="12"/>
+      <c r="F45" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="L45" s="21"/>
-      <c r="M45" s="79"/>
-      <c r="O45" s="77"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="68"/>
+      <c r="O45" s="66"/>
       <c r="P45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Y45" s="76"/>
+      <c r="Y45" s="16"/>
     </row>
     <row r="46" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A46" s="5">
+      <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="51"/>
-      <c r="E46" s="72" t="s">
+      <c r="B46" s="12"/>
+      <c r="E46" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="L46" s="73" t="str">
+      <c r="L46" s="64" t="str">
         <f>IF(O48="","TBD",IF(O48=1,"YES",IF(O48=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M46" s="78" t="str">
+      <c r="M46" s="67" t="str">
         <f>IF(O48=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O46" s="75"/>
-      <c r="Y46" s="76"/>
+      <c r="O46" s="14"/>
+      <c r="Y46" s="16"/>
     </row>
     <row r="47" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A47" s="5">
+      <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="51"/>
-      <c r="E47" s="72" t="s">
+      <c r="B47" s="12"/>
+      <c r="E47" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="L47" s="73" t="str">
+      <c r="L47" s="64" t="str">
         <f>IF(O49="","TBD",IF(O49=1,"YES",IF(O49=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M47" s="78" t="str">
+      <c r="M47" s="67" t="str">
         <f>IF(O49=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O47" s="75"/>
-      <c r="T47" s="39" t="s">
+      <c r="O47" s="14"/>
+      <c r="T47" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="Y47" s="76"/>
+      <c r="Y47" s="16"/>
     </row>
     <row r="48" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A48" s="5">
+      <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="51"/>
-      <c r="E48" s="72" t="s">
+      <c r="B48" s="12"/>
+      <c r="E48" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="L48" s="73" t="str">
+      <c r="L48" s="64" t="str">
         <f>IF(O50="","TBD",IF(O50=1,"YES",IF(O50=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M48" s="78" t="str">
+      <c r="M48" s="67" t="str">
         <f>IF(O50=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O48" s="77"/>
-      <c r="P48" s="23" t="s">
+      <c r="O48" s="66"/>
+      <c r="P48" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y48" s="76"/>
+      <c r="Y48" s="16"/>
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A49" s="5">
+      <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="51"/>
-      <c r="E49" s="72" t="s">
+      <c r="B49" s="12"/>
+      <c r="E49" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="L49" s="73" t="str">
+      <c r="L49" s="64" t="str">
         <f>IF(O51="","TBD",IF(O51=1,"YES",IF(O51=3,"NA","")))</f>
         <v>TBD</v>
       </c>
-      <c r="M49" s="78" t="str">
+      <c r="M49" s="67" t="str">
         <f>IF(O51=2,"NO","")</f>
         <v/>
       </c>
-      <c r="O49" s="77"/>
-      <c r="P49" s="23" t="s">
+      <c r="O49" s="66"/>
+      <c r="P49" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Y49" s="76"/>
+      <c r="Y49" s="16"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A50" s="5">
+      <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="136" t="str">
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="118" t="str">
         <f>IF(O52="","TBD",IF(O52=1,"YES",IF(O52=3,"NA","")))</f>
         <v>NA</v>
       </c>
-      <c r="M50" s="26"/>
-      <c r="O50" s="77"/>
-      <c r="P50" s="23" t="s">
+      <c r="M50" s="24"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="Y50" s="76"/>
+      <c r="Y50" s="16"/>
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A51" s="5">
+      <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="O51" s="77"/>
-      <c r="P51" s="23" t="s">
+      <c r="O51" s="66"/>
+      <c r="P51" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="Y51" s="76"/>
+      <c r="Y51" s="16"/>
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="5">
+      <c r="A52" s="1">
         <v>52</v>
       </c>
-      <c r="H52" s="37"/>
-      <c r="O52" s="135">
+      <c r="H52" s="35"/>
+      <c r="O52" s="117">
         <v>3</v>
       </c>
-      <c r="P52" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="81"/>
-      <c r="T52" s="81"/>
-      <c r="U52" s="81"/>
-      <c r="V52" s="81"/>
-      <c r="W52" s="81"/>
-      <c r="X52" s="81"/>
-      <c r="Y52" s="82"/>
+      <c r="P52" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="26"/>
+      <c r="W52" s="26"/>
+      <c r="X52" s="26"/>
+      <c r="Y52" s="27"/>
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A53" s="5">
+      <c r="A53" s="1">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A54" s="5">
+      <c r="A54" s="1">
         <v>54</v>
       </c>
-      <c r="O54" s="83" t="s">
+      <c r="O54" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="85" t="s">
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="W54" s="84"/>
-      <c r="X54" s="84"/>
-      <c r="Y54" s="86"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="10"/>
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A55" s="5">
+      <c r="A55" s="1">
         <v>55</v>
       </c>
-      <c r="O55" s="75"/>
-      <c r="S55" s="140" t="s">
+      <c r="O55" s="14"/>
+      <c r="S55" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="T55" s="140"/>
-      <c r="Y55" s="76"/>
+      <c r="T55" s="124"/>
+      <c r="Y55" s="16"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A56" s="5">
+      <c r="A56" s="1">
         <v>56</v>
       </c>
-      <c r="O56" s="87" t="s">
+      <c r="O56" s="71" t="s">
         <v>67</v>
       </c>
       <c r="P56" s="4" t="s">
@@ -3709,311 +3583,311 @@
       <c r="W56" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Y56" s="76"/>
+      <c r="Y56" s="16"/>
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A57" s="5">
+      <c r="A57" s="1">
         <v>57</v>
       </c>
-      <c r="O57" s="88" t="s">
+      <c r="O57" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="P57" s="89" t="s">
+      <c r="P57" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="Q57" s="89">
+      <c r="Q57" s="73">
         <v>2.5</v>
       </c>
-      <c r="R57" s="89">
+      <c r="R57" s="73">
         <v>163</v>
       </c>
-      <c r="S57" s="89">
+      <c r="S57" s="73">
         <f>4.5*2.54</f>
         <v>11.43</v>
       </c>
-      <c r="T57" s="89">
+      <c r="T57" s="73">
         <f>8*2.54</f>
         <v>20.32</v>
       </c>
-      <c r="V57" s="89" t="s">
+      <c r="V57" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="W57" s="89"/>
-      <c r="Y57" s="76"/>
+      <c r="W57" s="73"/>
+      <c r="Y57" s="16"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A58" s="5">
+      <c r="A58" s="1">
         <v>58</v>
       </c>
-      <c r="O58" s="88" t="s">
+      <c r="O58" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="P58" s="89" t="s">
+      <c r="P58" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="Q58" s="89">
+      <c r="Q58" s="73">
         <v>2.5</v>
       </c>
-      <c r="R58" s="89">
+      <c r="R58" s="73">
         <v>82</v>
       </c>
-      <c r="S58" s="89">
+      <c r="S58" s="73">
         <v>11.43</v>
       </c>
-      <c r="T58" s="89">
+      <c r="T58" s="73">
         <v>20.32</v>
       </c>
-      <c r="V58" s="89" t="s">
+      <c r="V58" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="W58" s="89"/>
-      <c r="Y58" s="76"/>
+      <c r="W58" s="73"/>
+      <c r="Y58" s="16"/>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A59" s="5">
+      <c r="A59" s="1">
         <v>59</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="122" t="str">
+      <c r="D59" s="105" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
-      <c r="L59" s="52" t="s">
+      <c r="L59" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="M59" s="53" t="str">
+      <c r="M59" s="48" t="str">
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O59" s="88" t="s">
+      <c r="O59" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="P59" s="89" t="s">
+      <c r="P59" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="Q59" s="89">
+      <c r="Q59" s="73">
         <v>2.5</v>
       </c>
-      <c r="R59" s="89">
+      <c r="R59" s="73">
         <v>41</v>
       </c>
-      <c r="S59" s="89">
+      <c r="S59" s="73">
         <f>4.5*2.54</f>
         <v>11.43</v>
       </c>
-      <c r="T59" s="89">
+      <c r="T59" s="73">
         <f>8*2.54</f>
         <v>20.32</v>
       </c>
-      <c r="V59" s="89" t="s">
+      <c r="V59" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="W59" s="89"/>
-      <c r="Y59" s="76"/>
+      <c r="W59" s="73"/>
+      <c r="Y59" s="16"/>
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A60" s="5">
+      <c r="A60" s="1">
         <v>60</v>
       </c>
-      <c r="C60" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="53" t="str">
+      <c r="C60" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="48" t="str">
         <f>IF($R$14="","",$R$14)</f>
         <v/>
       </c>
-      <c r="L60" s="52" t="s">
+      <c r="L60" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="M60" s="54" t="str">
+      <c r="M60" s="48" t="str">
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O60" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="P60" s="89" t="s">
+      <c r="O60" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="P60" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="Q60" s="89">
+      <c r="Q60" s="73">
         <v>2.5</v>
       </c>
-      <c r="R60" s="89">
+      <c r="R60" s="73">
         <v>15</v>
       </c>
-      <c r="S60" s="89">
+      <c r="S60" s="73">
         <f>4.5*2.54</f>
         <v>11.43</v>
       </c>
-      <c r="T60" s="89">
+      <c r="T60" s="73">
         <f>8*2.54</f>
         <v>20.32</v>
       </c>
-      <c r="V60" s="89"/>
-      <c r="W60" s="89"/>
-      <c r="Y60" s="76"/>
+      <c r="V60" s="73"/>
+      <c r="W60" s="73"/>
+      <c r="Y60" s="16"/>
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A61" s="5">
+      <c r="A61" s="1">
         <v>1</v>
       </c>
-      <c r="M61" s="94" t="str">
+      <c r="M61" s="78" t="str">
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O61" s="75"/>
-      <c r="Y61" s="76"/>
+      <c r="O61" s="14"/>
+      <c r="Y61" s="16"/>
     </row>
     <row r="62" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A62" s="5">
+      <c r="A62" s="1">
         <v>2</v>
       </c>
-      <c r="H62" s="37" t="s">
+      <c r="H62" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="M62" s="70" t="str">
+      <c r="M62" s="62" t="str">
         <f>$H$5</f>
         <v>Bone Mineral Density Compliance Inspection</v>
       </c>
-      <c r="O62" s="90" t="s">
+      <c r="O62" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y62" s="16"/>
+    </row>
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A63" s="1">
+        <v>3</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="7"/>
+      <c r="O63" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="Y62" s="76"/>
-    </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A63" s="5">
-        <v>3</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="8"/>
-      <c r="O63" s="91" t="s">
+      <c r="P63" s="73">
+        <v>82</v>
+      </c>
+      <c r="Q63" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P63" s="89">
-        <v>82</v>
-      </c>
-      <c r="Q63" s="3" t="s">
+      <c r="R63" s="73"/>
+      <c r="S63" s="73"/>
+      <c r="T63" s="73"/>
+      <c r="V63" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="R63" s="89"/>
-      <c r="S63" s="89"/>
-      <c r="T63" s="89"/>
-      <c r="V63" s="22" t="s">
+      <c r="W63" s="76" t="str">
+        <f>IF(R63="","",AVERAGE(R63:T63))</f>
+        <v/>
+      </c>
+      <c r="Y63" s="16"/>
+    </row>
+    <row r="64" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A64" s="1">
+        <v>4</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="H64" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="I64" s="134"/>
+      <c r="K64" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="M64" s="13"/>
+      <c r="O64" s="14"/>
+      <c r="Y64" s="16"/>
+    </row>
+    <row r="65" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A65" s="1">
+        <v>5</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="D65" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="K65" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="M65" s="13"/>
+      <c r="O65" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="W63" s="92" t="str">
-        <f>IF(R63="","",AVERAGE(R63:T63))</f>
-        <v/>
-      </c>
-      <c r="Y63" s="76"/>
-    </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A64" s="5">
-        <v>4</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="H64" s="142" t="s">
-        <v>91</v>
-      </c>
-      <c r="I64" s="143"/>
-      <c r="K64" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="M64" s="15"/>
-      <c r="O64" s="75"/>
-      <c r="Y64" s="76"/>
-    </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A65" s="5">
-        <v>5</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="D65" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="F65" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="G65" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="H65" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="I65" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="K65" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="L65" s="111" t="s">
-        <v>73</v>
-      </c>
-      <c r="M65" s="15"/>
-      <c r="O65" s="90" t="s">
+      <c r="U65" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="U65" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y65" s="76"/>
+      <c r="Y65" s="16"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A66" s="5">
+      <c r="A66" s="1">
         <v>6</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="D66" s="97" t="str">
+      <c r="B66" s="12"/>
+      <c r="D66" s="81" t="str">
         <f t="shared" ref="D66:I69" si="3">IF(O57="","",O57)</f>
         <v>High Def</v>
       </c>
-      <c r="E66" s="97" t="str">
+      <c r="E66" s="81" t="str">
         <f t="shared" si="3"/>
         <v>140/100</v>
       </c>
-      <c r="F66" s="97">
+      <c r="F66" s="81">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="G66" s="97">
+      <c r="G66" s="81">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="H66" s="97">
+      <c r="H66" s="81">
         <f t="shared" si="3"/>
         <v>11.43</v>
       </c>
-      <c r="I66" s="97">
+      <c r="I66" s="81">
         <f t="shared" si="3"/>
         <v>20.32</v>
       </c>
-      <c r="K66" s="97" t="str">
+      <c r="K66" s="81" t="str">
         <f t="shared" ref="K66:L69" si="4">IF(V57="","",V57)</f>
         <v>Tableside</v>
       </c>
-      <c r="L66" s="118" t="str">
+      <c r="L66" s="102" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M66" s="15"/>
-      <c r="O66" s="93" t="str">
+      <c r="M66" s="13"/>
+      <c r="O66" s="77" t="str">
         <f>IF(O57="","",O57)</f>
         <v>High Def</v>
       </c>
@@ -4023,243 +3897,258 @@
       <c r="Q66" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R66" s="140" t="s">
+      <c r="R66" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="S66" s="124"/>
+      <c r="T66" s="124"/>
+      <c r="U66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V66" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="S66" s="140"/>
-      <c r="T66" s="140"/>
-      <c r="U66" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="V66" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y66" s="76"/>
+      <c r="Y66" s="16"/>
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A67" s="5">
+      <c r="A67" s="1">
         <v>7</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="D67" s="97" t="str">
+      <c r="B67" s="12"/>
+      <c r="D67" s="81" t="str">
         <f t="shared" si="3"/>
         <v>Array</v>
       </c>
-      <c r="E67" s="97" t="str">
+      <c r="E67" s="81" t="str">
         <f t="shared" si="3"/>
         <v>140/100</v>
       </c>
-      <c r="F67" s="97">
+      <c r="F67" s="81">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="G67" s="97">
+      <c r="G67" s="81">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="H67" s="97">
+      <c r="H67" s="81">
         <f t="shared" si="3"/>
         <v>11.43</v>
       </c>
-      <c r="I67" s="97">
+      <c r="I67" s="81">
         <f t="shared" si="3"/>
         <v>20.32</v>
       </c>
-      <c r="K67" s="97" t="str">
+      <c r="K67" s="81" t="str">
         <f t="shared" si="4"/>
         <v>Operator</v>
       </c>
-      <c r="L67" s="118" t="str">
+      <c r="L67" s="102" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M67" s="15"/>
-      <c r="O67" s="75"/>
-      <c r="P67" s="92" t="str">
+      <c r="M67" s="13"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="76" t="str">
         <f>IF($V$57="","",$V$57)</f>
         <v>Tableside</v>
       </c>
-      <c r="Q67" s="92" t="str">
+      <c r="Q67" s="76" t="str">
         <f>IF($W$57="","",$W$57)</f>
         <v/>
       </c>
-      <c r="R67" s="89"/>
-      <c r="S67" s="89"/>
-      <c r="T67" s="89"/>
-      <c r="U67" s="95" t="str">
+      <c r="R67" s="139" t="str">
+        <f>IF(Sheet2!C5="","",Sheet2!C5)</f>
+        <v/>
+      </c>
+      <c r="S67" s="139" t="str">
+        <f>IF(Sheet2!C6="","",Sheet2!C6)</f>
+        <v/>
+      </c>
+      <c r="T67" s="139" t="str">
+        <f>IF(Sheet2!C7="","",Sheet2!C7)</f>
+        <v/>
+      </c>
+      <c r="U67" s="79" t="str">
         <f>IF(R67="","",AVERAGE(R67:T67)-($W$63*(VLOOKUP($O$66,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V67" s="95" t="str">
+      <c r="V67" s="79" t="str">
         <f>IF(U67="","",U67/(VLOOKUP($O$66,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y67" s="76"/>
+      <c r="Y67" s="16"/>
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A68" s="5">
+      <c r="A68" s="1">
         <v>8</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="D68" s="97" t="str">
+      <c r="B68" s="12"/>
+      <c r="D68" s="81" t="str">
         <f t="shared" si="3"/>
         <v>Fast Array</v>
       </c>
-      <c r="E68" s="97" t="str">
+      <c r="E68" s="81" t="str">
         <f t="shared" si="3"/>
         <v>140/100</v>
       </c>
-      <c r="F68" s="97">
+      <c r="F68" s="81">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="G68" s="97">
+      <c r="G68" s="81">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="H68" s="97">
+      <c r="H68" s="81">
         <f t="shared" si="3"/>
         <v>11.43</v>
       </c>
-      <c r="I68" s="97">
+      <c r="I68" s="81">
         <f t="shared" si="3"/>
         <v>20.32</v>
       </c>
-      <c r="K68" s="97" t="str">
+      <c r="K68" s="81" t="str">
         <f t="shared" si="4"/>
         <v>Door</v>
       </c>
-      <c r="L68" s="118" t="str">
+      <c r="L68" s="102" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M68" s="15"/>
-      <c r="O68" s="75"/>
-      <c r="P68" s="92" t="str">
+      <c r="M68" s="13"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="76" t="str">
         <f>IF($V$58="","",$V$58)</f>
         <v>Operator</v>
       </c>
-      <c r="Q68" s="92" t="str">
+      <c r="Q68" s="76" t="str">
         <f>IF($W$58="","",$W$58)</f>
         <v/>
       </c>
-      <c r="R68" s="89"/>
-      <c r="S68" s="89"/>
-      <c r="T68" s="89"/>
-      <c r="U68" s="95" t="str">
+      <c r="R68" s="139" t="str">
+        <f>IF(Sheet2!C11="","",Sheet2!C11)</f>
+        <v/>
+      </c>
+      <c r="S68" s="73"/>
+      <c r="T68" s="73"/>
+      <c r="U68" s="79" t="str">
         <f>IF(R68="","",AVERAGE(R68:T68)-($W$63*(VLOOKUP($O$66,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V68" s="95" t="str">
+      <c r="V68" s="79" t="str">
         <f>IF(U68="","",U68/(VLOOKUP($O$66,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y68" s="76"/>
+      <c r="Y68" s="16"/>
     </row>
     <row r="69" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A69" s="5">
+      <c r="A69" s="1">
         <v>9</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="D69" s="97" t="str">
+      <c r="B69" s="12"/>
+      <c r="D69" s="81" t="str">
         <f t="shared" si="3"/>
-        <v>Turbo</v>
-      </c>
-      <c r="E69" s="97" t="str">
+        <v>Express</v>
+      </c>
+      <c r="E69" s="81" t="str">
         <f t="shared" si="3"/>
         <v>140/100</v>
       </c>
-      <c r="F69" s="97">
+      <c r="F69" s="81">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="G69" s="97">
+      <c r="G69" s="81">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="H69" s="97">
+      <c r="H69" s="81">
         <f t="shared" si="3"/>
         <v>11.43</v>
       </c>
-      <c r="I69" s="97">
+      <c r="I69" s="81">
         <f t="shared" si="3"/>
         <v>20.32</v>
       </c>
-      <c r="K69" s="97" t="str">
+      <c r="K69" s="81" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L69" s="118" t="str">
+      <c r="L69" s="102" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M69" s="15"/>
-      <c r="O69" s="75"/>
-      <c r="P69" s="92" t="str">
+      <c r="M69" s="13"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="76" t="str">
         <f>IF($V$59="","",$V$59)</f>
         <v>Door</v>
       </c>
-      <c r="Q69" s="92" t="str">
+      <c r="Q69" s="76" t="str">
         <f>IF($W$59="","",$W$59)</f>
         <v/>
       </c>
-      <c r="R69" s="89"/>
-      <c r="S69" s="89"/>
-      <c r="T69" s="89"/>
-      <c r="U69" s="95" t="str">
+      <c r="R69" s="139" t="str">
+        <f>IF(Sheet2!C15="","",Sheet2!C15)</f>
+        <v/>
+      </c>
+      <c r="S69" s="73"/>
+      <c r="T69" s="73"/>
+      <c r="U69" s="79" t="str">
         <f>IF(R69="","",AVERAGE(R69:T69)-($W$63*(VLOOKUP($O$66,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V69" s="95" t="str">
+      <c r="V69" s="79" t="str">
         <f>IF(U69="","",U69/(VLOOKUP($O$66,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y69" s="76"/>
+      <c r="Y69" s="16"/>
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A70" s="5">
+      <c r="A70" s="1">
         <v>10</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="M70" s="15"/>
-      <c r="O70" s="75"/>
-      <c r="P70" s="92" t="str">
+      <c r="B70" s="12"/>
+      <c r="M70" s="13"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="76" t="str">
         <f>IF($V$60="","",$V$60)</f>
         <v/>
       </c>
-      <c r="Q70" s="92" t="str">
+      <c r="Q70" s="76" t="str">
         <f>IF($W$60="","",$W$60)</f>
         <v/>
       </c>
-      <c r="R70" s="89"/>
-      <c r="S70" s="89"/>
-      <c r="T70" s="89"/>
-      <c r="U70" s="95" t="str">
+      <c r="R70" s="73"/>
+      <c r="S70" s="73"/>
+      <c r="T70" s="73"/>
+      <c r="U70" s="79" t="str">
         <f>IF(R70="","",AVERAGE(R70:T70)-($W$63*(VLOOKUP($O$66,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V70" s="95" t="str">
+      <c r="V70" s="79" t="str">
         <f>IF(U70="","",U70/(VLOOKUP($O$66,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y70" s="76"/>
+      <c r="Y70" s="16"/>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A71" s="5">
+      <c r="A71" s="1">
         <v>11</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="M71" s="15"/>
-      <c r="O71" s="75"/>
-      <c r="Y71" s="76"/>
+      <c r="B71" s="12"/>
+      <c r="M71" s="13"/>
+      <c r="O71" s="14"/>
+      <c r="Y71" s="16"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A72" s="5">
+      <c r="A72" s="1">
         <v>12</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="M72" s="15"/>
-      <c r="O72" s="93" t="str">
+      <c r="B72" s="12"/>
+      <c r="M72" s="13"/>
+      <c r="O72" s="77" t="str">
         <f>IF(O58="","",O58)</f>
         <v>Array</v>
       </c>
@@ -4269,221 +4158,230 @@
       <c r="Q72" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R72" s="140" t="s">
+      <c r="R72" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="S72" s="124"/>
+      <c r="T72" s="124"/>
+      <c r="U72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V72" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="S72" s="140"/>
-      <c r="T72" s="140"/>
-      <c r="U72" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="V72" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y72" s="76"/>
+      <c r="Y72" s="16"/>
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A73" s="5">
+      <c r="A73" s="1">
         <v>13</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="M73" s="15"/>
-      <c r="O73" s="75"/>
-      <c r="P73" s="92" t="str">
+      <c r="B73" s="12"/>
+      <c r="M73" s="13"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="76" t="str">
         <f>IF($V$57="","",$V$57)</f>
         <v>Tableside</v>
       </c>
-      <c r="Q73" s="92" t="str">
+      <c r="Q73" s="76" t="str">
         <f>IF($W$57="","",$W$57)</f>
         <v/>
       </c>
-      <c r="R73" s="89"/>
-      <c r="S73" s="89"/>
-      <c r="T73" s="89"/>
-      <c r="U73" s="95" t="str">
+      <c r="R73" s="139" t="str">
+        <f>IF(Sheet2!C8="","",Sheet2!C8)</f>
+        <v/>
+      </c>
+      <c r="S73" s="73"/>
+      <c r="T73" s="73"/>
+      <c r="U73" s="79" t="str">
         <f>IF(R73="","",AVERAGE(R73:T73)-($W$63*(VLOOKUP($O$72,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V73" s="95" t="str">
+      <c r="V73" s="79" t="str">
         <f>IF(U73="","",U73/(VLOOKUP($O$72,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y73" s="76"/>
+      <c r="Y73" s="16"/>
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A74" s="5">
+      <c r="A74" s="1">
         <v>14</v>
       </c>
-      <c r="B74" s="100"/>
-      <c r="C74" s="101"/>
-      <c r="D74" s="101"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="101"/>
-      <c r="G74" s="101"/>
-      <c r="H74" s="101"/>
-      <c r="I74" s="101"/>
-      <c r="J74" s="101"/>
-      <c r="K74" s="101"/>
-      <c r="L74" s="101"/>
-      <c r="M74" s="102"/>
-      <c r="O74" s="75"/>
-      <c r="P74" s="92" t="str">
+      <c r="B74" s="84"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="85"/>
+      <c r="K74" s="85"/>
+      <c r="L74" s="85"/>
+      <c r="M74" s="86"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="76" t="str">
         <f>IF($V$58="","",$V$58)</f>
         <v>Operator</v>
       </c>
-      <c r="Q74" s="92" t="str">
+      <c r="Q74" s="76" t="str">
         <f>IF($W$58="","",$W$58)</f>
         <v/>
       </c>
-      <c r="R74" s="89"/>
-      <c r="S74" s="89"/>
-      <c r="T74" s="89"/>
-      <c r="U74" s="95" t="str">
+      <c r="R74" s="139" t="str">
+        <f>IF(Sheet2!C12="","",Sheet2!C12)</f>
+        <v/>
+      </c>
+      <c r="S74" s="73"/>
+      <c r="T74" s="73"/>
+      <c r="U74" s="79" t="str">
         <f>IF(R74="","",AVERAGE(R74:T74)-($W$63*(VLOOKUP($O$72,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V74" s="95" t="str">
+      <c r="V74" s="79" t="str">
         <f>IF(U74="","",U74/(VLOOKUP($O$72,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y74" s="76"/>
+      <c r="Y74" s="16"/>
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A75" s="5">
+      <c r="A75" s="1">
         <v>15</v>
       </c>
-      <c r="B75" s="115"/>
-      <c r="C75" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" s="104"/>
-      <c r="E75" s="104"/>
-      <c r="F75" s="104"/>
-      <c r="G75" s="104"/>
-      <c r="H75" s="104"/>
-      <c r="I75" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="J75" s="104"/>
-      <c r="K75" s="104"/>
-      <c r="L75" s="104"/>
-      <c r="M75" s="116"/>
-      <c r="O75" s="75"/>
-      <c r="P75" s="92" t="str">
+      <c r="B75" s="99"/>
+      <c r="C75" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="88"/>
+      <c r="K75" s="88"/>
+      <c r="L75" s="88"/>
+      <c r="M75" s="100"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="76" t="str">
         <f>IF($V$59="","",$V$59)</f>
         <v>Door</v>
       </c>
-      <c r="Q75" s="92" t="str">
+      <c r="Q75" s="76" t="str">
         <f>IF($W$59="","",$W$59)</f>
         <v/>
       </c>
-      <c r="R75" s="89"/>
-      <c r="S75" s="89"/>
-      <c r="T75" s="89"/>
-      <c r="U75" s="95" t="str">
+      <c r="R75" s="139" t="str">
+        <f>IF(Sheet2!C16="","",Sheet2!C16)</f>
+        <v/>
+      </c>
+      <c r="S75" s="73"/>
+      <c r="T75" s="73"/>
+      <c r="U75" s="79" t="str">
         <f>IF(R75="","",AVERAGE(R75:T75)-($W$63*(VLOOKUP($O$72,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V75" s="95" t="str">
+      <c r="V75" s="79" t="str">
         <f>IF(U75="","",U75/(VLOOKUP($O$72,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y75" s="76"/>
+      <c r="Y75" s="16"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A76" s="5">
+      <c r="A76" s="1">
         <v>16</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="M76" s="15"/>
-      <c r="O76" s="75"/>
-      <c r="P76" s="92" t="str">
+      <c r="B76" s="12"/>
+      <c r="M76" s="13"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="76" t="str">
         <f>IF($V$60="","",$V$60)</f>
         <v/>
       </c>
-      <c r="Q76" s="92" t="str">
+      <c r="Q76" s="76" t="str">
         <f>IF($W$60="","",$W$60)</f>
         <v/>
       </c>
-      <c r="R76" s="89"/>
-      <c r="S76" s="89"/>
-      <c r="T76" s="89"/>
-      <c r="U76" s="95" t="str">
+      <c r="R76" s="73"/>
+      <c r="S76" s="73"/>
+      <c r="T76" s="73"/>
+      <c r="U76" s="79" t="str">
         <f>IF(R76="","",AVERAGE(R76:T76)-($W$63*(VLOOKUP($O$72,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V76" s="95" t="str">
+      <c r="V76" s="79" t="str">
         <f>IF(U76="","",U76/(VLOOKUP($O$72,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y76" s="76"/>
+      <c r="Y76" s="16"/>
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A77" s="5">
+      <c r="A77" s="1">
         <v>17</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="99" t="str">
+      <c r="B77" s="12"/>
+      <c r="C77" s="83" t="str">
         <f>IF(O66="","",O66)</f>
         <v>High Def</v>
       </c>
-      <c r="D77" s="97" t="s">
+      <c r="D77" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="112" t="s">
+      <c r="E77" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="F77" s="97" t="s">
+      <c r="F77" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="G77" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="G77" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="I77" s="146" t="s">
+      <c r="I77" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="J77" s="148" t="s">
+      <c r="J77" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="K77" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="K77" s="144" t="s">
-        <v>94</v>
-      </c>
-      <c r="L77" s="145"/>
-      <c r="M77" s="15"/>
-      <c r="O77" s="75"/>
-      <c r="Y77" s="76"/>
+      <c r="L77" s="136"/>
+      <c r="M77" s="13"/>
+      <c r="O77" s="14"/>
+      <c r="Y77" s="16"/>
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A78" s="5">
+      <c r="A78" s="1">
         <v>18</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="D78" s="97" t="str">
+      <c r="B78" s="12"/>
+      <c r="D78" s="81" t="str">
         <f t="shared" ref="D78:E81" si="5">IF(P67="","",P67)</f>
         <v>Tableside</v>
       </c>
-      <c r="E78" s="118" t="str">
+      <c r="E78" s="102" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F78" s="113" t="str">
+      <c r="F78" s="97" t="str">
         <f t="shared" ref="F78:G81" si="6">IF(U67="","",U67)</f>
         <v/>
       </c>
-      <c r="G78" s="114" t="str">
+      <c r="G78" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I78" s="147"/>
-      <c r="J78" s="149"/>
-      <c r="K78" s="97" t="s">
+      <c r="I78" s="138"/>
+      <c r="J78" s="127"/>
+      <c r="K78" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="L78" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="L78" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="M78" s="15"/>
-      <c r="O78" s="93" t="str">
+      <c r="M78" s="13"/>
+      <c r="O78" s="77" t="str">
         <f>IF(O59="","",O59)</f>
         <v>Fast Array</v>
       </c>
@@ -4493,306 +4391,315 @@
       <c r="Q78" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R78" s="140" t="s">
+      <c r="R78" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="S78" s="124"/>
+      <c r="T78" s="124"/>
+      <c r="U78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V78" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="S78" s="140"/>
-      <c r="T78" s="140"/>
-      <c r="U78" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="V78" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y78" s="76"/>
+      <c r="Y78" s="16"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A79" s="5">
+      <c r="A79" s="1">
         <v>19</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="D79" s="97" t="str">
+      <c r="B79" s="12"/>
+      <c r="D79" s="81" t="str">
         <f t="shared" si="5"/>
         <v>Operator</v>
       </c>
-      <c r="E79" s="118" t="str">
+      <c r="E79" s="102" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F79" s="113" t="str">
+      <c r="F79" s="97" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G79" s="114" t="str">
+      <c r="G79" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I79" s="97" t="str">
+      <c r="I79" s="81" t="str">
         <f>IF(O100="","",O100)</f>
         <v>High Def</v>
       </c>
-      <c r="J79" s="114" t="str">
+      <c r="J79" s="98" t="str">
         <f>IF(S100="","",S100)</f>
         <v/>
       </c>
-      <c r="K79" s="114" t="str">
+      <c r="K79" s="98" t="str">
         <f t="shared" ref="K79:L82" si="7">IF(U100="","",U100)</f>
         <v/>
       </c>
-      <c r="L79" s="114" t="str">
+      <c r="L79" s="98" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M79" s="15"/>
-      <c r="O79" s="75"/>
-      <c r="P79" s="92" t="str">
+      <c r="M79" s="13"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="76" t="str">
         <f>IF($V$57="","",$V$57)</f>
         <v>Tableside</v>
       </c>
-      <c r="Q79" s="92" t="str">
+      <c r="Q79" s="76" t="str">
         <f>IF($W$57="","",$W$57)</f>
         <v/>
       </c>
-      <c r="R79" s="89"/>
-      <c r="S79" s="89"/>
-      <c r="T79" s="89"/>
-      <c r="U79" s="95" t="str">
+      <c r="R79" s="139" t="str">
+        <f>IF(Sheet2!C9="","",Sheet2!C9)</f>
+        <v/>
+      </c>
+      <c r="S79" s="73"/>
+      <c r="T79" s="73"/>
+      <c r="U79" s="79" t="str">
         <f>IF(R79="","",AVERAGE(R79:T79)-($W$63*(VLOOKUP($O$78,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V79" s="95" t="str">
+      <c r="V79" s="79" t="str">
         <f>IF(U79="","",U79/(VLOOKUP($O$78,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y79" s="76"/>
+      <c r="Y79" s="16"/>
     </row>
     <row r="80" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A80" s="5">
+      <c r="A80" s="1">
         <v>20</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="D80" s="97" t="str">
+      <c r="B80" s="12"/>
+      <c r="D80" s="81" t="str">
         <f t="shared" si="5"/>
         <v>Door</v>
       </c>
-      <c r="E80" s="118" t="str">
+      <c r="E80" s="102" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F80" s="113" t="str">
+      <c r="F80" s="97" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G80" s="114" t="str">
+      <c r="G80" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I80" s="97" t="str">
+      <c r="I80" s="81" t="str">
         <f>IF(O101="","",O101)</f>
         <v>Array</v>
       </c>
-      <c r="J80" s="114" t="str">
+      <c r="J80" s="98" t="str">
         <f>IF(S101="","",S101)</f>
         <v/>
       </c>
-      <c r="K80" s="114" t="str">
+      <c r="K80" s="98" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L80" s="114" t="str">
+      <c r="L80" s="98" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M80" s="15"/>
-      <c r="O80" s="75"/>
-      <c r="P80" s="92" t="str">
+      <c r="M80" s="13"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="76" t="str">
         <f>IF($V$58="","",$V$58)</f>
         <v>Operator</v>
       </c>
-      <c r="Q80" s="92" t="str">
+      <c r="Q80" s="76" t="str">
         <f>IF($W$58="","",$W$58)</f>
         <v/>
       </c>
-      <c r="R80" s="89"/>
-      <c r="S80" s="89"/>
-      <c r="T80" s="89"/>
-      <c r="U80" s="95" t="str">
+      <c r="R80" s="139" t="str">
+        <f>IF(Sheet2!C13="","",Sheet2!C13)</f>
+        <v/>
+      </c>
+      <c r="S80" s="73"/>
+      <c r="T80" s="73"/>
+      <c r="U80" s="79" t="str">
         <f>IF(R80="","",AVERAGE(R80:T80)-($W$63*(VLOOKUP($O$78,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V80" s="95" t="str">
+      <c r="V80" s="79" t="str">
         <f>IF(U80="","",U80/(VLOOKUP($O$78,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y80" s="76"/>
+      <c r="Y80" s="16"/>
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A81" s="5">
+      <c r="A81" s="1">
         <v>21</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="D81" s="97" t="str">
+      <c r="B81" s="12"/>
+      <c r="D81" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E81" s="118" t="str">
+      <c r="E81" s="102" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F81" s="113" t="str">
+      <c r="F81" s="97" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G81" s="114" t="str">
+      <c r="G81" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I81" s="97" t="str">
+      <c r="I81" s="81" t="str">
         <f>IF(O102="","",O102)</f>
         <v>Fast Array</v>
       </c>
-      <c r="J81" s="114" t="str">
+      <c r="J81" s="98" t="str">
         <f>IF(S102="","",S102)</f>
         <v/>
       </c>
-      <c r="K81" s="114" t="str">
+      <c r="K81" s="98" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L81" s="114" t="str">
+      <c r="L81" s="98" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M81" s="15"/>
-      <c r="O81" s="75"/>
-      <c r="P81" s="92" t="str">
+      <c r="M81" s="13"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="76" t="str">
         <f>IF($V$59="","",$V$59)</f>
         <v>Door</v>
       </c>
-      <c r="Q81" s="92" t="str">
+      <c r="Q81" s="76" t="str">
         <f>IF($W$59="","",$W$59)</f>
         <v/>
       </c>
-      <c r="R81" s="89"/>
-      <c r="S81" s="89"/>
-      <c r="T81" s="89"/>
-      <c r="U81" s="95" t="str">
+      <c r="R81" s="139" t="str">
+        <f>IF(Sheet2!C17="","",Sheet2!C17)</f>
+        <v/>
+      </c>
+      <c r="S81" s="73"/>
+      <c r="T81" s="73"/>
+      <c r="U81" s="79" t="str">
         <f>IF(R81="","",AVERAGE(R81:T81)-($W$63*(VLOOKUP($O$78,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V81" s="95" t="str">
+      <c r="V81" s="79" t="str">
         <f>IF(U81="","",U81/(VLOOKUP($O$78,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y81" s="76"/>
+      <c r="Y81" s="16"/>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A82" s="5">
+      <c r="A82" s="1">
         <v>22</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="I82" s="97" t="str">
+      <c r="B82" s="12"/>
+      <c r="I82" s="81" t="str">
         <f>IF(O103="","",O103)</f>
-        <v>Turbo</v>
-      </c>
-      <c r="J82" s="114" t="str">
+        <v>Express</v>
+      </c>
+      <c r="J82" s="98" t="str">
         <f>IF(S103="","",S103)</f>
         <v/>
       </c>
-      <c r="K82" s="114" t="str">
+      <c r="K82" s="98" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L82" s="114" t="str">
+      <c r="L82" s="98" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M82" s="15"/>
-      <c r="O82" s="75"/>
-      <c r="P82" s="92" t="str">
+      <c r="M82" s="13"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="76" t="str">
         <f>IF($V$60="","",$V$60)</f>
         <v/>
       </c>
-      <c r="Q82" s="92" t="str">
+      <c r="Q82" s="76" t="str">
         <f>IF($W$60="","",$W$60)</f>
         <v/>
       </c>
-      <c r="R82" s="89"/>
-      <c r="S82" s="89"/>
-      <c r="T82" s="89"/>
-      <c r="U82" s="95" t="str">
+      <c r="R82" s="73"/>
+      <c r="S82" s="73"/>
+      <c r="T82" s="73"/>
+      <c r="U82" s="79" t="str">
         <f>IF(R82="","",AVERAGE(R82:T82)-($W$63*(VLOOKUP($O$78,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V82" s="95" t="str">
+      <c r="V82" s="79" t="str">
         <f>IF(U82="","",U82/(VLOOKUP($O$78,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y82" s="76"/>
+      <c r="Y82" s="16"/>
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A83" s="5">
+      <c r="A83" s="1">
         <v>23</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="99" t="str">
+      <c r="B83" s="12"/>
+      <c r="C83" s="83" t="str">
         <f>IF(O72="","",O72)</f>
         <v>Array</v>
       </c>
-      <c r="D83" s="97" t="s">
+      <c r="D83" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="112" t="s">
+      <c r="E83" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="F83" s="97" t="s">
+      <c r="F83" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="G83" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="G83" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="M83" s="15"/>
-      <c r="O83" s="75"/>
-      <c r="Y83" s="76"/>
+      <c r="M83" s="13"/>
+      <c r="O83" s="14"/>
+      <c r="Y83" s="16"/>
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A84" s="5">
+      <c r="A84" s="1">
         <v>24</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="D84" s="97" t="str">
+      <c r="B84" s="12"/>
+      <c r="D84" s="81" t="str">
         <f t="shared" ref="D84:E87" si="8">IF(P73="","",P73)</f>
         <v>Tableside</v>
       </c>
-      <c r="E84" s="118" t="str">
+      <c r="E84" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F84" s="113" t="str">
+      <c r="F84" s="97" t="str">
         <f t="shared" ref="F84:G87" si="9">IF(U73="","",U73)</f>
         <v/>
       </c>
-      <c r="G84" s="114" t="str">
+      <c r="G84" s="98" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I84" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="J84" s="128" t="str">
+      <c r="I84" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="J84" s="111" t="str">
         <f>IF(U94="","",U94)</f>
         <v>Piranha CB2-17090320</v>
       </c>
-      <c r="L84" s="130" t="s">
+      <c r="L84" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="M84" s="131" t="str">
+      <c r="M84" s="113" t="str">
         <f>IF(X94="","",X94)</f>
         <v>R100B</v>
       </c>
-      <c r="O84" s="93" t="str">
+      <c r="O84" s="77" t="str">
         <f>IF(O60="","",O60)</f>
-        <v>Turbo</v>
+        <v>Express</v>
       </c>
       <c r="P84" s="4" t="s">
         <v>14</v>
@@ -4800,931 +4707,889 @@
       <c r="Q84" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R84" s="140" t="s">
+      <c r="R84" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="S84" s="124"/>
+      <c r="T84" s="124"/>
+      <c r="U84" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V84" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="S84" s="140"/>
-      <c r="T84" s="140"/>
-      <c r="U84" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="V84" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y84" s="76"/>
+      <c r="Y84" s="16"/>
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A85" s="5">
+      <c r="A85" s="1">
         <v>25</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="D85" s="97" t="str">
+      <c r="B85" s="12"/>
+      <c r="D85" s="81" t="str">
         <f t="shared" si="8"/>
         <v>Operator</v>
       </c>
-      <c r="E85" s="118" t="str">
+      <c r="E85" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F85" s="113" t="str">
+      <c r="F85" s="97" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G85" s="114" t="str">
+      <c r="G85" s="98" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I85" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="J85" s="129" t="str">
+      <c r="I85" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="J85" s="112" t="str">
         <f>IF(U96="","",U96)</f>
         <v/>
       </c>
-      <c r="L85" s="130" t="s">
-        <v>107</v>
-      </c>
-      <c r="M85" s="132" t="str">
+      <c r="L85" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="M85" s="114" t="str">
         <f>IF(X96="","",X96)</f>
         <v/>
       </c>
-      <c r="O85" s="75"/>
-      <c r="P85" s="92" t="str">
+      <c r="O85" s="14"/>
+      <c r="P85" s="76" t="str">
         <f>IF($V$57="","",$V$57)</f>
         <v>Tableside</v>
       </c>
-      <c r="Q85" s="92" t="str">
+      <c r="Q85" s="76" t="str">
         <f>IF($W$57="","",$W$57)</f>
         <v/>
       </c>
-      <c r="R85" s="89"/>
-      <c r="S85" s="89"/>
-      <c r="T85" s="89"/>
-      <c r="U85" s="95" t="str">
+      <c r="R85" s="139" t="str">
+        <f>IF(Sheet2!C10="","",Sheet2!C10)</f>
+        <v/>
+      </c>
+      <c r="S85" s="73"/>
+      <c r="T85" s="73"/>
+      <c r="U85" s="79" t="str">
         <f>IF(R85="","",AVERAGE(R85:T85)-($W$63*(VLOOKUP($O$84,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V85" s="95" t="str">
+      <c r="V85" s="79" t="str">
         <f>IF(U85="","",U85/(VLOOKUP($O$84,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y85" s="76"/>
+      <c r="Y85" s="16"/>
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A86" s="5">
+      <c r="A86" s="1">
         <v>26</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="D86" s="97" t="str">
+      <c r="B86" s="12"/>
+      <c r="D86" s="81" t="str">
         <f t="shared" si="8"/>
         <v>Door</v>
       </c>
-      <c r="E86" s="118" t="str">
+      <c r="E86" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F86" s="113" t="str">
+      <c r="F86" s="97" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G86" s="114" t="str">
+      <c r="G86" s="98" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I86" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="J86" s="129" t="str">
+      <c r="I86" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="J86" s="112" t="str">
         <f>IF(U97="","",U97)</f>
         <v/>
       </c>
-      <c r="L86" s="130" t="s">
-        <v>108</v>
-      </c>
-      <c r="M86" s="132" t="str">
+      <c r="L86" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="M86" s="114" t="str">
         <f>IF(X97="","",X97)</f>
         <v/>
       </c>
-      <c r="O86" s="75"/>
-      <c r="P86" s="92" t="str">
+      <c r="O86" s="14"/>
+      <c r="P86" s="76" t="str">
         <f>IF($V$58="","",$V$58)</f>
         <v>Operator</v>
       </c>
-      <c r="Q86" s="92" t="str">
+      <c r="Q86" s="76" t="str">
         <f>IF($W$58="","",$W$58)</f>
         <v/>
       </c>
-      <c r="R86" s="89"/>
-      <c r="S86" s="89"/>
-      <c r="T86" s="89"/>
-      <c r="U86" s="95" t="str">
+      <c r="R86" s="139" t="str">
+        <f>IF(Sheet2!C14="","",Sheet2!C11)</f>
+        <v/>
+      </c>
+      <c r="S86" s="73"/>
+      <c r="T86" s="73"/>
+      <c r="U86" s="79" t="str">
         <f>IF(R86="","",AVERAGE(R86:T86)-($W$63*(VLOOKUP($O$84,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V86" s="95" t="str">
+      <c r="V86" s="79" t="str">
         <f>IF(U86="","",U86/(VLOOKUP($O$84,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y86" s="76"/>
+      <c r="Y86" s="16"/>
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A87" s="5">
+      <c r="A87" s="1">
         <v>27</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="D87" s="97" t="str">
+      <c r="B87" s="12"/>
+      <c r="D87" s="81" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E87" s="118" t="str">
+      <c r="E87" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F87" s="113" t="str">
+      <c r="F87" s="97" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G87" s="114" t="str">
+      <c r="G87" s="98" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M87" s="15"/>
-      <c r="O87" s="75"/>
-      <c r="P87" s="92" t="str">
+      <c r="M87" s="13"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="76" t="str">
         <f>IF($V$59="","",$V$59)</f>
         <v>Door</v>
       </c>
-      <c r="Q87" s="92" t="str">
+      <c r="Q87" s="76" t="str">
         <f>IF($W$59="","",$W$59)</f>
         <v/>
       </c>
-      <c r="R87" s="89"/>
-      <c r="S87" s="89"/>
-      <c r="T87" s="89"/>
-      <c r="U87" s="95" t="str">
+      <c r="R87" s="139" t="str">
+        <f>IF(Sheet2!C18="","",Sheet2!C18)</f>
+        <v/>
+      </c>
+      <c r="S87" s="73"/>
+      <c r="T87" s="73"/>
+      <c r="U87" s="79" t="str">
         <f>IF(R87="","",AVERAGE(R87:T87)-($W$63*(VLOOKUP($O$84,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V87" s="95" t="str">
+      <c r="V87" s="79" t="str">
         <f>IF(U87="","",U87/(VLOOKUP($O$84,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y87" s="76"/>
+      <c r="Y87" s="16"/>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A88" s="5">
+      <c r="A88" s="1">
         <v>28</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="M88" s="15"/>
-      <c r="O88" s="75"/>
-      <c r="P88" s="92" t="str">
+      <c r="B88" s="12"/>
+      <c r="M88" s="13"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="76" t="str">
         <f>IF($V$60="","",$V$60)</f>
         <v/>
       </c>
-      <c r="Q88" s="92" t="str">
+      <c r="Q88" s="76" t="str">
         <f>IF($W$60="","",$W$60)</f>
         <v/>
       </c>
-      <c r="R88" s="89"/>
-      <c r="S88" s="89"/>
-      <c r="T88" s="89"/>
-      <c r="U88" s="95" t="str">
+      <c r="R88" s="73"/>
+      <c r="S88" s="73"/>
+      <c r="T88" s="73"/>
+      <c r="U88" s="79" t="str">
         <f>IF(R88="","",AVERAGE(R88:T88)-($W$63*(VLOOKUP($O$84,$O$57:$R$60,4,0)/$P$63)))</f>
         <v/>
       </c>
-      <c r="V88" s="95" t="str">
+      <c r="V88" s="79" t="str">
         <f>IF(U88="","",U88/(VLOOKUP($O$84,$O$57:$R$60,4,0)/3600)/1000)</f>
         <v/>
       </c>
-      <c r="Y88" s="76"/>
+      <c r="Y88" s="16"/>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A89" s="5">
+      <c r="A89" s="1">
         <v>29</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="99" t="str">
+      <c r="B89" s="12"/>
+      <c r="C89" s="83" t="str">
         <f>IF(O78="","",O78)</f>
         <v>Fast Array</v>
       </c>
-      <c r="D89" s="97" t="s">
+      <c r="D89" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="112" t="s">
+      <c r="E89" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="F89" s="97" t="s">
+      <c r="F89" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="G89" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="G89" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="M89" s="15"/>
-      <c r="O89" s="75"/>
-      <c r="Y89" s="76"/>
+      <c r="M89" s="13"/>
+      <c r="O89" s="14"/>
+      <c r="Y89" s="16"/>
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A90" s="5">
+      <c r="A90" s="1">
         <v>30</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="D90" s="97" t="str">
+      <c r="B90" s="12"/>
+      <c r="D90" s="81" t="str">
         <f t="shared" ref="D90:E93" si="10">IF(P79="","",P79)</f>
         <v>Tableside</v>
       </c>
-      <c r="E90" s="118" t="str">
+      <c r="E90" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F90" s="113" t="str">
+      <c r="F90" s="97" t="str">
         <f t="shared" ref="F90:G93" si="11">IF(U79="","",U79)</f>
         <v/>
       </c>
-      <c r="G90" s="114" t="str">
+      <c r="G90" s="98" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="M90" s="15"/>
-      <c r="O90" s="75"/>
-      <c r="P90" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q90" s="125"/>
-      <c r="S90" s="22" t="s">
+      <c r="M90" s="13"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="T90" s="127"/>
-      <c r="V90" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="W90" s="127"/>
-      <c r="Y90" s="76"/>
+      <c r="Q90" s="108"/>
+      <c r="S90" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="T90" s="110"/>
+      <c r="V90" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="W90" s="110"/>
+      <c r="Y90" s="16"/>
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A91" s="5">
+      <c r="A91" s="1">
         <v>31</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="D91" s="97" t="str">
+      <c r="B91" s="12"/>
+      <c r="D91" s="81" t="str">
         <f t="shared" si="10"/>
         <v>Operator</v>
       </c>
-      <c r="E91" s="118" t="str">
+      <c r="E91" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F91" s="113" t="str">
+      <c r="F91" s="97" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G91" s="114" t="str">
+      <c r="G91" s="98" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="M91" s="15"/>
-      <c r="O91" s="80"/>
-      <c r="P91" s="81"/>
-      <c r="Q91" s="81"/>
-      <c r="R91" s="81"/>
-      <c r="S91" s="81"/>
-      <c r="T91" s="81"/>
-      <c r="U91" s="81"/>
-      <c r="V91" s="81"/>
-      <c r="W91" s="81"/>
-      <c r="X91" s="81"/>
-      <c r="Y91" s="82"/>
+      <c r="M91" s="13"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="26"/>
+      <c r="S91" s="26"/>
+      <c r="T91" s="26"/>
+      <c r="U91" s="26"/>
+      <c r="V91" s="26"/>
+      <c r="W91" s="26"/>
+      <c r="X91" s="26"/>
+      <c r="Y91" s="27"/>
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A92" s="5">
+      <c r="A92" s="1">
         <v>32</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="D92" s="97" t="str">
+      <c r="B92" s="12"/>
+      <c r="D92" s="81" t="str">
         <f t="shared" si="10"/>
         <v>Door</v>
       </c>
-      <c r="E92" s="118" t="str">
+      <c r="E92" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F92" s="113" t="str">
+      <c r="F92" s="97" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G92" s="114" t="str">
+      <c r="G92" s="98" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="M92" s="15"/>
-      <c r="O92" s="105"/>
-      <c r="P92" s="84"/>
-      <c r="Q92" s="84"/>
-      <c r="R92" s="84"/>
-      <c r="S92" s="84"/>
-      <c r="T92" s="84"/>
-      <c r="U92" s="84"/>
-      <c r="V92" s="84"/>
-      <c r="W92" s="84"/>
-      <c r="X92" s="84"/>
-      <c r="Y92" s="86"/>
+      <c r="M92" s="13"/>
+      <c r="O92" s="89"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="9"/>
+      <c r="Y92" s="10"/>
     </row>
     <row r="93" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A93" s="5">
+      <c r="A93" s="1">
         <v>33</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="D93" s="97" t="str">
+      <c r="B93" s="12"/>
+      <c r="D93" s="81" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E93" s="118" t="str">
+      <c r="E93" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F93" s="113" t="str">
+      <c r="F93" s="97" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G93" s="114" t="str">
+      <c r="G93" s="98" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="M93" s="15"/>
-      <c r="O93" s="90" t="s">
+      <c r="M93" s="13"/>
+      <c r="O93" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y93" s="16"/>
+    </row>
+    <row r="94" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A94" s="1">
+        <v>34</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="M94" s="13"/>
+      <c r="O94" s="66">
+        <v>107</v>
+      </c>
+      <c r="P94" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Y93" s="76"/>
-    </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A94" s="5">
-        <v>34</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="M94" s="15"/>
-      <c r="O94" s="77">
-        <v>107</v>
-      </c>
-      <c r="P94" s="3" t="s">
+      <c r="T94" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="T94" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="U94" s="141" t="str">
+      <c r="U94" s="132" t="str">
         <f>IF(U95&lt;&gt;"",U95,IF(AB42="","",AB42))</f>
         <v>Piranha CB2-17090320</v>
       </c>
-      <c r="V94" s="141"/>
-      <c r="W94" s="22" t="s">
+      <c r="V94" s="132"/>
+      <c r="W94" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="X94" s="126" t="str">
+      <c r="X94" s="109" t="str">
         <f>IF(X95&lt;&gt;"",X95,IF(AB43="","",AB43))</f>
         <v>R100B</v>
       </c>
-      <c r="Y94" s="76"/>
+      <c r="Y94" s="16"/>
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A95" s="5">
+      <c r="A95" s="1">
         <v>35</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="99" t="str">
+      <c r="B95" s="12"/>
+      <c r="C95" s="83" t="str">
         <f>IF(O84="","",O84)</f>
-        <v>Turbo</v>
-      </c>
-      <c r="D95" s="97" t="s">
+        <v>Express</v>
+      </c>
+      <c r="D95" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="112" t="s">
+      <c r="E95" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="F95" s="97" t="s">
+      <c r="F95" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="G95" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="G95" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="M95" s="15"/>
-      <c r="O95" s="77">
+      <c r="M95" s="13"/>
+      <c r="O95" s="66">
         <v>42.4</v>
       </c>
       <c r="P95" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U95" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="U95" s="137" t="s">
-        <v>101</v>
-      </c>
-      <c r="V95" s="137"/>
-      <c r="X95" s="125" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y95" s="76"/>
+      <c r="V95" s="130"/>
+      <c r="X95" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y95" s="16"/>
     </row>
     <row r="96" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A96" s="5">
+      <c r="A96" s="1">
         <v>36</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="D96" s="97" t="str">
+      <c r="B96" s="12"/>
+      <c r="D96" s="81" t="str">
         <f t="shared" ref="D96:E99" si="12">IF(P85="","",P85)</f>
         <v>Tableside</v>
       </c>
-      <c r="E96" s="118" t="str">
+      <c r="E96" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="F96" s="113" t="str">
+      <c r="F96" s="97" t="str">
         <f t="shared" ref="F96:G99" si="13">IF(U85="","",U85)</f>
         <v/>
       </c>
-      <c r="G96" s="114" t="str">
+      <c r="G96" s="98" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="M96" s="15"/>
-      <c r="O96" s="75"/>
-      <c r="T96" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="U96" s="127"/>
-      <c r="W96" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="X96" s="127"/>
-      <c r="Y96" s="76"/>
+      <c r="M96" s="13"/>
+      <c r="O96" s="14"/>
+      <c r="T96" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="U96" s="110"/>
+      <c r="W96" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="X96" s="110"/>
+      <c r="Y96" s="16"/>
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A97" s="5">
+      <c r="A97" s="1">
         <v>37</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="D97" s="97" t="str">
+      <c r="B97" s="12"/>
+      <c r="D97" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Operator</v>
       </c>
-      <c r="E97" s="118" t="str">
+      <c r="E97" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="F97" s="113" t="str">
+      <c r="F97" s="97" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G97" s="114" t="str">
+      <c r="G97" s="98" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="M97" s="15"/>
-      <c r="O97" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="T97" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="U97" s="127"/>
-      <c r="W97" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="X97" s="127"/>
-      <c r="Y97" s="76"/>
+      <c r="M97" s="13"/>
+      <c r="O97" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="T97" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="U97" s="110"/>
+      <c r="W97" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="X97" s="110"/>
+      <c r="Y97" s="16"/>
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A98" s="5">
+      <c r="A98" s="1">
         <v>38</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="D98" s="97" t="str">
+      <c r="B98" s="12"/>
+      <c r="D98" s="81" t="str">
         <f t="shared" si="12"/>
         <v>Door</v>
       </c>
-      <c r="E98" s="118" t="str">
+      <c r="E98" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="F98" s="113" t="str">
+      <c r="F98" s="97" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G98" s="114" t="str">
+      <c r="G98" s="98" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="M98" s="15"/>
-      <c r="O98" s="107"/>
-      <c r="P98" s="106"/>
-      <c r="Q98" s="106"/>
-      <c r="R98" s="106"/>
+      <c r="M98" s="13"/>
+      <c r="O98" s="91"/>
+      <c r="P98" s="90"/>
+      <c r="Q98" s="90"/>
+      <c r="R98" s="90"/>
       <c r="S98" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="T98" s="106"/>
-      <c r="U98" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="T98" s="90"/>
+      <c r="U98" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="V98" s="124"/>
+      <c r="Y98" s="16"/>
+    </row>
+    <row r="99" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A99" s="1">
+        <v>39</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="D99" s="81" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E99" s="102" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F99" s="97" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G99" s="98" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M99" s="13"/>
+      <c r="O99" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="P99" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="V98" s="119"/>
-      <c r="Y98" s="76"/>
-    </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A99" s="5">
-        <v>39</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="D99" s="97" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="E99" s="118" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F99" s="113" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G99" s="114" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M99" s="15"/>
-      <c r="O99" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="P99" s="119" t="s">
+      <c r="Q99" s="129"/>
+      <c r="R99" s="129"/>
+      <c r="S99" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="T99" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="Q99" s="119"/>
-      <c r="R99" s="119"/>
-      <c r="S99" s="4" t="s">
+      <c r="U99" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V99" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="T99" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="U99" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="V99" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y99" s="76"/>
+      <c r="Y99" s="16"/>
     </row>
     <row r="100" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A100" s="5">
+      <c r="A100" s="1">
         <v>40</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="M100" s="15"/>
-      <c r="O100" s="109" t="str">
+      <c r="B100" s="12"/>
+      <c r="M100" s="13"/>
+      <c r="O100" s="93" t="str">
         <f>IF(O57="","",O57)</f>
         <v>High Def</v>
       </c>
-      <c r="P100" s="89"/>
-      <c r="Q100" s="89"/>
-      <c r="R100" s="89"/>
-      <c r="S100" s="110" t="str">
+      <c r="P100" s="139" t="str">
+        <f>IF(Sheet2!H5="","",Sheet2!H5)</f>
+        <v/>
+      </c>
+      <c r="Q100" s="139" t="str">
+        <f>IF(Sheet2!H6="","",Sheet2!H6)</f>
+        <v/>
+      </c>
+      <c r="R100" s="73"/>
+      <c r="S100" s="94" t="str">
         <f>IF(P100="","",AVERAGE(P100:R100))</f>
         <v/>
       </c>
-      <c r="T100" s="110" t="str">
+      <c r="T100" s="94" t="str">
         <f>IF(P100="","",STDEV(P100:R100))</f>
         <v/>
       </c>
-      <c r="U100" s="95" t="str">
+      <c r="U100" s="79" t="str">
         <f>IF(S100="","",S100*($O$94/$O$95)^2)</f>
         <v/>
       </c>
-      <c r="V100" s="95" t="str">
+      <c r="V100" s="79" t="str">
         <f>IF(U100="","",U100/R57)</f>
         <v/>
       </c>
-      <c r="Y100" s="76"/>
+      <c r="Y100" s="16"/>
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A101" s="5">
+      <c r="A101" s="1">
         <v>41</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="D101" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E101" s="133" t="str">
+      <c r="B101" s="12"/>
+      <c r="D101" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101" s="115" t="str">
         <f>IF(Q90="","",Q90)</f>
         <v/>
       </c>
-      <c r="M101" s="15"/>
-      <c r="O101" s="109" t="str">
+      <c r="M101" s="13"/>
+      <c r="O101" s="93" t="str">
         <f>IF(O58="","",O58)</f>
         <v>Array</v>
       </c>
-      <c r="P101" s="89"/>
-      <c r="Q101" s="89"/>
-      <c r="R101" s="89"/>
-      <c r="S101" s="110" t="str">
+      <c r="P101" s="139" t="str">
+        <f>IF(Sheet2!H7="","",Sheet2!H7)</f>
+        <v/>
+      </c>
+      <c r="Q101" s="139" t="str">
+        <f>IF(Sheet2!H8="","",Sheet2!H8)</f>
+        <v/>
+      </c>
+      <c r="R101" s="73"/>
+      <c r="S101" s="94" t="str">
         <f>IF(P101="","",AVERAGE(P101:R101))</f>
         <v/>
       </c>
-      <c r="T101" s="110" t="str">
+      <c r="T101" s="94" t="str">
         <f>IF(P101="","",STDEV(P101:R101))</f>
         <v/>
       </c>
-      <c r="U101" s="95" t="str">
+      <c r="U101" s="79" t="str">
         <f>IF(S101="","",S101*($O$94/$O$95)^2)</f>
         <v/>
       </c>
-      <c r="V101" s="95" t="str">
+      <c r="V101" s="79" t="str">
         <f>IF(U101="","",U101/R58)</f>
         <v/>
       </c>
-      <c r="Y101" s="76"/>
+      <c r="Y101" s="16"/>
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A102" s="5">
+      <c r="A102" s="1">
         <v>42</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="D102" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="E102" s="134" t="str">
+      <c r="B102" s="12"/>
+      <c r="D102" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102" s="116" t="str">
         <f>IF(T90="","",T90)</f>
         <v/>
       </c>
-      <c r="M102" s="15"/>
-      <c r="O102" s="109" t="str">
+      <c r="M102" s="13"/>
+      <c r="O102" s="93" t="str">
         <f>IF(O59="","",O59)</f>
         <v>Fast Array</v>
       </c>
-      <c r="P102" s="89"/>
-      <c r="Q102" s="89"/>
-      <c r="R102" s="89"/>
-      <c r="S102" s="110" t="str">
+      <c r="P102" s="139" t="str">
+        <f>IF(Sheet2!H9="","",Sheet2!H9)</f>
+        <v/>
+      </c>
+      <c r="Q102" s="139" t="str">
+        <f>IF(Sheet2!H10="","",Sheet2!H10)</f>
+        <v/>
+      </c>
+      <c r="R102" s="73"/>
+      <c r="S102" s="94" t="str">
         <f>IF(P102="","",AVERAGE(P102:R102))</f>
         <v/>
       </c>
-      <c r="T102" s="110" t="str">
+      <c r="T102" s="94" t="str">
         <f>IF(P102="","",STDEV(P102:R102))</f>
         <v/>
       </c>
-      <c r="U102" s="95" t="str">
+      <c r="U102" s="79" t="str">
         <f>IF(S102="","",S102*($O$94/$O$95)^2)</f>
         <v/>
       </c>
-      <c r="V102" s="95" t="str">
+      <c r="V102" s="79" t="str">
         <f>IF(U102="","",U102/R59)</f>
         <v/>
       </c>
-      <c r="Y102" s="76"/>
+      <c r="Y102" s="16"/>
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A103" s="5">
+      <c r="A103" s="1">
         <v>43</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="D103" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E103" s="134" t="str">
+      <c r="B103" s="12"/>
+      <c r="D103" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E103" s="116" t="str">
         <f>IF(W90="","",W90)</f>
         <v/>
       </c>
-      <c r="M103" s="15"/>
-      <c r="O103" s="109" t="str">
+      <c r="M103" s="13"/>
+      <c r="O103" s="93" t="str">
         <f>IF(O60="","",O60)</f>
-        <v>Turbo</v>
-      </c>
-      <c r="P103" s="89"/>
-      <c r="Q103" s="89"/>
-      <c r="R103" s="89"/>
-      <c r="S103" s="110" t="str">
+        <v>Express</v>
+      </c>
+      <c r="P103" s="139" t="str">
+        <f>IF(Sheet2!H11="","",Sheet2!H11)</f>
+        <v/>
+      </c>
+      <c r="Q103" s="139" t="str">
+        <f>IF(Sheet2!H12="","",Sheet2!H12)</f>
+        <v/>
+      </c>
+      <c r="R103" s="73"/>
+      <c r="S103" s="94" t="str">
         <f>IF(P103="","",AVERAGE(P103:R103))</f>
         <v/>
       </c>
-      <c r="T103" s="110" t="str">
+      <c r="T103" s="94" t="str">
         <f>IF(P103="","",STDEV(P103:R103))</f>
         <v/>
       </c>
-      <c r="U103" s="95" t="str">
+      <c r="U103" s="79" t="str">
         <f>IF(S103="","",S103*($O$94/$O$95)^2)</f>
         <v/>
       </c>
-      <c r="V103" s="95" t="str">
+      <c r="V103" s="79" t="str">
         <f>IF(U103="","",U103/R60)</f>
         <v/>
       </c>
-      <c r="Y103" s="76"/>
+      <c r="Y103" s="16"/>
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A104" s="5">
+      <c r="A104" s="1">
         <v>44</v>
       </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
-      <c r="K104" s="25"/>
-      <c r="L104" s="25"/>
-      <c r="M104" s="26"/>
-      <c r="O104" s="80"/>
-      <c r="P104" s="81"/>
-      <c r="Q104" s="81"/>
-      <c r="R104" s="81"/>
-      <c r="S104" s="81"/>
-      <c r="T104" s="81"/>
-      <c r="U104" s="81"/>
-      <c r="V104" s="81"/>
-      <c r="W104" s="81"/>
-      <c r="X104" s="81"/>
-      <c r="Y104" s="82"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="23"/>
+      <c r="M104" s="24"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="26"/>
+      <c r="Q104" s="26"/>
+      <c r="R104" s="26"/>
+      <c r="S104" s="26"/>
+      <c r="T104" s="26"/>
+      <c r="U104" s="26"/>
+      <c r="V104" s="26"/>
+      <c r="W104" s="26"/>
+      <c r="X104" s="26"/>
+      <c r="Y104" s="27"/>
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A105" s="5">
+      <c r="A105" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A106" s="5">
+      <c r="A106" s="1">
         <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A107" s="5">
+      <c r="A107" s="1">
         <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A108" s="5">
+      <c r="A108" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A109" s="5">
+      <c r="A109" s="1">
         <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A110" s="5">
+      <c r="A110" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A111" s="5">
+      <c r="A111" s="1">
         <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A112" s="5">
+      <c r="A112" s="1">
         <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A113" s="5">
+      <c r="A113" s="1">
         <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A114" s="5">
+      <c r="A114" s="1">
         <v>54</v>
       </c>
-      <c r="B114" s="51"/>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="51"/>
-      <c r="J114" s="51"/>
-      <c r="K114" s="51"/>
-      <c r="L114" s="51"/>
-      <c r="M114" s="51"/>
     </row>
     <row r="115" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A115" s="5">
+      <c r="A115" s="1">
         <v>55</v>
       </c>
-      <c r="B115" s="51"/>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="51"/>
-      <c r="F115" s="51"/>
-      <c r="G115" s="51"/>
-      <c r="H115" s="51"/>
-      <c r="I115" s="51"/>
-      <c r="J115" s="51"/>
-      <c r="K115" s="51"/>
-      <c r="L115" s="51"/>
-      <c r="M115" s="51"/>
     </row>
     <row r="116" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A116" s="5">
+      <c r="A116" s="1">
         <v>56</v>
       </c>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="51"/>
-      <c r="J116" s="51"/>
-      <c r="K116" s="51"/>
-      <c r="L116" s="51"/>
-      <c r="M116" s="51"/>
     </row>
     <row r="117" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A117" s="5">
+      <c r="A117" s="1">
         <v>57</v>
       </c>
-      <c r="B117" s="51"/>
-      <c r="C117" s="51"/>
-      <c r="D117" s="51"/>
-      <c r="E117" s="51"/>
-      <c r="F117" s="51"/>
-      <c r="G117" s="51"/>
-      <c r="H117" s="51"/>
-      <c r="I117" s="51"/>
-      <c r="J117" s="51"/>
-      <c r="K117" s="51"/>
-      <c r="L117" s="51"/>
-      <c r="M117" s="51"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A118" s="5">
+      <c r="A118" s="1">
         <v>58</v>
       </c>
-      <c r="B118" s="51"/>
-      <c r="C118" s="51"/>
-      <c r="D118" s="51"/>
-      <c r="E118" s="51"/>
-      <c r="F118" s="51"/>
-      <c r="G118" s="51"/>
-      <c r="H118" s="51"/>
-      <c r="I118" s="51"/>
-      <c r="J118" s="51"/>
-      <c r="K118" s="51"/>
-      <c r="L118" s="51"/>
-      <c r="M118" s="51"/>
     </row>
     <row r="119" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A119" s="5">
+      <c r="A119" s="1">
         <v>59</v>
       </c>
-      <c r="C119" s="52" t="s">
+      <c r="C119" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="122" t="str">
+      <c r="D119" s="105" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
-      <c r="L119" s="52" t="s">
+      <c r="L119" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="M119" s="54" t="str">
+      <c r="M119" s="48" t="str">
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A120" s="5">
+      <c r="A120" s="1">
         <v>60</v>
       </c>
-      <c r="C120" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D120" s="54" t="str">
+      <c r="C120" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D120" s="48" t="str">
         <f>IF($R$14="","",$R$14)</f>
         <v/>
       </c>
-      <c r="L120" s="52" t="s">
+      <c r="L120" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="M120" s="54" t="str">
+      <c r="M120" s="48" t="str">
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-    </row>
-    <row r="121" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A121" s="5"/>
-    </row>
-    <row r="122" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A122" s="5"/>
-    </row>
-    <row r="123" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A123" s="5"/>
-    </row>
-    <row r="124" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A124" s="5"/>
-    </row>
-    <row r="125" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A125" s="5"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -5736,30 +5601,9 @@
       </headerFooter>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="39">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K26:L26"/>
+  <mergeCells count="41">
+    <mergeCell ref="P99:R99"/>
+    <mergeCell ref="U98:V98"/>
     <mergeCell ref="U95:V95"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="F28:G28"/>
@@ -5776,20 +5620,43 @@
     <mergeCell ref="I77:I78"/>
     <mergeCell ref="J77:J78"/>
     <mergeCell ref="R84:T84"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
   </mergeCells>
-  <conditionalFormatting sqref="L35:L39 L42:L43 L46:L49">
+  <conditionalFormatting sqref="L35:L39 L42:L43">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M35:M39 M42:M43 M46:M49">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"NO"</formula>
+  <conditionalFormatting sqref="L46:L50">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"TBD"</formula>
+  <conditionalFormatting sqref="M35:M39 M42:M43 M46:M49">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.59055118110236227" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5798,4 +5665,212 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F998253-B142-4885-8F39-E4D3B3260EAB}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="119" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>